--- a/substance_dictionary/dictionary_current_all_entities.xlsx
+++ b/substance_dictionary/dictionary_current_all_entities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ad_app_a.newatia\AppData\Local\Programs\Python\Python39\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GSRSFrontend\substance_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D73FB4A-81F5-4F95-AD07-FB6B4B5A0041}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43640C78-3035-4786-B6A3-A56CD040C369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="432" yWindow="312" windowWidth="21372" windowHeight="11328" tabRatio="317" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="396" yWindow="1356" windowWidth="19980" windowHeight="9756" tabRatio="317" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8859" uniqueCount="3124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8835" uniqueCount="3153">
   <si>
     <t>Field Name</t>
   </si>
@@ -8813,9 +8813,6 @@
     <t>Bdnum</t>
   </si>
   <si>
-    <t>root_applicationProductList_applicationIngredientList_bdnum</t>
-  </si>
-  <si>
     <t>Ingredient Type</t>
   </si>
   <si>
@@ -8834,21 +8831,12 @@
     <t>Ingredient Last Edited</t>
   </si>
   <si>
-    <t>Technical Effect</t>
-  </si>
-  <si>
     <t>root_applicationProductList_applicationIngredientList_createdBy</t>
   </si>
   <si>
-    <t>root_applicationProductList_applicationIngredientList_createDate</t>
-  </si>
-  <si>
     <t>root_applicationProductList_applicationIngredientList_modifiedBy</t>
   </si>
   <si>
-    <t>root_applicationProductList_applicationIngredientList_modifyDate</t>
-  </si>
-  <si>
     <t>Indication</t>
   </si>
   <si>
@@ -8948,9 +8936,6 @@
     <t>/applicationProductList/applicationProductNameList/productName</t>
   </si>
   <si>
-    <t>/applicationProductList/applicationIngredientList/bdnum</t>
-  </si>
-  <si>
     <t>/applicationProductList/applicationIngredientList/ingredientType</t>
   </si>
   <si>
@@ -8969,12 +8954,6 @@
     <t>/applicationIndicationList/indication</t>
   </si>
   <si>
-    <t>root_ProductTechnicalEffect_technicalEffect</t>
-  </si>
-  <si>
-    <t>/ProductTechnicalEffect/technicalEffect</t>
-  </si>
-  <si>
     <t>/ingredientName</t>
   </si>
   <si>
@@ -8987,9 +8966,6 @@
     <t>/hasIndications</t>
   </si>
   <si>
-    <t>/productNameDeprecated</t>
-  </si>
-  <si>
     <t>/submitDateYear</t>
   </si>
   <si>
@@ -9005,9 +8981,6 @@
     <t>root_submitDateYear</t>
   </si>
   <si>
-    <t>root_productNameDeprecated</t>
-  </si>
-  <si>
     <t>root_hasProducts</t>
   </si>
   <si>
@@ -9029,12 +9002,6 @@
     <t>root_modifiedBy</t>
   </si>
   <si>
-    <t>root_createDate</t>
-  </si>
-  <si>
-    <t>root_modifyDate</t>
-  </si>
-  <si>
     <t>Application Record Created By</t>
   </si>
   <si>
@@ -9399,6 +9366,126 @@
   </si>
   <si>
     <t>root_country</t>
+  </si>
+  <si>
+    <t>root_creationDate</t>
+  </si>
+  <si>
+    <t>root_lastModifiedDate</t>
+  </si>
+  <si>
+    <t>Substance Key</t>
+  </si>
+  <si>
+    <t>/applicationProductList/applicationIngredientList/substanceKey</t>
+  </si>
+  <si>
+    <t>root_applicationProductList_applicationIngredientList_substanceKey</t>
+  </si>
+  <si>
+    <t>root_applicationProductList_applicationProductNameList_deprecated</t>
+  </si>
+  <si>
+    <t>/applicationProductList/applicationProductNameList/deprecated</t>
+  </si>
+  <si>
+    <t>root_applicationProductList_applicationIngredientList_creationDate</t>
+  </si>
+  <si>
+    <t>root_applicationProductList_applicationIngredientList_lastModifiedDate</t>
+  </si>
+  <si>
+    <t>root_productIngredientAllList_activeMoietyName</t>
+  </si>
+  <si>
+    <t>/productIngredientAllList/activeMoiety</t>
+  </si>
+  <si>
+    <t>root_productIngredientAllList_countryWithoutCode</t>
+  </si>
+  <si>
+    <t>/productIngredientAllList/countryWithoutCode</t>
+  </si>
+  <si>
+    <t>root_productIngredientAllList_dosageFormName</t>
+  </si>
+  <si>
+    <t>/productIngredientAllList/dosageFormName</t>
+  </si>
+  <si>
+    <t>root_productCompanyAllList_feiNumber</t>
+  </si>
+  <si>
+    <t>/productCompanyAllList/feiNumber</t>
+  </si>
+  <si>
+    <t>root_productIngredientAllList_substanceName</t>
+  </si>
+  <si>
+    <t>/productIngredientAllList/substanceName</t>
+  </si>
+  <si>
+    <t>root_productIngredientAllList_ingredientType</t>
+  </si>
+  <si>
+    <t>/productIngredientAllList/ingredientType</t>
+  </si>
+  <si>
+    <t>root_routeName</t>
+  </si>
+  <si>
+    <t>/routeName</t>
+  </si>
+  <si>
+    <t>root_productNameAllList_productName</t>
+  </si>
+  <si>
+    <t>/productNameAllList/productName</t>
+  </si>
+  <si>
+    <t>Ingredient Approval ID</t>
+  </si>
+  <si>
+    <t>root_productIngredientAllList_substanceApprovalId</t>
+  </si>
+  <si>
+    <t>/productIngredientAllList/substanceApprovalId</t>
+  </si>
+  <si>
+    <t>root_productCompanyAllList_city</t>
+  </si>
+  <si>
+    <t>/productCompanyAllList/city</t>
+  </si>
+  <si>
+    <t>root_productCompanyAllList_labelerDuns</t>
+  </si>
+  <si>
+    <t>/productCompanyAllList/labelerDuns</t>
+  </si>
+  <si>
+    <t>root_productCompanyAllList_labelerName</t>
+  </si>
+  <si>
+    <t>/productCompanyAllList/labelerName</t>
+  </si>
+  <si>
+    <t>root_productIngredientAllList_state</t>
+  </si>
+  <si>
+    <t>/productIngredientAllList/state</t>
+  </si>
+  <si>
+    <t>root_productNDC</t>
+  </si>
+  <si>
+    <t>/productNDC</t>
+  </si>
+  <si>
+    <t>root_productIngredientAllList_substanceKey</t>
+  </si>
+  <si>
+    <t>/productIngredientAllList/substanceKey</t>
   </si>
 </sst>
 </file>
@@ -9798,11 +9885,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M905"/>
+  <dimension ref="A1:M903"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A825" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B907" sqref="B907"/>
+      <pane ySplit="1" topLeftCell="A889" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B904" sqref="B904"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11858,7 +11945,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>283</v>
       </c>
@@ -11893,7 +11980,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>289</v>
       </c>
@@ -11925,7 +12012,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>295</v>
       </c>
@@ -11957,7 +12044,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -11989,7 +12076,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -12018,7 +12105,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>61</v>
       </c>
@@ -12047,7 +12134,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -12076,7 +12163,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -12105,7 +12192,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -12134,7 +12221,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -12223,7 +12310,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>192</v>
       </c>
@@ -12255,7 +12342,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>198</v>
       </c>
@@ -12284,7 +12371,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>204</v>
       </c>
@@ -12313,7 +12400,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>105</v>
       </c>
@@ -12580,7 +12667,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>87</v>
       </c>
@@ -12667,7 +12754,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>386</v>
       </c>
@@ -13320,7 +13407,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>422</v>
       </c>
@@ -13349,7 +13436,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -13381,7 +13468,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -13442,7 +13529,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>61</v>
       </c>
@@ -13674,7 +13761,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>213</v>
       </c>
@@ -13706,7 +13793,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>397</v>
       </c>
@@ -13738,7 +13825,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>105</v>
       </c>
@@ -13770,7 +13857,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>61</v>
       </c>
@@ -13799,7 +13886,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>68</v>
       </c>
@@ -13828,7 +13915,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>74</v>
       </c>
@@ -13857,7 +13944,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>81</v>
       </c>
@@ -13886,7 +13973,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>87</v>
       </c>
@@ -13915,7 +14002,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>525</v>
       </c>
@@ -13976,7 +14063,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>534</v>
       </c>
@@ -14191,7 +14278,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -14223,7 +14310,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>341</v>
       </c>
@@ -14252,7 +14339,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>61</v>
       </c>
@@ -14281,7 +14368,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>68</v>
       </c>
@@ -14310,7 +14397,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>74</v>
       </c>
@@ -14339,7 +14426,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>356</v>
       </c>
@@ -14368,7 +14455,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>362</v>
       </c>
@@ -14397,7 +14484,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>81</v>
       </c>
@@ -14426,7 +14513,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>87</v>
       </c>
@@ -14455,7 +14542,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>374</v>
       </c>
@@ -14484,7 +14571,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>380</v>
       </c>
@@ -14542,7 +14629,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>213</v>
       </c>
@@ -14574,7 +14661,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>397</v>
       </c>
@@ -14606,7 +14693,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>105</v>
       </c>
@@ -14728,7 +14815,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>422</v>
       </c>
@@ -14757,7 +14844,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -14818,7 +14905,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>61</v>
       </c>
@@ -15055,7 +15142,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>198</v>
       </c>
@@ -15113,7 +15200,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>105</v>
       </c>
@@ -15174,7 +15261,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>668</v>
       </c>
@@ -19064,7 +19151,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="304" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>204</v>
       </c>
@@ -21409,7 +21496,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="383" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>204</v>
       </c>
@@ -27491,7 +27578,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="582" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>386</v>
       </c>
@@ -27858,7 +27945,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="594" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>87</v>
       </c>
@@ -28008,7 +28095,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="599" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>204</v>
       </c>
@@ -28499,7 +28586,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="615" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>11</v>
       </c>
@@ -28531,7 +28618,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="616" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>20</v>
       </c>
@@ -28560,7 +28647,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="617" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>61</v>
       </c>
@@ -28589,7 +28676,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="618" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>68</v>
       </c>
@@ -28618,7 +28705,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="619" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>74</v>
       </c>
@@ -28647,7 +28734,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="620" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>81</v>
       </c>
@@ -28676,7 +28763,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="621" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>87</v>
       </c>
@@ -28765,7 +28852,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="624" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>192</v>
       </c>
@@ -28794,7 +28881,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="625" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>198</v>
       </c>
@@ -28852,7 +28939,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="627" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>105</v>
       </c>
@@ -28884,7 +28971,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="628" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>11</v>
       </c>
@@ -28916,7 +29003,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="629" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>20</v>
       </c>
@@ -28945,7 +29032,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="630" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>61</v>
       </c>
@@ -28974,7 +29061,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="631" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>68</v>
       </c>
@@ -29003,7 +29090,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="632" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>74</v>
       </c>
@@ -29032,7 +29119,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="633" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>81</v>
       </c>
@@ -29061,7 +29148,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="634" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>87</v>
       </c>
@@ -29150,7 +29237,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="637" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>192</v>
       </c>
@@ -29179,7 +29266,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="638" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>198</v>
       </c>
@@ -29208,7 +29295,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="639" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>204</v>
       </c>
@@ -29237,7 +29324,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="640" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>105</v>
       </c>
@@ -34873,7 +34960,7 @@
         <v>2907</v>
       </c>
       <c r="B830" s="3" t="s">
-        <v>2960</v>
+        <v>2956</v>
       </c>
       <c r="C830" s="3" t="s">
         <v>2908</v>
@@ -34908,13 +34995,13 @@
         <v>2912</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>2961</v>
+        <v>2957</v>
       </c>
       <c r="C831" s="3" t="s">
-        <v>2942</v>
+        <v>2938</v>
       </c>
       <c r="D831" s="3" t="s">
-        <v>3060</v>
+        <v>3049</v>
       </c>
       <c r="E831" s="3" t="s">
         <v>2912</v>
@@ -34943,10 +35030,10 @@
         <v>2913</v>
       </c>
       <c r="B832" s="3" t="s">
-        <v>2962</v>
+        <v>2958</v>
       </c>
       <c r="C832" s="3" t="s">
-        <v>2943</v>
+        <v>2939</v>
       </c>
       <c r="D832" s="3"/>
       <c r="E832" s="3" t="s">
@@ -34976,10 +35063,10 @@
         <v>2914</v>
       </c>
       <c r="B833" s="3" t="s">
-        <v>2963</v>
+        <v>2959</v>
       </c>
       <c r="C833" s="3" t="s">
-        <v>2944</v>
+        <v>2940</v>
       </c>
       <c r="D833" s="3"/>
       <c r="E833" s="3" t="s">
@@ -35009,10 +35096,10 @@
         <v>2915</v>
       </c>
       <c r="B834" s="3" t="s">
-        <v>2964</v>
+        <v>2960</v>
       </c>
       <c r="C834" s="3" t="s">
-        <v>2945</v>
+        <v>2941</v>
       </c>
       <c r="D834" s="3"/>
       <c r="E834" s="3" t="s">
@@ -35042,10 +35129,10 @@
         <v>2916</v>
       </c>
       <c r="B835" s="3" t="s">
-        <v>2965</v>
+        <v>2961</v>
       </c>
       <c r="C835" s="3" t="s">
-        <v>2946</v>
+        <v>2942</v>
       </c>
       <c r="D835" s="3"/>
       <c r="E835" s="3" t="s">
@@ -35075,13 +35162,13 @@
         <v>2917</v>
       </c>
       <c r="B836" s="3" t="s">
-        <v>2966</v>
+        <v>2962</v>
       </c>
       <c r="C836" s="3" t="s">
-        <v>2947</v>
+        <v>2943</v>
       </c>
       <c r="D836" s="3" t="s">
-        <v>3062</v>
+        <v>3051</v>
       </c>
       <c r="E836" s="3" t="s">
         <v>2917</v>
@@ -35110,10 +35197,10 @@
         <v>2918</v>
       </c>
       <c r="B837" s="3" t="s">
-        <v>2967</v>
+        <v>2963</v>
       </c>
       <c r="C837" s="3" t="s">
-        <v>2948</v>
+        <v>2944</v>
       </c>
       <c r="D837" s="3"/>
       <c r="E837" s="3" t="s">
@@ -35149,7 +35236,7 @@
         <v>2149</v>
       </c>
       <c r="D838" s="3" t="s">
-        <v>3061</v>
+        <v>3050</v>
       </c>
       <c r="E838" s="3" t="s">
         <v>2919</v>
@@ -35178,10 +35265,10 @@
         <v>2920</v>
       </c>
       <c r="B839" s="3" t="s">
-        <v>2968</v>
+        <v>2964</v>
       </c>
       <c r="C839" s="3" t="s">
-        <v>2949</v>
+        <v>2945</v>
       </c>
       <c r="D839" s="3"/>
       <c r="E839" s="3" t="s">
@@ -35211,10 +35298,10 @@
         <v>1833</v>
       </c>
       <c r="B840" s="3" t="s">
-        <v>2969</v>
+        <v>2965</v>
       </c>
       <c r="C840" s="4" t="s">
-        <v>2950</v>
+        <v>2946</v>
       </c>
       <c r="D840" s="3"/>
       <c r="E840" s="3" t="s">
@@ -35244,10 +35331,10 @@
         <v>2921</v>
       </c>
       <c r="B841" s="3" t="s">
-        <v>2970</v>
+        <v>2966</v>
       </c>
       <c r="C841" s="3" t="s">
-        <v>2951</v>
+        <v>2947</v>
       </c>
       <c r="D841" s="3"/>
       <c r="E841" s="3" t="s">
@@ -35284,7 +35371,7 @@
       </c>
       <c r="D842" s="3"/>
       <c r="E842" s="3" t="s">
-        <v>3002</v>
+        <v>2991</v>
       </c>
       <c r="F842" s="3"/>
       <c r="G842" s="3"/>
@@ -35307,22 +35394,22 @@
     </row>
     <row r="843" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A843" s="3" t="s">
-        <v>2958</v>
+        <v>2954</v>
       </c>
       <c r="B843" s="3" t="s">
-        <v>2996</v>
+        <v>2987</v>
       </c>
       <c r="C843" s="3" t="s">
-        <v>3000</v>
+        <v>3113</v>
       </c>
       <c r="D843" s="3"/>
       <c r="E843" s="3" t="s">
-        <v>3003</v>
+        <v>2992</v>
       </c>
       <c r="F843" s="3"/>
       <c r="G843" s="3"/>
       <c r="H843" s="3" t="s">
-        <v>2958</v>
+        <v>2954</v>
       </c>
       <c r="I843" s="3"/>
       <c r="J843" s="3" t="s">
@@ -35343,14 +35430,14 @@
         <v>138</v>
       </c>
       <c r="B844" s="3" t="s">
-        <v>2998</v>
+        <v>2989</v>
       </c>
       <c r="C844" s="3" t="s">
-        <v>2999</v>
+        <v>2990</v>
       </c>
       <c r="D844" s="3"/>
       <c r="E844" s="3" t="s">
-        <v>3005</v>
+        <v>2994</v>
       </c>
       <c r="F844" s="3"/>
       <c r="G844" s="3"/>
@@ -35376,14 +35463,14 @@
         <v>135</v>
       </c>
       <c r="B845" s="3" t="s">
-        <v>2997</v>
+        <v>2988</v>
       </c>
       <c r="C845" s="3" t="s">
-        <v>3001</v>
+        <v>3114</v>
       </c>
       <c r="D845" s="3"/>
       <c r="E845" s="3" t="s">
-        <v>3004</v>
+        <v>2993</v>
       </c>
       <c r="F845" s="3"/>
       <c r="G845" s="3"/>
@@ -35409,7 +35496,7 @@
         <v>2922</v>
       </c>
       <c r="B846" s="3" t="s">
-        <v>2971</v>
+        <v>2967</v>
       </c>
       <c r="C846" s="3" t="s">
         <v>2923</v>
@@ -35444,7 +35531,7 @@
         <v>2926</v>
       </c>
       <c r="B847" s="3" t="s">
-        <v>2972</v>
+        <v>2968</v>
       </c>
       <c r="C847" s="3" t="s">
         <v>2925</v>
@@ -35474,22 +35561,22 @@
     </row>
     <row r="848" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A848" s="3" t="s">
-        <v>2927</v>
+        <v>2953</v>
       </c>
       <c r="B848" s="3" t="s">
-        <v>2973</v>
+        <v>3119</v>
       </c>
       <c r="C848" s="3" t="s">
-        <v>2928</v>
+        <v>3118</v>
       </c>
       <c r="D848" s="3"/>
       <c r="E848" s="3" t="s">
-        <v>2927</v>
+        <v>2953</v>
       </c>
       <c r="F848" s="3"/>
       <c r="G848" s="3"/>
       <c r="H848" s="3" t="s">
-        <v>2927</v>
+        <v>2953</v>
       </c>
       <c r="I848" s="3"/>
       <c r="J848" s="3" t="s">
@@ -35507,24 +35594,22 @@
     </row>
     <row r="849" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A849" s="3" t="s">
-        <v>2929</v>
+        <v>3115</v>
       </c>
       <c r="B849" s="3" t="s">
-        <v>2974</v>
+        <v>3116</v>
       </c>
       <c r="C849" s="3" t="s">
-        <v>2930</v>
-      </c>
-      <c r="D849" s="3" t="s">
-        <v>3063</v>
-      </c>
+        <v>3117</v>
+      </c>
+      <c r="D849" s="3"/>
       <c r="E849" s="3" t="s">
-        <v>2929</v>
+        <v>3115</v>
       </c>
       <c r="F849" s="3"/>
       <c r="G849" s="3"/>
       <c r="H849" s="3" t="s">
-        <v>2929</v>
+        <v>3115</v>
       </c>
       <c r="I849" s="3"/>
       <c r="J849" s="3" t="s">
@@ -35542,22 +35627,24 @@
     </row>
     <row r="850" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A850" s="3" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="B850" s="3" t="s">
-        <v>2975</v>
+        <v>2969</v>
       </c>
       <c r="C850" s="3" t="s">
-        <v>2936</v>
-      </c>
-      <c r="D850" s="3"/>
+        <v>2929</v>
+      </c>
+      <c r="D850" s="3" t="s">
+        <v>3052</v>
+      </c>
       <c r="E850" s="3" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="F850" s="3"/>
       <c r="G850" s="3"/>
       <c r="H850" s="3" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="I850" s="3"/>
       <c r="J850" s="3" t="s">
@@ -35575,22 +35662,22 @@
     </row>
     <row r="851" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A851" s="3" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="B851" s="3" t="s">
-        <v>2976</v>
+        <v>2970</v>
       </c>
       <c r="C851" s="3" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
       <c r="D851" s="3"/>
       <c r="E851" s="3" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="F851" s="3"/>
       <c r="G851" s="3"/>
       <c r="H851" s="3" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="I851" s="3"/>
       <c r="J851" s="3" t="s">
@@ -35608,22 +35695,22 @@
     </row>
     <row r="852" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A852" s="3" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="B852" s="3" t="s">
-        <v>2977</v>
+        <v>2971</v>
       </c>
       <c r="C852" s="3" t="s">
-        <v>2938</v>
+        <v>3120</v>
       </c>
       <c r="D852" s="3"/>
       <c r="E852" s="3" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="F852" s="3"/>
       <c r="G852" s="3"/>
       <c r="H852" s="3" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="I852" s="3"/>
       <c r="J852" s="3" t="s">
@@ -35641,22 +35728,22 @@
     </row>
     <row r="853" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A853" s="3" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="B853" s="3" t="s">
-        <v>2978</v>
+        <v>2972</v>
       </c>
       <c r="C853" s="3" t="s">
-        <v>2939</v>
+        <v>2935</v>
       </c>
       <c r="D853" s="3"/>
       <c r="E853" s="3" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="F853" s="3"/>
       <c r="G853" s="3"/>
       <c r="H853" s="3" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="I853" s="3"/>
       <c r="J853" s="3" t="s">
@@ -35674,22 +35761,22 @@
     </row>
     <row r="854" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A854" s="3" t="s">
-        <v>2940</v>
+        <v>2933</v>
       </c>
       <c r="B854" s="3" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="C854" s="3" t="s">
-        <v>2941</v>
+        <v>3121</v>
       </c>
       <c r="D854" s="3"/>
       <c r="E854" s="3" t="s">
-        <v>2940</v>
+        <v>2933</v>
       </c>
       <c r="F854" s="3"/>
       <c r="G854" s="3"/>
       <c r="H854" s="3" t="s">
-        <v>2940</v>
+        <v>2933</v>
       </c>
       <c r="I854" s="3"/>
       <c r="J854" s="3" t="s">
@@ -35707,22 +35794,22 @@
     </row>
     <row r="855" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A855" s="3" t="s">
-        <v>2935</v>
+        <v>2936</v>
       </c>
       <c r="B855" s="3" t="s">
-        <v>2981</v>
+        <v>2974</v>
       </c>
       <c r="C855" s="3" t="s">
-        <v>2980</v>
+        <v>2937</v>
       </c>
       <c r="D855" s="3"/>
       <c r="E855" s="3" t="s">
-        <v>2935</v>
+        <v>2936</v>
       </c>
       <c r="F855" s="3"/>
       <c r="G855" s="3"/>
       <c r="H855" s="3" t="s">
-        <v>2935</v>
+        <v>2936</v>
       </c>
       <c r="I855" s="3"/>
       <c r="J855" s="3" t="s">
@@ -35740,22 +35827,22 @@
     </row>
     <row r="856" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A856" s="3" t="s">
-        <v>2955</v>
+        <v>2951</v>
       </c>
       <c r="B856" s="3" t="s">
-        <v>2982</v>
+        <v>2975</v>
       </c>
       <c r="C856" s="3" t="s">
-        <v>2989</v>
+        <v>2981</v>
       </c>
       <c r="D856" s="3"/>
       <c r="E856" s="3" t="s">
-        <v>2955</v>
+        <v>2951</v>
       </c>
       <c r="F856" s="3"/>
       <c r="G856" s="3"/>
       <c r="H856" s="3" t="s">
-        <v>2955</v>
+        <v>2951</v>
       </c>
       <c r="I856" s="3"/>
       <c r="J856" s="3" t="s">
@@ -35773,22 +35860,22 @@
     </row>
     <row r="857" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A857" s="3" t="s">
-        <v>2956</v>
+        <v>2952</v>
       </c>
       <c r="B857" s="3" t="s">
-        <v>2988</v>
+        <v>2980</v>
       </c>
       <c r="C857" s="3" t="s">
-        <v>2990</v>
+        <v>2982</v>
       </c>
       <c r="D857" s="3"/>
       <c r="E857" s="3" t="s">
-        <v>2956</v>
+        <v>2952</v>
       </c>
       <c r="F857" s="3"/>
       <c r="G857" s="3"/>
       <c r="H857" s="3" t="s">
-        <v>2956</v>
+        <v>2952</v>
       </c>
       <c r="I857" s="3"/>
       <c r="J857" s="3" t="s">
@@ -35806,22 +35893,22 @@
     </row>
     <row r="858" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A858" s="3" t="s">
-        <v>2959</v>
+        <v>2955</v>
       </c>
       <c r="B858" s="3" t="s">
-        <v>2987</v>
+        <v>2979</v>
       </c>
       <c r="C858" s="3" t="s">
-        <v>2991</v>
+        <v>2983</v>
       </c>
       <c r="D858" s="3"/>
       <c r="E858" s="3" t="s">
-        <v>2959</v>
+        <v>2955</v>
       </c>
       <c r="F858" s="3"/>
       <c r="G858" s="3"/>
       <c r="H858" s="3" t="s">
-        <v>2959</v>
+        <v>2955</v>
       </c>
       <c r="I858" s="3"/>
       <c r="J858" s="3" t="s">
@@ -35839,22 +35926,22 @@
     </row>
     <row r="859" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A859" s="3" t="s">
-        <v>2957</v>
+        <v>2950</v>
       </c>
       <c r="B859" s="3" t="s">
-        <v>2986</v>
+        <v>2976</v>
       </c>
       <c r="C859" s="3" t="s">
-        <v>2992</v>
+        <v>2984</v>
       </c>
       <c r="D859" s="3"/>
       <c r="E859" s="3" t="s">
-        <v>2957</v>
+        <v>2950</v>
       </c>
       <c r="F859" s="3"/>
       <c r="G859" s="3"/>
       <c r="H859" s="3" t="s">
-        <v>2957</v>
+        <v>2950</v>
       </c>
       <c r="I859" s="3"/>
       <c r="J859" s="3" t="s">
@@ -35863,31 +35950,29 @@
       <c r="K859" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L859" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="L859" s="3"/>
       <c r="M859" s="3" t="s">
         <v>2911</v>
       </c>
     </row>
     <row r="860" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A860" s="3" t="s">
-        <v>2954</v>
+        <v>2949</v>
       </c>
       <c r="B860" s="3" t="s">
-        <v>2983</v>
+        <v>2977</v>
       </c>
       <c r="C860" s="3" t="s">
-        <v>2993</v>
+        <v>2985</v>
       </c>
       <c r="D860" s="3"/>
       <c r="E860" s="3" t="s">
-        <v>2954</v>
+        <v>2949</v>
       </c>
       <c r="F860" s="3"/>
       <c r="G860" s="3"/>
       <c r="H860" s="3" t="s">
-        <v>2954</v>
+        <v>2949</v>
       </c>
       <c r="I860" s="3"/>
       <c r="J860" s="3" t="s">
@@ -35896,31 +35981,29 @@
       <c r="K860" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L860" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="L860" s="3"/>
       <c r="M860" s="3" t="s">
         <v>2911</v>
       </c>
     </row>
     <row r="861" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A861" s="3" t="s">
-        <v>2953</v>
+        <v>2948</v>
       </c>
       <c r="B861" s="3" t="s">
-        <v>2984</v>
+        <v>2978</v>
       </c>
       <c r="C861" s="3" t="s">
-        <v>2994</v>
+        <v>2986</v>
       </c>
       <c r="D861" s="3"/>
       <c r="E861" s="3" t="s">
-        <v>2953</v>
+        <v>2948</v>
       </c>
       <c r="F861" s="3"/>
       <c r="G861" s="3"/>
       <c r="H861" s="3" t="s">
-        <v>2953</v>
+        <v>2948</v>
       </c>
       <c r="I861" s="3"/>
       <c r="J861" s="3" t="s">
@@ -35929,31 +36012,29 @@
       <c r="K861" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L861" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="L861" s="3"/>
       <c r="M861" s="3" t="s">
         <v>2911</v>
       </c>
     </row>
     <row r="862" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A862" s="3" t="s">
-        <v>2952</v>
+        <v>74</v>
       </c>
       <c r="B862" s="3" t="s">
-        <v>2985</v>
+        <v>130</v>
       </c>
       <c r="C862" s="3" t="s">
-        <v>2995</v>
+        <v>131</v>
       </c>
       <c r="D862" s="3"/>
       <c r="E862" s="3" t="s">
-        <v>2952</v>
+        <v>2995</v>
       </c>
       <c r="F862" s="3"/>
       <c r="G862" s="3"/>
       <c r="H862" s="3" t="s">
-        <v>2952</v>
+        <v>74</v>
       </c>
       <c r="I862" s="3"/>
       <c r="J862" s="3" t="s">
@@ -35962,64 +36043,62 @@
       <c r="K862" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L862" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="L862" s="3"/>
       <c r="M862" s="3" t="s">
         <v>2911</v>
       </c>
     </row>
     <row r="863" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A863" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B863" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C863" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D863" s="3"/>
-      <c r="E863" s="3" t="s">
-        <v>3006</v>
-      </c>
-      <c r="F863" s="3"/>
-      <c r="G863" s="3"/>
-      <c r="H863" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I863" s="3"/>
-      <c r="J863" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K863" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L863" s="3" t="s">
+      <c r="A863" s="2" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B863" s="2" t="s">
+        <v>2997</v>
+      </c>
+      <c r="C863" s="2" t="s">
+        <v>2998</v>
+      </c>
+      <c r="D863" s="2"/>
+      <c r="E863" s="2" t="s">
+        <v>2996</v>
+      </c>
+      <c r="F863" s="2"/>
+      <c r="G863" s="2"/>
+      <c r="H863" s="2" t="s">
+        <v>2996</v>
+      </c>
+      <c r="I863" s="2"/>
+      <c r="J863" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K863" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L863" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M863" s="3" t="s">
-        <v>2911</v>
+      <c r="M863" s="2" t="s">
+        <v>2999</v>
       </c>
     </row>
     <row r="864" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A864" s="2" t="s">
-        <v>3007</v>
+        <v>3000</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>3008</v>
+        <v>2966</v>
       </c>
       <c r="C864" s="2" t="s">
-        <v>3009</v>
+        <v>2947</v>
       </c>
       <c r="D864" s="2"/>
       <c r="E864" s="2" t="s">
-        <v>3007</v>
+        <v>3000</v>
       </c>
       <c r="F864" s="2"/>
       <c r="G864" s="2"/>
       <c r="H864" s="2" t="s">
-        <v>3007</v>
+        <v>3000</v>
       </c>
       <c r="I864" s="2"/>
       <c r="J864" s="2" t="s">
@@ -36032,27 +36111,27 @@
         <v>33</v>
       </c>
       <c r="M864" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="865" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A865" s="2" t="s">
-        <v>3011</v>
+        <v>2926</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>2970</v>
+        <v>3137</v>
       </c>
       <c r="C865" s="2" t="s">
-        <v>2951</v>
+        <v>3136</v>
       </c>
       <c r="D865" s="2"/>
       <c r="E865" s="2" t="s">
-        <v>3011</v>
+        <v>2926</v>
       </c>
       <c r="F865" s="2"/>
       <c r="G865" s="2"/>
       <c r="H865" s="2" t="s">
-        <v>3011</v>
+        <v>2926</v>
       </c>
       <c r="I865" s="2"/>
       <c r="J865" s="2" t="s">
@@ -36065,27 +36144,27 @@
         <v>33</v>
       </c>
       <c r="M865" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="866" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A866" s="2" t="s">
-        <v>2926</v>
+        <v>3003</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>3012</v>
+        <v>3004</v>
       </c>
       <c r="C866" s="2" t="s">
-        <v>3013</v>
+        <v>3005</v>
       </c>
       <c r="D866" s="2"/>
       <c r="E866" s="2" t="s">
-        <v>2926</v>
+        <v>3003</v>
       </c>
       <c r="F866" s="2"/>
       <c r="G866" s="2"/>
       <c r="H866" s="2" t="s">
-        <v>2926</v>
+        <v>3003</v>
       </c>
       <c r="I866" s="2"/>
       <c r="J866" s="2" t="s">
@@ -36098,27 +36177,27 @@
         <v>33</v>
       </c>
       <c r="M866" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="867" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A867" s="2" t="s">
-        <v>3014</v>
+        <v>3006</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>3015</v>
+        <v>3007</v>
       </c>
       <c r="C867" s="2" t="s">
-        <v>3016</v>
+        <v>3008</v>
       </c>
       <c r="D867" s="2"/>
       <c r="E867" s="2" t="s">
-        <v>3014</v>
+        <v>3006</v>
       </c>
       <c r="F867" s="2"/>
       <c r="G867" s="2"/>
       <c r="H867" s="2" t="s">
-        <v>3014</v>
+        <v>3006</v>
       </c>
       <c r="I867" s="2"/>
       <c r="J867" s="2" t="s">
@@ -36131,27 +36210,27 @@
         <v>33</v>
       </c>
       <c r="M867" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="868" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A868" s="2" t="s">
-        <v>3017</v>
+        <v>3009</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>3018</v>
+        <v>3010</v>
       </c>
       <c r="C868" s="2" t="s">
-        <v>3019</v>
+        <v>3011</v>
       </c>
       <c r="D868" s="2"/>
       <c r="E868" s="2" t="s">
-        <v>3017</v>
+        <v>3009</v>
       </c>
       <c r="F868" s="2"/>
       <c r="G868" s="2"/>
       <c r="H868" s="2" t="s">
-        <v>3017</v>
+        <v>3009</v>
       </c>
       <c r="I868" s="2"/>
       <c r="J868" s="2" t="s">
@@ -36164,27 +36243,29 @@
         <v>33</v>
       </c>
       <c r="M868" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="869" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A869" s="2" t="s">
-        <v>3020</v>
+        <v>8</v>
       </c>
       <c r="B869" s="2" t="s">
-        <v>3021</v>
+        <v>2148</v>
       </c>
       <c r="C869" s="2" t="s">
-        <v>3022</v>
-      </c>
-      <c r="D869" s="2"/>
+        <v>2149</v>
+      </c>
+      <c r="D869" s="2" t="s">
+        <v>3055</v>
+      </c>
       <c r="E869" s="2" t="s">
-        <v>3020</v>
+        <v>3012</v>
       </c>
       <c r="F869" s="2"/>
       <c r="G869" s="2"/>
       <c r="H869" s="2" t="s">
-        <v>3020</v>
+        <v>8</v>
       </c>
       <c r="I869" s="2"/>
       <c r="J869" s="2" t="s">
@@ -36197,29 +36278,29 @@
         <v>33</v>
       </c>
       <c r="M869" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="870" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A870" s="2" t="s">
-        <v>8</v>
+        <v>3013</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>2148</v>
+        <v>3135</v>
       </c>
       <c r="C870" s="2" t="s">
-        <v>2149</v>
+        <v>3134</v>
       </c>
       <c r="D870" s="2" t="s">
-        <v>3066</v>
+        <v>3056</v>
       </c>
       <c r="E870" s="2" t="s">
-        <v>3023</v>
+        <v>3013</v>
       </c>
       <c r="F870" s="2"/>
       <c r="G870" s="2"/>
       <c r="H870" s="2" t="s">
-        <v>8</v>
+        <v>3013</v>
       </c>
       <c r="I870" s="2"/>
       <c r="J870" s="2" t="s">
@@ -36232,29 +36313,27 @@
         <v>33</v>
       </c>
       <c r="M870" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="871" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A871" s="2" t="s">
-        <v>3024</v>
+        <v>3115</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>3025</v>
+        <v>3152</v>
       </c>
       <c r="C871" s="2" t="s">
-        <v>3026</v>
-      </c>
-      <c r="D871" s="2" t="s">
-        <v>3067</v>
-      </c>
+        <v>3151</v>
+      </c>
+      <c r="D871" s="2"/>
       <c r="E871" s="2" t="s">
-        <v>3024</v>
+        <v>3115</v>
       </c>
       <c r="F871" s="2"/>
       <c r="G871" s="2"/>
       <c r="H871" s="2" t="s">
-        <v>3024</v>
+        <v>3115</v>
       </c>
       <c r="I871" s="2"/>
       <c r="J871" s="2" t="s">
@@ -36267,27 +36346,27 @@
         <v>33</v>
       </c>
       <c r="M871" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="872" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A872" s="2" t="s">
-        <v>2927</v>
+        <v>2951</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>3093</v>
+        <v>3131</v>
       </c>
       <c r="C872" s="2" t="s">
-        <v>3112</v>
+        <v>3130</v>
       </c>
       <c r="D872" s="2"/>
       <c r="E872" s="2" t="s">
-        <v>3027</v>
+        <v>2951</v>
       </c>
       <c r="F872" s="2"/>
       <c r="G872" s="2"/>
       <c r="H872" s="2" t="s">
-        <v>3027</v>
+        <v>2951</v>
       </c>
       <c r="I872" s="2"/>
       <c r="J872" s="2" t="s">
@@ -36300,27 +36379,27 @@
         <v>33</v>
       </c>
       <c r="M872" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="873" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A873" s="2" t="s">
-        <v>2955</v>
+        <v>3138</v>
       </c>
       <c r="B873" s="2" t="s">
-        <v>2982</v>
+        <v>3140</v>
       </c>
       <c r="C873" s="2" t="s">
-        <v>2989</v>
+        <v>3139</v>
       </c>
       <c r="D873" s="2"/>
       <c r="E873" s="2" t="s">
-        <v>2955</v>
+        <v>3138</v>
       </c>
       <c r="F873" s="2"/>
       <c r="G873" s="2"/>
       <c r="H873" s="2" t="s">
-        <v>2955</v>
+        <v>3138</v>
       </c>
       <c r="I873" s="2"/>
       <c r="J873" s="2" t="s">
@@ -36333,27 +36412,29 @@
         <v>33</v>
       </c>
       <c r="M873" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="874" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A874" s="2" t="s">
-        <v>3028</v>
+        <v>2928</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>3094</v>
+        <v>3133</v>
       </c>
       <c r="C874" s="2" t="s">
-        <v>3113</v>
-      </c>
-      <c r="D874" s="2"/>
+        <v>3132</v>
+      </c>
+      <c r="D874" s="2" t="s">
+        <v>3052</v>
+      </c>
       <c r="E874" s="2" t="s">
-        <v>3028</v>
+        <v>2928</v>
       </c>
       <c r="F874" s="2"/>
       <c r="G874" s="2"/>
       <c r="H874" s="2" t="s">
-        <v>3028</v>
+        <v>2928</v>
       </c>
       <c r="I874" s="2"/>
       <c r="J874" s="2" t="s">
@@ -36366,29 +36447,27 @@
         <v>33</v>
       </c>
       <c r="M874" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="875" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A875" s="2" t="s">
-        <v>2929</v>
+        <v>3018</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>3095</v>
+        <v>3127</v>
       </c>
       <c r="C875" s="2" t="s">
-        <v>3068</v>
-      </c>
-      <c r="D875" s="2" t="s">
-        <v>3063</v>
-      </c>
+        <v>3126</v>
+      </c>
+      <c r="D875" s="2"/>
       <c r="E875" s="2" t="s">
-        <v>2929</v>
+        <v>3018</v>
       </c>
       <c r="F875" s="2"/>
       <c r="G875" s="2"/>
       <c r="H875" s="2" t="s">
-        <v>2929</v>
+        <v>3018</v>
       </c>
       <c r="I875" s="2"/>
       <c r="J875" s="2" t="s">
@@ -36401,27 +36480,27 @@
         <v>33</v>
       </c>
       <c r="M875" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="876" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A876" s="2" t="s">
-        <v>3029</v>
+        <v>3019</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>3108</v>
+        <v>3150</v>
       </c>
       <c r="C876" s="2" t="s">
-        <v>3109</v>
+        <v>3149</v>
       </c>
       <c r="D876" s="2"/>
       <c r="E876" s="2" t="s">
-        <v>3029</v>
+        <v>3019</v>
       </c>
       <c r="F876" s="2"/>
       <c r="G876" s="2"/>
       <c r="H876" s="2" t="s">
-        <v>3029</v>
+        <v>3019</v>
       </c>
       <c r="I876" s="2"/>
       <c r="J876" s="2" t="s">
@@ -36434,27 +36513,27 @@
         <v>33</v>
       </c>
       <c r="M876" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="877" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A877" s="2" t="s">
-        <v>3030</v>
+        <v>3020</v>
       </c>
       <c r="B877" s="2" t="s">
-        <v>3110</v>
+        <v>3123</v>
       </c>
       <c r="C877" s="2" t="s">
-        <v>3111</v>
+        <v>3122</v>
       </c>
       <c r="D877" s="2"/>
       <c r="E877" s="2" t="s">
-        <v>3030</v>
+        <v>3020</v>
       </c>
       <c r="F877" s="2"/>
       <c r="G877" s="2"/>
       <c r="H877" s="2" t="s">
-        <v>3030</v>
+        <v>3020</v>
       </c>
       <c r="I877" s="2"/>
       <c r="J877" s="2" t="s">
@@ -36467,27 +36546,27 @@
         <v>33</v>
       </c>
       <c r="M877" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="878" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A878" s="2" t="s">
-        <v>3031</v>
+        <v>3021</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>3106</v>
+        <v>3094</v>
       </c>
       <c r="C878" s="2" t="s">
-        <v>3107</v>
+        <v>3093</v>
       </c>
       <c r="D878" s="2"/>
       <c r="E878" s="2" t="s">
-        <v>3031</v>
+        <v>3021</v>
       </c>
       <c r="F878" s="2"/>
       <c r="G878" s="2"/>
       <c r="H878" s="2" t="s">
-        <v>3031</v>
+        <v>3021</v>
       </c>
       <c r="I878" s="2"/>
       <c r="J878" s="2" t="s">
@@ -36500,27 +36579,27 @@
         <v>33</v>
       </c>
       <c r="M878" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="879" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A879" s="2" t="s">
-        <v>3032</v>
+        <v>3022</v>
       </c>
       <c r="B879" s="2" t="s">
-        <v>3105</v>
+        <v>3103</v>
       </c>
       <c r="C879" s="2" t="s">
         <v>3104</v>
       </c>
       <c r="D879" s="2"/>
       <c r="E879" s="2" t="s">
-        <v>3032</v>
+        <v>3022</v>
       </c>
       <c r="F879" s="2"/>
       <c r="G879" s="2"/>
       <c r="H879" s="2" t="s">
-        <v>3032</v>
+        <v>3022</v>
       </c>
       <c r="I879" s="2"/>
       <c r="J879" s="2" t="s">
@@ -36533,27 +36612,27 @@
         <v>33</v>
       </c>
       <c r="M879" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="880" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A880" s="2" t="s">
-        <v>3033</v>
+        <v>3023</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>3114</v>
+        <v>3146</v>
       </c>
       <c r="C880" s="2" t="s">
-        <v>3115</v>
+        <v>3145</v>
       </c>
       <c r="D880" s="2"/>
       <c r="E880" s="2" t="s">
-        <v>3033</v>
+        <v>3023</v>
       </c>
       <c r="F880" s="2"/>
       <c r="G880" s="2"/>
       <c r="H880" s="2" t="s">
-        <v>3033</v>
+        <v>3023</v>
       </c>
       <c r="I880" s="2"/>
       <c r="J880" s="2" t="s">
@@ -36566,27 +36645,27 @@
         <v>33</v>
       </c>
       <c r="M880" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="881" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A881" s="2" t="s">
-        <v>3034</v>
+        <v>3024</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>3116</v>
+        <v>3144</v>
       </c>
       <c r="C881" s="2" t="s">
-        <v>3117</v>
+        <v>3143</v>
       </c>
       <c r="D881" s="2"/>
       <c r="E881" s="2" t="s">
-        <v>3034</v>
+        <v>3024</v>
       </c>
       <c r="F881" s="2"/>
       <c r="G881" s="2"/>
       <c r="H881" s="2" t="s">
-        <v>3034</v>
+        <v>3024</v>
       </c>
       <c r="I881" s="2"/>
       <c r="J881" s="2" t="s">
@@ -36599,27 +36678,27 @@
         <v>33</v>
       </c>
       <c r="M881" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="882" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A882" s="2" t="s">
-        <v>3035</v>
+        <v>3053</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>3118</v>
+        <v>3142</v>
       </c>
       <c r="C882" s="2" t="s">
-        <v>3119</v>
+        <v>3141</v>
       </c>
       <c r="D882" s="2"/>
       <c r="E882" s="2" t="s">
-        <v>3035</v>
+        <v>3053</v>
       </c>
       <c r="F882" s="2"/>
       <c r="G882" s="2"/>
       <c r="H882" s="2" t="s">
-        <v>3035</v>
+        <v>3025</v>
       </c>
       <c r="I882" s="2"/>
       <c r="J882" s="2" t="s">
@@ -36632,27 +36711,27 @@
         <v>33</v>
       </c>
       <c r="M882" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="883" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A883" s="2" t="s">
-        <v>3064</v>
+        <v>3026</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>3120</v>
+        <v>3125</v>
       </c>
       <c r="C883" s="2" t="s">
-        <v>3121</v>
+        <v>3124</v>
       </c>
       <c r="D883" s="2"/>
       <c r="E883" s="2" t="s">
-        <v>3064</v>
+        <v>3026</v>
       </c>
       <c r="F883" s="2"/>
       <c r="G883" s="2"/>
       <c r="H883" s="2" t="s">
-        <v>3036</v>
+        <v>3026</v>
       </c>
       <c r="I883" s="2"/>
       <c r="J883" s="2" t="s">
@@ -36665,27 +36744,27 @@
         <v>33</v>
       </c>
       <c r="M883" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="884" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A884" s="2" t="s">
-        <v>3037</v>
+        <v>3054</v>
       </c>
       <c r="B884" s="2" t="s">
-        <v>3122</v>
+        <v>3148</v>
       </c>
       <c r="C884" s="2" t="s">
-        <v>3123</v>
+        <v>3147</v>
       </c>
       <c r="D884" s="2"/>
       <c r="E884" s="2" t="s">
-        <v>3037</v>
+        <v>3054</v>
       </c>
       <c r="F884" s="2"/>
       <c r="G884" s="2"/>
       <c r="H884" s="2" t="s">
-        <v>3037</v>
+        <v>3027</v>
       </c>
       <c r="I884" s="2"/>
       <c r="J884" s="2" t="s">
@@ -36698,27 +36777,27 @@
         <v>33</v>
       </c>
       <c r="M884" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="885" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A885" s="2" t="s">
-        <v>3065</v>
+        <v>3028</v>
       </c>
       <c r="B885" s="2" t="s">
-        <v>3097</v>
+        <v>3129</v>
       </c>
       <c r="C885" s="2" t="s">
-        <v>3098</v>
+        <v>3128</v>
       </c>
       <c r="D885" s="2"/>
       <c r="E885" s="2" t="s">
-        <v>3065</v>
+        <v>3028</v>
       </c>
       <c r="F885" s="2"/>
       <c r="G885" s="2"/>
       <c r="H885" s="2" t="s">
-        <v>3038</v>
+        <v>3028</v>
       </c>
       <c r="I885" s="2"/>
       <c r="J885" s="2" t="s">
@@ -36731,27 +36810,27 @@
         <v>33</v>
       </c>
       <c r="M885" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="886" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A886" s="2" t="s">
-        <v>3039</v>
+        <v>3029</v>
       </c>
       <c r="B886" s="2" t="s">
-        <v>3096</v>
+        <v>3092</v>
       </c>
       <c r="C886" s="2" t="s">
-        <v>3099</v>
+        <v>3089</v>
       </c>
       <c r="D886" s="2"/>
       <c r="E886" s="2" t="s">
-        <v>3039</v>
+        <v>3029</v>
       </c>
       <c r="F886" s="2"/>
       <c r="G886" s="2"/>
       <c r="H886" s="2" t="s">
-        <v>3039</v>
+        <v>3029</v>
       </c>
       <c r="I886" s="2"/>
       <c r="J886" s="2" t="s">
@@ -36764,27 +36843,27 @@
         <v>33</v>
       </c>
       <c r="M886" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="887" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A887" s="2" t="s">
-        <v>3040</v>
+        <v>3030</v>
       </c>
       <c r="B887" s="2" t="s">
-        <v>3103</v>
+        <v>3090</v>
       </c>
       <c r="C887" s="2" t="s">
-        <v>3100</v>
+        <v>3091</v>
       </c>
       <c r="D887" s="2"/>
       <c r="E887" s="2" t="s">
-        <v>3040</v>
+        <v>3030</v>
       </c>
       <c r="F887" s="2"/>
       <c r="G887" s="2"/>
       <c r="H887" s="2" t="s">
-        <v>3040</v>
+        <v>3030</v>
       </c>
       <c r="I887" s="2"/>
       <c r="J887" s="2" t="s">
@@ -36797,27 +36876,27 @@
         <v>33</v>
       </c>
       <c r="M887" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="888" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A888" s="2" t="s">
-        <v>3041</v>
+        <v>2920</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>3101</v>
+        <v>2964</v>
       </c>
       <c r="C888" s="2" t="s">
-        <v>3102</v>
+        <v>2945</v>
       </c>
       <c r="D888" s="2"/>
       <c r="E888" s="2" t="s">
-        <v>3041</v>
+        <v>3031</v>
       </c>
       <c r="F888" s="2"/>
       <c r="G888" s="2"/>
       <c r="H888" s="2" t="s">
-        <v>3041</v>
+        <v>3031</v>
       </c>
       <c r="I888" s="2"/>
       <c r="J888" s="2" t="s">
@@ -36830,27 +36909,27 @@
         <v>33</v>
       </c>
       <c r="M888" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="889" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A889" s="2" t="s">
-        <v>2920</v>
+        <v>2912</v>
       </c>
       <c r="B889" s="2" t="s">
-        <v>2968</v>
+        <v>2957</v>
       </c>
       <c r="C889" s="2" t="s">
-        <v>2949</v>
+        <v>2938</v>
       </c>
       <c r="D889" s="2"/>
       <c r="E889" s="2" t="s">
-        <v>3042</v>
+        <v>3032</v>
       </c>
       <c r="F889" s="2"/>
       <c r="G889" s="2"/>
       <c r="H889" s="2" t="s">
-        <v>3042</v>
+        <v>3032</v>
       </c>
       <c r="I889" s="2"/>
       <c r="J889" s="2" t="s">
@@ -36863,27 +36942,27 @@
         <v>33</v>
       </c>
       <c r="M889" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="890" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A890" s="2" t="s">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="B890" s="2" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="C890" s="2" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="D890" s="2"/>
       <c r="E890" s="2" t="s">
-        <v>3043</v>
+        <v>3033</v>
       </c>
       <c r="F890" s="2"/>
       <c r="G890" s="2"/>
       <c r="H890" s="2" t="s">
-        <v>3043</v>
+        <v>3033</v>
       </c>
       <c r="I890" s="2"/>
       <c r="J890" s="2" t="s">
@@ -36896,27 +36975,27 @@
         <v>33</v>
       </c>
       <c r="M890" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="891" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A891" s="2" t="s">
-        <v>2913</v>
+        <v>74</v>
       </c>
       <c r="B891" s="2" t="s">
-        <v>2962</v>
+        <v>130</v>
       </c>
       <c r="C891" s="2" t="s">
-        <v>2943</v>
+        <v>131</v>
       </c>
       <c r="D891" s="2"/>
       <c r="E891" s="2" t="s">
-        <v>3044</v>
+        <v>3034</v>
       </c>
       <c r="F891" s="2"/>
       <c r="G891" s="2"/>
       <c r="H891" s="2" t="s">
-        <v>3044</v>
+        <v>3034</v>
       </c>
       <c r="I891" s="2"/>
       <c r="J891" s="2" t="s">
@@ -36925,64 +37004,62 @@
       <c r="K891" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L891" s="2" t="s">
+      <c r="L891" s="2"/>
+      <c r="M891" s="2" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="892" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A892" s="5" t="s">
+        <v>3035</v>
+      </c>
+      <c r="B892" s="5" t="s">
+        <v>3058</v>
+      </c>
+      <c r="C892" s="5" t="s">
+        <v>3070</v>
+      </c>
+      <c r="D892" s="5"/>
+      <c r="E892" s="5" t="s">
+        <v>3035</v>
+      </c>
+      <c r="F892" s="5"/>
+      <c r="G892" s="5"/>
+      <c r="H892" s="5" t="s">
+        <v>3035</v>
+      </c>
+      <c r="I892" s="5"/>
+      <c r="J892" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K892" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L892" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M891" s="2" t="s">
-        <v>3010</v>
-      </c>
-    </row>
-    <row r="892" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A892" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B892" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C892" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D892" s="2"/>
-      <c r="E892" s="2" t="s">
-        <v>3045</v>
-      </c>
-      <c r="F892" s="2"/>
-      <c r="G892" s="2"/>
-      <c r="H892" s="2" t="s">
-        <v>3045</v>
-      </c>
-      <c r="I892" s="2"/>
-      <c r="J892" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K892" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L892" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M892" s="2" t="s">
-        <v>3010</v>
+      <c r="M892" s="5" t="s">
+        <v>3036</v>
       </c>
     </row>
     <row r="893" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A893" s="5" t="s">
-        <v>3046</v>
+        <v>3037</v>
       </c>
       <c r="B893" s="5" t="s">
-        <v>3069</v>
+        <v>3059</v>
       </c>
       <c r="C893" s="5" t="s">
-        <v>3081</v>
+        <v>3071</v>
       </c>
       <c r="D893" s="5"/>
       <c r="E893" s="5" t="s">
-        <v>3046</v>
+        <v>3037</v>
       </c>
       <c r="F893" s="5"/>
       <c r="G893" s="5"/>
       <c r="H893" s="5" t="s">
-        <v>3046</v>
+        <v>3037</v>
       </c>
       <c r="I893" s="5"/>
       <c r="J893" s="5" t="s">
@@ -36995,27 +37072,27 @@
         <v>33</v>
       </c>
       <c r="M893" s="5" t="s">
-        <v>3047</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="894" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A894" s="5" t="s">
-        <v>3048</v>
+        <v>3038</v>
       </c>
       <c r="B894" s="5" t="s">
-        <v>3070</v>
+        <v>3060</v>
       </c>
       <c r="C894" s="5" t="s">
-        <v>3082</v>
+        <v>3072</v>
       </c>
       <c r="D894" s="5"/>
       <c r="E894" s="5" t="s">
-        <v>3048</v>
+        <v>3038</v>
       </c>
       <c r="F894" s="5"/>
       <c r="G894" s="5"/>
       <c r="H894" s="5" t="s">
-        <v>3048</v>
+        <v>3038</v>
       </c>
       <c r="I894" s="5"/>
       <c r="J894" s="5" t="s">
@@ -37028,27 +37105,27 @@
         <v>33</v>
       </c>
       <c r="M894" s="5" t="s">
-        <v>3047</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="895" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A895" s="5" t="s">
-        <v>3049</v>
+        <v>3039</v>
       </c>
       <c r="B895" s="5" t="s">
-        <v>3071</v>
+        <v>3061</v>
       </c>
       <c r="C895" s="5" t="s">
-        <v>3083</v>
+        <v>3073</v>
       </c>
       <c r="D895" s="5"/>
       <c r="E895" s="5" t="s">
-        <v>3049</v>
+        <v>3039</v>
       </c>
       <c r="F895" s="5"/>
       <c r="G895" s="5"/>
       <c r="H895" s="5" t="s">
-        <v>3049</v>
+        <v>3039</v>
       </c>
       <c r="I895" s="5"/>
       <c r="J895" s="5" t="s">
@@ -37061,27 +37138,27 @@
         <v>33</v>
       </c>
       <c r="M895" s="5" t="s">
-        <v>3047</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="896" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A896" s="5" t="s">
-        <v>3050</v>
+        <v>3040</v>
       </c>
       <c r="B896" s="5" t="s">
-        <v>3072</v>
+        <v>3062</v>
       </c>
       <c r="C896" s="5" t="s">
-        <v>3084</v>
+        <v>3074</v>
       </c>
       <c r="D896" s="5"/>
       <c r="E896" s="5" t="s">
-        <v>3050</v>
+        <v>3040</v>
       </c>
       <c r="F896" s="5"/>
       <c r="G896" s="5"/>
       <c r="H896" s="5" t="s">
-        <v>3050</v>
+        <v>3040</v>
       </c>
       <c r="I896" s="5"/>
       <c r="J896" s="5" t="s">
@@ -37094,27 +37171,27 @@
         <v>33</v>
       </c>
       <c r="M896" s="5" t="s">
-        <v>3047</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="897" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A897" s="5" t="s">
-        <v>3051</v>
+        <v>3041</v>
       </c>
       <c r="B897" s="5" t="s">
-        <v>3073</v>
+        <v>3063</v>
       </c>
       <c r="C897" s="5" t="s">
-        <v>3085</v>
+        <v>3075</v>
       </c>
       <c r="D897" s="5"/>
       <c r="E897" s="5" t="s">
-        <v>3051</v>
+        <v>3041</v>
       </c>
       <c r="F897" s="5"/>
       <c r="G897" s="5"/>
       <c r="H897" s="5" t="s">
-        <v>3051</v>
+        <v>3041</v>
       </c>
       <c r="I897" s="5"/>
       <c r="J897" s="5" t="s">
@@ -37127,27 +37204,27 @@
         <v>33</v>
       </c>
       <c r="M897" s="5" t="s">
-        <v>3047</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="898" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A898" s="5" t="s">
-        <v>3052</v>
+        <v>3042</v>
       </c>
       <c r="B898" s="5" t="s">
-        <v>3074</v>
+        <v>3064</v>
       </c>
       <c r="C898" s="5" t="s">
-        <v>3086</v>
+        <v>3076</v>
       </c>
       <c r="D898" s="5"/>
       <c r="E898" s="5" t="s">
-        <v>3052</v>
+        <v>3042</v>
       </c>
       <c r="F898" s="5"/>
       <c r="G898" s="5"/>
       <c r="H898" s="5" t="s">
-        <v>3052</v>
+        <v>3042</v>
       </c>
       <c r="I898" s="5"/>
       <c r="J898" s="5" t="s">
@@ -37160,27 +37237,27 @@
         <v>33</v>
       </c>
       <c r="M898" s="5" t="s">
-        <v>3047</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="899" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A899" s="5" t="s">
-        <v>3053</v>
+        <v>3043</v>
       </c>
       <c r="B899" s="5" t="s">
-        <v>3075</v>
+        <v>3065</v>
       </c>
       <c r="C899" s="5" t="s">
-        <v>3087</v>
+        <v>3077</v>
       </c>
       <c r="D899" s="5"/>
       <c r="E899" s="5" t="s">
-        <v>3053</v>
+        <v>3043</v>
       </c>
       <c r="F899" s="5"/>
       <c r="G899" s="5"/>
       <c r="H899" s="5" t="s">
-        <v>3053</v>
+        <v>3043</v>
       </c>
       <c r="I899" s="5"/>
       <c r="J899" s="5" t="s">
@@ -37193,27 +37270,27 @@
         <v>33</v>
       </c>
       <c r="M899" s="5" t="s">
-        <v>3047</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="900" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A900" s="5" t="s">
-        <v>3054</v>
+        <v>3044</v>
       </c>
       <c r="B900" s="5" t="s">
-        <v>3076</v>
+        <v>3066</v>
       </c>
       <c r="C900" s="5" t="s">
-        <v>3088</v>
+        <v>3078</v>
       </c>
       <c r="D900" s="5"/>
       <c r="E900" s="5" t="s">
-        <v>3054</v>
+        <v>3044</v>
       </c>
       <c r="F900" s="5"/>
       <c r="G900" s="5"/>
       <c r="H900" s="5" t="s">
-        <v>3054</v>
+        <v>3044</v>
       </c>
       <c r="I900" s="5"/>
       <c r="J900" s="5" t="s">
@@ -37226,27 +37303,27 @@
         <v>33</v>
       </c>
       <c r="M900" s="5" t="s">
-        <v>3047</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="901" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A901" s="5" t="s">
-        <v>3055</v>
+        <v>3046</v>
       </c>
       <c r="B901" s="5" t="s">
-        <v>3077</v>
+        <v>3068</v>
       </c>
       <c r="C901" s="5" t="s">
-        <v>3089</v>
+        <v>3080</v>
       </c>
       <c r="D901" s="5"/>
       <c r="E901" s="5" t="s">
-        <v>3055</v>
+        <v>3046</v>
       </c>
       <c r="F901" s="5"/>
       <c r="G901" s="5"/>
       <c r="H901" s="5" t="s">
-        <v>3055</v>
+        <v>3046</v>
       </c>
       <c r="I901" s="5"/>
       <c r="J901" s="5" t="s">
@@ -37259,27 +37336,27 @@
         <v>33</v>
       </c>
       <c r="M901" s="5" t="s">
-        <v>3047</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="902" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A902" s="5" t="s">
-        <v>3056</v>
+        <v>3047</v>
       </c>
       <c r="B902" s="5" t="s">
-        <v>3078</v>
+        <v>3069</v>
       </c>
       <c r="C902" s="5" t="s">
-        <v>3090</v>
+        <v>3081</v>
       </c>
       <c r="D902" s="5"/>
       <c r="E902" s="5" t="s">
-        <v>3056</v>
+        <v>3047</v>
       </c>
       <c r="F902" s="5"/>
       <c r="G902" s="5"/>
       <c r="H902" s="5" t="s">
-        <v>3056</v>
+        <v>3047</v>
       </c>
       <c r="I902" s="5"/>
       <c r="J902" s="5" t="s">
@@ -37292,27 +37369,27 @@
         <v>33</v>
       </c>
       <c r="M902" s="5" t="s">
-        <v>3047</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="903" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A903" s="5" t="s">
-        <v>3057</v>
+        <v>74</v>
       </c>
       <c r="B903" s="5" t="s">
-        <v>3079</v>
+        <v>130</v>
       </c>
       <c r="C903" s="5" t="s">
-        <v>3091</v>
+        <v>131</v>
       </c>
       <c r="D903" s="5"/>
       <c r="E903" s="5" t="s">
-        <v>3057</v>
+        <v>74</v>
       </c>
       <c r="F903" s="5"/>
       <c r="G903" s="5"/>
       <c r="H903" s="5" t="s">
-        <v>3057</v>
+        <v>3048</v>
       </c>
       <c r="I903" s="5"/>
       <c r="J903" s="5" t="s">
@@ -37321,77 +37398,9 @@
       <c r="K903" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L903" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="L903" s="5"/>
       <c r="M903" s="5" t="s">
-        <v>3047</v>
-      </c>
-    </row>
-    <row r="904" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A904" s="5" t="s">
-        <v>3058</v>
-      </c>
-      <c r="B904" s="5" t="s">
-        <v>3080</v>
-      </c>
-      <c r="C904" s="5" t="s">
-        <v>3092</v>
-      </c>
-      <c r="D904" s="5"/>
-      <c r="E904" s="5" t="s">
-        <v>3058</v>
-      </c>
-      <c r="F904" s="5"/>
-      <c r="G904" s="5"/>
-      <c r="H904" s="5" t="s">
-        <v>3058</v>
-      </c>
-      <c r="I904" s="5"/>
-      <c r="J904" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K904" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L904" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M904" s="5" t="s">
-        <v>3047</v>
-      </c>
-    </row>
-    <row r="905" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A905" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B905" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C905" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D905" s="5"/>
-      <c r="E905" s="5" t="s">
-        <v>3059</v>
-      </c>
-      <c r="F905" s="5"/>
-      <c r="G905" s="5"/>
-      <c r="H905" s="5" t="s">
-        <v>3059</v>
-      </c>
-      <c r="I905" s="5"/>
-      <c r="J905" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K905" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L905" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M905" s="5" t="s">
-        <v>3047</v>
+        <v>3036</v>
       </c>
     </row>
   </sheetData>
@@ -37422,22 +37431,22 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>3007</v>
+        <v>2996</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3008</v>
+        <v>2997</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>3009</v>
+        <v>2998</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>3007</v>
+        <v>2996</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>3007</v>
+        <v>2996</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
@@ -37450,27 +37459,27 @@
         <v>33</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>3011</v>
+        <v>3000</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2970</v>
+        <v>2966</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>2951</v>
+        <v>2947</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>3011</v>
+        <v>3000</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>3011</v>
+        <v>3000</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
@@ -37483,7 +37492,7 @@
         <v>33</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -37491,10 +37500,10 @@
         <v>2926</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3012</v>
+        <v>3001</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>3013</v>
+        <v>3002</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
@@ -37516,27 +37525,27 @@
         <v>33</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>3014</v>
+        <v>3003</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3015</v>
+        <v>3004</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>3016</v>
+        <v>3005</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>3014</v>
+        <v>3003</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>3014</v>
+        <v>3003</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
@@ -37549,27 +37558,27 @@
         <v>33</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>3017</v>
+        <v>3006</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>3018</v>
+        <v>3007</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>3019</v>
+        <v>3008</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>3017</v>
+        <v>3006</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>3017</v>
+        <v>3006</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
@@ -37582,27 +37591,27 @@
         <v>33</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>3020</v>
+        <v>3009</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3021</v>
+        <v>3010</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>3022</v>
+        <v>3011</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>3020</v>
+        <v>3009</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>3020</v>
+        <v>3009</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
@@ -37615,7 +37624,7 @@
         <v>33</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -37629,10 +37638,10 @@
         <v>2149</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>3066</v>
+        <v>3055</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>3023</v>
+        <v>3012</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -37650,29 +37659,29 @@
         <v>33</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>3024</v>
+        <v>3013</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3025</v>
+        <v>3014</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>3026</v>
+        <v>3015</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>3067</v>
+        <v>3056</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>3024</v>
+        <v>3013</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>3024</v>
+        <v>3013</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
@@ -37685,7 +37694,7 @@
         <v>33</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -37693,19 +37702,19 @@
         <v>2927</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>3093</v>
+        <v>3082</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>3112</v>
+        <v>3101</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>3027</v>
+        <v>3016</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>3027</v>
+        <v>3016</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
@@ -37718,27 +37727,27 @@
         <v>33</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>2955</v>
+        <v>2951</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2982</v>
+        <v>2975</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>2989</v>
+        <v>2981</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>2955</v>
+        <v>2951</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>2955</v>
+        <v>2951</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
@@ -37751,27 +37760,27 @@
         <v>33</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>3028</v>
+        <v>3017</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>3094</v>
+        <v>3083</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>3113</v>
+        <v>3102</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>3028</v>
+        <v>3017</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>3028</v>
+        <v>3017</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
@@ -37784,29 +37793,29 @@
         <v>33</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>3095</v>
+        <v>3084</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>3068</v>
+        <v>3057</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>3063</v>
+        <v>3052</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
@@ -37819,27 +37828,27 @@
         <v>33</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>3029</v>
+        <v>3018</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>3108</v>
+        <v>3097</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>3109</v>
+        <v>3098</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>3029</v>
+        <v>3018</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>3029</v>
+        <v>3018</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
@@ -37852,27 +37861,27 @@
         <v>33</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>3030</v>
+        <v>3019</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>3110</v>
+        <v>3099</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>3111</v>
+        <v>3100</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>3030</v>
+        <v>3019</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>3030</v>
+        <v>3019</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
@@ -37885,27 +37894,27 @@
         <v>33</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>3031</v>
+        <v>3020</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>3106</v>
+        <v>3095</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>3107</v>
+        <v>3096</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>3031</v>
+        <v>3020</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>3031</v>
+        <v>3020</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
@@ -37918,27 +37927,27 @@
         <v>33</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>3032</v>
+        <v>3021</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3105</v>
+        <v>3094</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>3104</v>
+        <v>3093</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>3032</v>
+        <v>3021</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>3032</v>
+        <v>3021</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
@@ -37951,27 +37960,27 @@
         <v>33</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>3033</v>
+        <v>3022</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>3114</v>
+        <v>3103</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>3115</v>
+        <v>3104</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>3033</v>
+        <v>3022</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>3033</v>
+        <v>3022</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
@@ -37984,27 +37993,27 @@
         <v>33</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>3034</v>
+        <v>3023</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>3116</v>
+        <v>3105</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>3117</v>
+        <v>3106</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>3034</v>
+        <v>3023</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>3034</v>
+        <v>3023</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2" t="s">
@@ -38017,27 +38026,27 @@
         <v>33</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>3035</v>
+        <v>3024</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>3118</v>
+        <v>3107</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>3119</v>
+        <v>3108</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>3035</v>
+        <v>3024</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>3035</v>
+        <v>3024</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
@@ -38050,27 +38059,27 @@
         <v>33</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>3064</v>
+        <v>3053</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>3120</v>
+        <v>3109</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>3121</v>
+        <v>3110</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>3064</v>
+        <v>3053</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>3036</v>
+        <v>3025</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
@@ -38083,27 +38092,27 @@
         <v>33</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>3037</v>
+        <v>3026</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>3122</v>
+        <v>3111</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>3123</v>
+        <v>3112</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>3037</v>
+        <v>3026</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>3037</v>
+        <v>3026</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
@@ -38116,27 +38125,27 @@
         <v>33</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>3065</v>
+        <v>3054</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>3097</v>
+        <v>3086</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>3098</v>
+        <v>3087</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>3065</v>
+        <v>3054</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>3038</v>
+        <v>3027</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
@@ -38149,27 +38158,27 @@
         <v>33</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>3039</v>
+        <v>3028</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>3096</v>
+        <v>3085</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>3099</v>
+        <v>3088</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>3039</v>
+        <v>3028</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>3039</v>
+        <v>3028</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
@@ -38182,27 +38191,27 @@
         <v>33</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>3040</v>
+        <v>3029</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>3103</v>
+        <v>3092</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>3100</v>
+        <v>3089</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>3040</v>
+        <v>3029</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>3040</v>
+        <v>3029</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
@@ -38215,27 +38224,27 @@
         <v>33</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>3041</v>
+        <v>3030</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>3101</v>
+        <v>3090</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>3102</v>
+        <v>3091</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>3041</v>
+        <v>3030</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>3041</v>
+        <v>3030</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
@@ -38248,7 +38257,7 @@
         <v>33</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -38256,19 +38265,19 @@
         <v>2920</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>2968</v>
+        <v>2964</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>2949</v>
+        <v>2945</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>3042</v>
+        <v>3031</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>3042</v>
+        <v>3031</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2" t="s">
@@ -38281,7 +38290,7 @@
         <v>33</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -38289,19 +38298,19 @@
         <v>2912</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>2961</v>
+        <v>2957</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>2942</v>
+        <v>2938</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>3043</v>
+        <v>3032</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>3043</v>
+        <v>3032</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
@@ -38314,7 +38323,7 @@
         <v>33</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -38322,19 +38331,19 @@
         <v>2913</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2962</v>
+        <v>2958</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2943</v>
+        <v>2939</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>3044</v>
+        <v>3033</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>3044</v>
+        <v>3033</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
@@ -38347,7 +38356,7 @@
         <v>33</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -38362,12 +38371,12 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>3045</v>
+        <v>3034</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>3045</v>
+        <v>3034</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
@@ -38380,27 +38389,27 @@
         <v>33</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>3010</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>3046</v>
+        <v>3035</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>3069</v>
+        <v>3058</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>3081</v>
+        <v>3070</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>3046</v>
+        <v>3035</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5" t="s">
-        <v>3046</v>
+        <v>3035</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5" t="s">
@@ -38413,27 +38422,27 @@
         <v>33</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>3047</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>3048</v>
+        <v>3037</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>3070</v>
+        <v>3059</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>3082</v>
+        <v>3071</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>3048</v>
+        <v>3037</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5" t="s">
-        <v>3048</v>
+        <v>3037</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5" t="s">
@@ -38446,27 +38455,27 @@
         <v>33</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>3047</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>3049</v>
+        <v>3038</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>3071</v>
+        <v>3060</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>3083</v>
+        <v>3072</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
-        <v>3049</v>
+        <v>3038</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5" t="s">
-        <v>3049</v>
+        <v>3038</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5" t="s">
@@ -38479,27 +38488,27 @@
         <v>33</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>3047</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>3050</v>
+        <v>3039</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>3072</v>
+        <v>3061</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>3084</v>
+        <v>3073</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5" t="s">
-        <v>3050</v>
+        <v>3039</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5" t="s">
-        <v>3050</v>
+        <v>3039</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5" t="s">
@@ -38512,27 +38521,27 @@
         <v>33</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>3047</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>3051</v>
+        <v>3040</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>3073</v>
+        <v>3062</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>3085</v>
+        <v>3074</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>3051</v>
+        <v>3040</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5" t="s">
-        <v>3051</v>
+        <v>3040</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5" t="s">
@@ -38545,27 +38554,27 @@
         <v>33</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>3047</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>3052</v>
+        <v>3041</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>3074</v>
+        <v>3063</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>3086</v>
+        <v>3075</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
-        <v>3052</v>
+        <v>3041</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
-        <v>3052</v>
+        <v>3041</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5" t="s">
@@ -38578,27 +38587,27 @@
         <v>33</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>3047</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>3053</v>
+        <v>3042</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>3075</v>
+        <v>3064</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>3087</v>
+        <v>3076</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5" t="s">
-        <v>3053</v>
+        <v>3042</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5" t="s">
-        <v>3053</v>
+        <v>3042</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5" t="s">
@@ -38611,27 +38620,27 @@
         <v>33</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>3047</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>3054</v>
+        <v>3043</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>3076</v>
+        <v>3065</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>3088</v>
+        <v>3077</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5" t="s">
-        <v>3054</v>
+        <v>3043</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5" t="s">
-        <v>3054</v>
+        <v>3043</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5" t="s">
@@ -38644,27 +38653,27 @@
         <v>33</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>3047</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>3055</v>
+        <v>3044</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>3077</v>
+        <v>3066</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>3089</v>
+        <v>3078</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5" t="s">
-        <v>3055</v>
+        <v>3044</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5" t="s">
-        <v>3055</v>
+        <v>3044</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5" t="s">
@@ -38677,27 +38686,27 @@
         <v>33</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>3047</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>3056</v>
+        <v>3045</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>3078</v>
+        <v>3067</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>3090</v>
+        <v>3079</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5" t="s">
-        <v>3056</v>
+        <v>3045</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5" t="s">
-        <v>3056</v>
+        <v>3045</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5" t="s">
@@ -38710,27 +38719,27 @@
         <v>33</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>3047</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>3057</v>
+        <v>3046</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>3079</v>
+        <v>3068</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>3091</v>
+        <v>3080</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5" t="s">
-        <v>3057</v>
+        <v>3046</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5" t="s">
-        <v>3057</v>
+        <v>3046</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5" t="s">
@@ -38743,27 +38752,27 @@
         <v>33</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>3047</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>3058</v>
+        <v>3047</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>3080</v>
+        <v>3069</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>3092</v>
+        <v>3081</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5" t="s">
-        <v>3058</v>
+        <v>3047</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5" t="s">
-        <v>3058</v>
+        <v>3047</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5" t="s">
@@ -38776,7 +38785,7 @@
         <v>33</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>3047</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -38791,12 +38800,12 @@
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5" t="s">
-        <v>3059</v>
+        <v>3048</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5" t="s">
-        <v>3059</v>
+        <v>3048</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5" t="s">
@@ -38809,7 +38818,7 @@
         <v>33</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>3047</v>
+        <v>3036</v>
       </c>
     </row>
   </sheetData>

--- a/substance_dictionary/dictionary_current_all_entities.xlsx
+++ b/substance_dictionary/dictionary_current_all_entities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GSRSFrontend\substance_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8907E5C8-AD4B-4E5A-B8C6-4382C0E8172C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BE70AD-6EFD-4A34-95D4-54808D990E52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="312" windowWidth="19836" windowHeight="11436" tabRatio="619" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12291" uniqueCount="4055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12290" uniqueCount="4053">
   <si>
     <t>Field Name</t>
   </si>
@@ -10319,9 +10319,6 @@
     <t>Product_Type</t>
   </si>
   <si>
-    <t>Ingredient_Type</t>
-  </si>
-  <si>
     <t>Active_Moiety</t>
   </si>
   <si>
@@ -10329,9 +10326,6 @@
   </si>
   <si>
     <t>Company_Country</t>
-  </si>
-  <si>
-    <t>Route_of_Admin</t>
   </si>
   <si>
     <t>Dosage_Form_Name</t>
@@ -12795,9 +12789,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1072"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B983" sqref="B983"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A834" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O846" sqref="O846"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12862,13 +12856,13 @@
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>3867</v>
+        <v>3865</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>4043</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -12879,25 +12873,25 @@
         <v>787</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>4020</v>
+        <v>4018</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>4021</v>
+        <v>4019</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3010</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>4022</v>
+        <v>4020</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>4023</v>
+        <v>4021</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5" t="s">
@@ -12919,27 +12913,27 @@
         <v>54</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>4045</v>
+        <v>4043</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>4045</v>
+        <v>4043</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>3010</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>4046</v>
+        <v>4044</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>4045</v>
+        <v>4043</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>4048</v>
+        <v>4046</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5" t="s">
@@ -12964,27 +12958,27 @@
         <v>54</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>4040</v>
+        <v>4038</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>4040</v>
+        <v>4038</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>3010</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>4041</v>
+        <v>4039</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5" t="s">
-        <v>4042</v>
+        <v>4040</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>4047</v>
+        <v>4045</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
@@ -13012,13 +13006,13 @@
         <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>4024</v>
+        <v>4022</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>4025</v>
+        <v>4023</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>4028</v>
+        <v>4026</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
@@ -13026,10 +13020,10 @@
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>4026</v>
+        <v>4024</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>4027</v>
+        <v>4025</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>22</v>
@@ -13228,7 +13222,7 @@
         <v>45</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -13305,7 +13299,7 @@
         <v>54</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>3866</v>
+        <v>3864</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>15</v>
@@ -13412,7 +13406,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>4017</v>
+        <v>4015</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>70</v>
@@ -13436,28 +13430,28 @@
         <v>54</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>4014</v>
+        <v>4012</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>4015</v>
+        <v>4013</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5" t="s">
+        <v>4014</v>
+      </c>
+      <c r="L15" s="5" t="s">
         <v>4016</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>4018</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>22</v>
@@ -13690,7 +13684,7 @@
         <v>100</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -14155,7 +14149,7 @@
         <v>149</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -14239,7 +14233,7 @@
         <v>157</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -14526,7 +14520,7 @@
         <v>179</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -14568,7 +14562,7 @@
         <v>181</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -14892,7 +14886,7 @@
         <v>206</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -14934,7 +14928,7 @@
         <v>212</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -14976,7 +14970,7 @@
         <v>216</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -15006,7 +15000,7 @@
         <v>189</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>220</v>
@@ -15049,7 +15043,7 @@
         <v>189</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>3318</v>
@@ -15470,7 +15464,7 @@
         <v>259</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -15794,7 +15788,7 @@
         <v>282</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
@@ -15836,7 +15830,7 @@
         <v>284</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
@@ -15878,7 +15872,7 @@
         <v>286</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
@@ -15908,7 +15902,7 @@
         <v>189</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>290</v>
@@ -15948,7 +15942,7 @@
         <v>189</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>3319</v>
@@ -16085,7 +16079,7 @@
         <v>299</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
@@ -16169,7 +16163,7 @@
         <v>305</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
@@ -16253,7 +16247,7 @@
         <v>314</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -16469,7 +16463,7 @@
         <v>341</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -16793,7 +16787,7 @@
         <v>363</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -16835,7 +16829,7 @@
         <v>365</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -16877,7 +16871,7 @@
         <v>367</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -16907,7 +16901,7 @@
         <v>189</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>371</v>
@@ -16949,7 +16943,7 @@
         <v>189</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3320</v>
@@ -17086,7 +17080,7 @@
         <v>381</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
@@ -17610,7 +17604,7 @@
         <v>438</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
@@ -18021,7 +18015,7 @@
         <v>474</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
@@ -18305,7 +18299,7 @@
         <v>493</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
@@ -18631,7 +18625,7 @@
         <v>518</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H141" s="3" t="s">
         <v>519</v>
@@ -18717,7 +18711,7 @@
         <v>528</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
@@ -19161,7 +19155,7 @@
         <v>559</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
@@ -19575,7 +19569,7 @@
         <v>590</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
@@ -19704,7 +19698,7 @@
         <v>602</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
@@ -19788,7 +19782,7 @@
         <v>607</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
@@ -19830,7 +19824,7 @@
         <v>610</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
@@ -20076,7 +20070,7 @@
         <v>634</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
@@ -20600,7 +20594,7 @@
         <v>672</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
@@ -20935,7 +20929,7 @@
         <v>700</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
@@ -21259,7 +21253,7 @@
         <v>723</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
@@ -21301,7 +21295,7 @@
         <v>725</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
@@ -21342,7 +21336,7 @@
         <v>727</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
@@ -21372,7 +21366,7 @@
         <v>189</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>731</v>
@@ -21414,7 +21408,7 @@
         <v>189</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>3321</v>
@@ -21551,7 +21545,7 @@
         <v>740</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
@@ -21633,7 +21627,7 @@
         <v>749</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
@@ -21675,7 +21669,7 @@
         <v>755</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
@@ -21717,7 +21711,7 @@
         <v>761</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
@@ -21887,7 +21881,7 @@
         <v>779</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
@@ -22099,7 +22093,7 @@
         <v>809</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
@@ -22559,7 +22553,7 @@
         <v>841</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
@@ -23022,7 +23016,7 @@
         <v>886</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
@@ -23064,7 +23058,7 @@
         <v>891</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
@@ -23186,7 +23180,7 @@
         <v>901</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
@@ -23219,7 +23213,7 @@
         <v>905</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>3992</v>
+        <v>3990</v>
       </c>
       <c r="E252" s="4" t="s">
         <v>15</v>
@@ -23314,7 +23308,7 @@
         <v>917</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
@@ -23344,10 +23338,10 @@
         <v>787</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>4000</v>
+        <v>3998</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>3996</v>
+        <v>3994</v>
       </c>
       <c r="E255" s="4" t="s">
         <v>15</v>
@@ -23356,7 +23350,7 @@
         <v>919</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
@@ -23566,7 +23560,7 @@
         <v>945</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
@@ -23981,7 +23975,9 @@
         <v>986</v>
       </c>
       <c r="H270" s="3"/>
-      <c r="I270" s="3"/>
+      <c r="I270" s="3" t="s">
+        <v>211</v>
+      </c>
       <c r="J270" s="3"/>
       <c r="K270" s="3" t="s">
         <v>214</v>
@@ -24067,7 +24063,7 @@
         <v>996</v>
       </c>
       <c r="G272" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
@@ -24435,7 +24431,7 @@
         <v>1031</v>
       </c>
       <c r="G281" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
@@ -24559,7 +24555,7 @@
         <v>1042</v>
       </c>
       <c r="G284" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
@@ -24687,7 +24683,7 @@
         <v>1053</v>
       </c>
       <c r="G287" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
@@ -25013,7 +25009,7 @@
         <v>1079</v>
       </c>
       <c r="G295" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
@@ -25097,7 +25093,7 @@
         <v>1085</v>
       </c>
       <c r="G297" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H297" s="3"/>
       <c r="I297" s="3"/>
@@ -25381,7 +25377,7 @@
         <v>1108</v>
       </c>
       <c r="G304" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
@@ -25414,7 +25410,7 @@
         <v>14</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>3882</v>
+        <v>3880</v>
       </c>
       <c r="E305" s="4" t="s">
         <v>15</v>
@@ -25456,7 +25452,7 @@
         <v>3314</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>3883</v>
+        <v>3881</v>
       </c>
       <c r="E306" s="4" t="s">
         <v>15</v>
@@ -25498,7 +25494,7 @@
         <v>76</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>3884</v>
+        <v>3882</v>
       </c>
       <c r="E307" s="4" t="s">
         <v>15</v>
@@ -25540,7 +25536,7 @@
         <v>82</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>3885</v>
+        <v>3883</v>
       </c>
       <c r="E308" s="4" t="s">
         <v>15</v>
@@ -25580,7 +25576,7 @@
         <v>3315</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>3886</v>
+        <v>3884</v>
       </c>
       <c r="E309" s="4" t="s">
         <v>15</v>
@@ -25622,7 +25618,7 @@
         <v>93</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>3887</v>
+        <v>3885</v>
       </c>
       <c r="E310" s="4" t="s">
         <v>15</v>
@@ -25664,7 +25660,7 @@
         <v>1115</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>3888</v>
+        <v>3886</v>
       </c>
       <c r="E311" s="4" t="s">
         <v>15</v>
@@ -25710,7 +25706,7 @@
         <v>99</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>3889</v>
+        <v>3887</v>
       </c>
       <c r="E312" s="4" t="s">
         <v>15</v>
@@ -25719,7 +25715,7 @@
         <v>1131</v>
       </c>
       <c r="G312" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
@@ -25752,7 +25748,7 @@
         <v>748</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>3890</v>
+        <v>3888</v>
       </c>
       <c r="E313" s="4" t="s">
         <v>15</v>
@@ -25761,7 +25757,7 @@
         <v>1132</v>
       </c>
       <c r="G313" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
@@ -25794,7 +25790,7 @@
         <v>754</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>3891</v>
+        <v>3889</v>
       </c>
       <c r="E314" s="4" t="s">
         <v>15</v>
@@ -25803,7 +25799,7 @@
         <v>1133</v>
       </c>
       <c r="G314" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
@@ -25836,7 +25832,7 @@
         <v>760</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>3892</v>
+        <v>3890</v>
       </c>
       <c r="E315" s="4" t="s">
         <v>15</v>
@@ -25845,7 +25841,7 @@
         <v>1134</v>
       </c>
       <c r="G315" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
@@ -25878,7 +25874,7 @@
         <v>1135</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="E316" s="4" t="s">
         <v>15</v>
@@ -25920,7 +25916,7 @@
         <v>3317</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>3894</v>
+        <v>3892</v>
       </c>
       <c r="E317" s="4" t="s">
         <v>15</v>
@@ -26059,7 +26055,7 @@
         <v>1154</v>
       </c>
       <c r="G320" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H320" s="3"/>
       <c r="I320" s="3"/>
@@ -26189,7 +26185,7 @@
         <v>1171</v>
       </c>
       <c r="G323" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
@@ -26520,7 +26516,7 @@
         <v>1199</v>
       </c>
       <c r="G331" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H331" s="3"/>
       <c r="I331" s="3"/>
@@ -26684,7 +26680,7 @@
         <v>1214</v>
       </c>
       <c r="G335" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H335" s="3" t="s">
         <v>1215</v>
@@ -26978,7 +26974,7 @@
         <v>1237</v>
       </c>
       <c r="G342" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
@@ -27020,7 +27016,7 @@
         <v>1239</v>
       </c>
       <c r="G343" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H343" s="3"/>
       <c r="I343" s="3"/>
@@ -27062,7 +27058,7 @@
         <v>1241</v>
       </c>
       <c r="G344" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
@@ -27104,7 +27100,7 @@
         <v>1243</v>
       </c>
       <c r="G345" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
@@ -27316,7 +27312,7 @@
         <v>1260</v>
       </c>
       <c r="G350" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H350" s="3"/>
       <c r="I350" s="3"/>
@@ -27400,7 +27396,7 @@
         <v>1269</v>
       </c>
       <c r="G352" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H352" s="3"/>
       <c r="I352" s="3"/>
@@ -27686,7 +27682,7 @@
         <v>1291</v>
       </c>
       <c r="G359" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H359" s="3"/>
       <c r="I359" s="3"/>
@@ -28010,7 +28006,7 @@
         <v>1312</v>
       </c>
       <c r="G367" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H367" s="3"/>
       <c r="I367" s="3"/>
@@ -28052,7 +28048,7 @@
         <v>1314</v>
       </c>
       <c r="G368" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H368" s="3"/>
       <c r="I368" s="3"/>
@@ -28094,7 +28090,7 @@
         <v>1316</v>
       </c>
       <c r="G369" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H369" s="3"/>
       <c r="I369" s="3"/>
@@ -28124,7 +28120,7 @@
         <v>189</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
       <c r="D370" s="3" t="s">
         <v>1320</v>
@@ -28164,7 +28160,7 @@
         <v>189</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="D371" s="3" t="s">
         <v>3322</v>
@@ -28435,7 +28431,7 @@
         <v>1348</v>
       </c>
       <c r="G377" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H377" s="3"/>
       <c r="I377" s="3"/>
@@ -28681,7 +28677,7 @@
         <v>1369</v>
       </c>
       <c r="G383" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H383" s="3"/>
       <c r="I383" s="3"/>
@@ -28714,7 +28710,7 @@
         <v>14</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>3895</v>
+        <v>3893</v>
       </c>
       <c r="E384" s="4" t="s">
         <v>15</v>
@@ -28756,7 +28752,7 @@
         <v>796</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>3896</v>
+        <v>3894</v>
       </c>
       <c r="E385" s="4" t="s">
         <v>15</v>
@@ -28796,7 +28792,7 @@
         <v>802</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>3897</v>
+        <v>3895</v>
       </c>
       <c r="E386" s="4" t="s">
         <v>15</v>
@@ -28836,7 +28832,7 @@
         <v>3314</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>3898</v>
+        <v>3896</v>
       </c>
       <c r="E387" s="4" t="s">
         <v>15</v>
@@ -28876,7 +28872,7 @@
         <v>76</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>3899</v>
+        <v>3897</v>
       </c>
       <c r="E388" s="4" t="s">
         <v>15</v>
@@ -28916,7 +28912,7 @@
         <v>858</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>3900</v>
+        <v>3898</v>
       </c>
       <c r="E389" s="4" t="s">
         <v>15</v>
@@ -28956,7 +28952,7 @@
         <v>82</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>3901</v>
+        <v>3899</v>
       </c>
       <c r="E390" s="4" t="s">
         <v>15</v>
@@ -28996,7 +28992,7 @@
         <v>867</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>3902</v>
+        <v>3900</v>
       </c>
       <c r="E391" s="4" t="s">
         <v>15</v>
@@ -29036,7 +29032,7 @@
         <v>873</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
       <c r="E392" s="4" t="s">
         <v>15</v>
@@ -29076,7 +29072,7 @@
         <v>879</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>3904</v>
+        <v>3902</v>
       </c>
       <c r="E393" s="4" t="s">
         <v>15</v>
@@ -29116,7 +29112,7 @@
         <v>890</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>3905</v>
+        <v>3903</v>
       </c>
       <c r="E394" s="4" t="s">
         <v>15</v>
@@ -29125,7 +29121,7 @@
         <v>1395</v>
       </c>
       <c r="G394" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H394" s="3"/>
       <c r="I394" s="3"/>
@@ -29158,7 +29154,7 @@
         <v>3315</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>3906</v>
+        <v>3904</v>
       </c>
       <c r="E395" s="4" t="s">
         <v>15</v>
@@ -29198,7 +29194,7 @@
         <v>93</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>3907</v>
+        <v>3905</v>
       </c>
       <c r="E396" s="4" t="s">
         <v>15</v>
@@ -29238,7 +29234,7 @@
         <v>900</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>3908</v>
+        <v>3906</v>
       </c>
       <c r="E397" s="4" t="s">
         <v>15</v>
@@ -29247,7 +29243,7 @@
         <v>1400</v>
       </c>
       <c r="G397" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H397" s="3"/>
       <c r="I397" s="3"/>
@@ -29280,7 +29276,7 @@
         <v>905</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>3993</v>
+        <v>3991</v>
       </c>
       <c r="E398" s="4" t="s">
         <v>15</v>
@@ -29289,7 +29285,7 @@
         <v>1401</v>
       </c>
       <c r="G398" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H398" s="3"/>
       <c r="I398" s="3"/>
@@ -29320,7 +29316,7 @@
         <v>910</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>3909</v>
+        <v>3907</v>
       </c>
       <c r="E399" s="4" t="s">
         <v>15</v>
@@ -29362,7 +29358,7 @@
         <v>99</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>3910</v>
+        <v>3908</v>
       </c>
       <c r="E400" s="4" t="s">
         <v>15</v>
@@ -29371,7 +29367,7 @@
         <v>1404</v>
       </c>
       <c r="G400" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H400" s="3"/>
       <c r="I400" s="3"/>
@@ -29401,10 +29397,10 @@
         <v>1376</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>4000</v>
+        <v>3998</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>3997</v>
+        <v>3995</v>
       </c>
       <c r="E401" s="4" t="s">
         <v>15</v>
@@ -29413,7 +29409,7 @@
         <v>1405</v>
       </c>
       <c r="G401" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H401" s="3"/>
       <c r="I401" s="3"/>
@@ -29446,7 +29442,7 @@
         <v>922</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>3911</v>
+        <v>3909</v>
       </c>
       <c r="E402" s="4" t="s">
         <v>15</v>
@@ -29486,7 +29482,7 @@
         <v>928</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
       <c r="E403" s="4" t="s">
         <v>15</v>
@@ -29535,7 +29531,7 @@
         <v>1411</v>
       </c>
       <c r="G404" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H404" s="3"/>
       <c r="I404" s="3"/>
@@ -29979,7 +29975,7 @@
         <v>1444</v>
       </c>
       <c r="G415" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H415" s="3"/>
       <c r="I415" s="3"/>
@@ -30101,7 +30097,7 @@
         <v>1451</v>
       </c>
       <c r="G418" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H418" s="3"/>
       <c r="I418" s="3"/>
@@ -30134,7 +30130,7 @@
         <v>905</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="E419" s="4" t="s">
         <v>15</v>
@@ -30143,7 +30139,7 @@
         <v>1453</v>
       </c>
       <c r="G419" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H419" s="3"/>
       <c r="I419" s="3"/>
@@ -30225,7 +30221,7 @@
         <v>1457</v>
       </c>
       <c r="G421" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H421" s="3"/>
       <c r="I421" s="3"/>
@@ -30255,10 +30251,10 @@
         <v>1376</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>4000</v>
+        <v>3998</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>3998</v>
+        <v>3996</v>
       </c>
       <c r="E422" s="4" t="s">
         <v>15</v>
@@ -30267,7 +30263,7 @@
         <v>1459</v>
       </c>
       <c r="G422" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H422" s="3"/>
       <c r="I422" s="3"/>
@@ -30469,7 +30465,7 @@
         <v>1472</v>
       </c>
       <c r="G427" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H427" s="3"/>
       <c r="I427" s="3"/>
@@ -30553,7 +30549,7 @@
         <v>1481</v>
       </c>
       <c r="G429" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H429" s="3"/>
       <c r="I429" s="3"/>
@@ -31077,7 +31073,7 @@
         <v>1518</v>
       </c>
       <c r="G442" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H442" s="3"/>
       <c r="I442" s="3"/>
@@ -31488,7 +31484,7 @@
         <v>1549</v>
       </c>
       <c r="G452" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H452" s="3"/>
       <c r="I452" s="3"/>
@@ -31812,7 +31808,7 @@
         <v>1572</v>
       </c>
       <c r="G460" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H460" s="3"/>
       <c r="I460" s="3"/>
@@ -31854,7 +31850,7 @@
         <v>1574</v>
       </c>
       <c r="G461" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H461" s="3"/>
       <c r="I461" s="3"/>
@@ -31896,7 +31892,7 @@
         <v>1576</v>
       </c>
       <c r="G462" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H462" s="3"/>
       <c r="I462" s="3"/>
@@ -31926,7 +31922,7 @@
         <v>189</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
       <c r="D463" s="3" t="s">
         <v>1580</v>
@@ -31968,7 +31964,7 @@
         <v>189</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="D464" s="3" t="s">
         <v>3323</v>
@@ -32105,7 +32101,7 @@
         <v>1589</v>
       </c>
       <c r="G467" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H467" s="3"/>
       <c r="I467" s="3"/>
@@ -32231,7 +32227,7 @@
         <v>1599</v>
       </c>
       <c r="G470" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H470" s="3"/>
       <c r="I470" s="3"/>
@@ -32273,7 +32269,7 @@
         <v>1602</v>
       </c>
       <c r="G471" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H471" s="3"/>
       <c r="I471" s="3"/>
@@ -32839,7 +32835,7 @@
         <v>1645</v>
       </c>
       <c r="G485" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H485" s="3"/>
       <c r="I485" s="3"/>
@@ -33053,7 +33049,7 @@
         <v>1664</v>
       </c>
       <c r="G490" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H490" s="3"/>
       <c r="I490" s="3"/>
@@ -33462,7 +33458,7 @@
         <v>1702</v>
       </c>
       <c r="G500" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H500" s="3"/>
       <c r="I500" s="3"/>
@@ -33833,7 +33829,7 @@
         <v>1733</v>
       </c>
       <c r="G509" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H509" s="3"/>
       <c r="I509" s="3"/>
@@ -33864,7 +33860,7 @@
         <v>14</v>
       </c>
       <c r="D510" s="3" t="s">
-        <v>3913</v>
+        <v>3911</v>
       </c>
       <c r="E510" s="4" t="s">
         <v>15</v>
@@ -33906,7 +33902,7 @@
         <v>3314</v>
       </c>
       <c r="D511" s="3" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
       <c r="E511" s="4" t="s">
         <v>15</v>
@@ -33948,7 +33944,7 @@
         <v>76</v>
       </c>
       <c r="D512" s="3" t="s">
-        <v>3915</v>
+        <v>3913</v>
       </c>
       <c r="E512" s="4" t="s">
         <v>15</v>
@@ -33990,7 +33986,7 @@
         <v>82</v>
       </c>
       <c r="D513" s="3" t="s">
-        <v>3916</v>
+        <v>3914</v>
       </c>
       <c r="E513" s="4" t="s">
         <v>15</v>
@@ -34030,7 +34026,7 @@
         <v>3315</v>
       </c>
       <c r="D514" s="3" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
       <c r="E514" s="4" t="s">
         <v>15</v>
@@ -34072,7 +34068,7 @@
         <v>93</v>
       </c>
       <c r="D515" s="3" t="s">
-        <v>3918</v>
+        <v>3916</v>
       </c>
       <c r="E515" s="4" t="s">
         <v>15</v>
@@ -34114,7 +34110,7 @@
         <v>211</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>3919</v>
+        <v>3917</v>
       </c>
       <c r="E516" s="4" t="s">
         <v>15</v>
@@ -34123,7 +34119,7 @@
         <v>1748</v>
       </c>
       <c r="G516" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H516" s="3"/>
       <c r="I516" s="3"/>
@@ -34161,7 +34157,7 @@
         <v>99</v>
       </c>
       <c r="D517" s="3" t="s">
-        <v>3920</v>
+        <v>3918</v>
       </c>
       <c r="E517" s="4" t="s">
         <v>15</v>
@@ -34170,7 +34166,7 @@
         <v>1749</v>
       </c>
       <c r="G517" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H517" s="3"/>
       <c r="I517" s="3"/>
@@ -34203,7 +34199,7 @@
         <v>236</v>
       </c>
       <c r="D518" s="3" t="s">
-        <v>3921</v>
+        <v>3919</v>
       </c>
       <c r="E518" s="4" t="s">
         <v>15</v>
@@ -34250,7 +34246,7 @@
         <v>3317</v>
       </c>
       <c r="D519" s="3" t="s">
-        <v>3922</v>
+        <v>3920</v>
       </c>
       <c r="E519" s="4" t="s">
         <v>15</v>
@@ -34292,7 +34288,7 @@
         <v>1755</v>
       </c>
       <c r="D520" s="3" t="s">
-        <v>3923</v>
+        <v>3921</v>
       </c>
       <c r="E520" s="4" t="s">
         <v>15</v>
@@ -34301,7 +34297,7 @@
         <v>1756</v>
       </c>
       <c r="G520" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H520" s="3"/>
       <c r="I520" s="3"/>
@@ -34334,7 +34330,7 @@
         <v>14</v>
       </c>
       <c r="D521" s="3" t="s">
-        <v>3924</v>
+        <v>3922</v>
       </c>
       <c r="E521" s="4" t="s">
         <v>15</v>
@@ -34376,7 +34372,7 @@
         <v>389</v>
       </c>
       <c r="D522" s="3" t="s">
-        <v>3925</v>
+        <v>3923</v>
       </c>
       <c r="E522" s="4" t="s">
         <v>15</v>
@@ -34418,7 +34414,7 @@
         <v>3314</v>
       </c>
       <c r="D523" s="3" t="s">
-        <v>3926</v>
+        <v>3924</v>
       </c>
       <c r="E523" s="4" t="s">
         <v>15</v>
@@ -34460,7 +34456,7 @@
         <v>76</v>
       </c>
       <c r="D524" s="3" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="E524" s="4" t="s">
         <v>15</v>
@@ -34502,7 +34498,7 @@
         <v>82</v>
       </c>
       <c r="D525" s="3" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="E525" s="4" t="s">
         <v>15</v>
@@ -34542,7 +34538,7 @@
         <v>403</v>
       </c>
       <c r="D526" s="3" t="s">
-        <v>3929</v>
+        <v>3927</v>
       </c>
       <c r="E526" s="4" t="s">
         <v>15</v>
@@ -34584,7 +34580,7 @@
         <v>3315</v>
       </c>
       <c r="D527" s="3" t="s">
-        <v>3930</v>
+        <v>3928</v>
       </c>
       <c r="E527" s="4" t="s">
         <v>15</v>
@@ -34626,7 +34622,7 @@
         <v>93</v>
       </c>
       <c r="D528" s="3" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
       <c r="E528" s="4" t="s">
         <v>15</v>
@@ -34668,7 +34664,7 @@
         <v>420</v>
       </c>
       <c r="D529" s="3" t="s">
-        <v>3932</v>
+        <v>3930</v>
       </c>
       <c r="E529" s="4" t="s">
         <v>15</v>
@@ -34710,7 +34706,7 @@
         <v>432</v>
       </c>
       <c r="D530" s="3" t="s">
-        <v>3933</v>
+        <v>3931</v>
       </c>
       <c r="E530" s="4" t="s">
         <v>15</v>
@@ -34752,7 +34748,7 @@
         <v>99</v>
       </c>
       <c r="D531" s="3" t="s">
-        <v>3934</v>
+        <v>3932</v>
       </c>
       <c r="E531" s="4" t="s">
         <v>15</v>
@@ -34761,7 +34757,7 @@
         <v>1779</v>
       </c>
       <c r="G531" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H531" s="3"/>
       <c r="I531" s="3"/>
@@ -34794,7 +34790,7 @@
         <v>236</v>
       </c>
       <c r="D532" s="3" t="s">
-        <v>3935</v>
+        <v>3933</v>
       </c>
       <c r="E532" s="4" t="s">
         <v>15</v>
@@ -34838,7 +34834,7 @@
         <v>445</v>
       </c>
       <c r="D533" s="3" t="s">
-        <v>3936</v>
+        <v>3934</v>
       </c>
       <c r="E533" s="4" t="s">
         <v>15</v>
@@ -34882,7 +34878,7 @@
         <v>3317</v>
       </c>
       <c r="D534" s="3" t="s">
-        <v>3937</v>
+        <v>3935</v>
       </c>
       <c r="E534" s="4" t="s">
         <v>15</v>
@@ -34975,7 +34971,7 @@
         <v>1794</v>
       </c>
       <c r="G536" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H536" s="3"/>
       <c r="I536" s="3"/>
@@ -35643,7 +35639,7 @@
         <v>1829</v>
       </c>
       <c r="G552" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H552" s="3"/>
       <c r="I552" s="3"/>
@@ -35815,7 +35811,7 @@
         <v>1838</v>
       </c>
       <c r="G556" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H556" s="3"/>
       <c r="I556" s="3"/>
@@ -36019,7 +36015,7 @@
         <v>1855</v>
       </c>
       <c r="G561" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H561" s="3"/>
       <c r="I561" s="3"/>
@@ -36061,7 +36057,7 @@
         <v>1860</v>
       </c>
       <c r="G562" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H562" s="3"/>
       <c r="I562" s="3"/>
@@ -36103,7 +36099,7 @@
         <v>1863</v>
       </c>
       <c r="G563" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H563" s="3"/>
       <c r="I563" s="3"/>
@@ -36145,7 +36141,7 @@
         <v>1865</v>
       </c>
       <c r="G564" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H564" s="3"/>
       <c r="I564" s="3"/>
@@ -36187,7 +36183,7 @@
         <v>1867</v>
       </c>
       <c r="G565" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H565" s="3"/>
       <c r="I565" s="3"/>
@@ -36229,7 +36225,7 @@
         <v>1870</v>
       </c>
       <c r="G566" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H566" s="3"/>
       <c r="I566" s="3"/>
@@ -36313,7 +36309,7 @@
         <v>1879</v>
       </c>
       <c r="G568" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H568" s="3"/>
       <c r="I568" s="3"/>
@@ -36355,7 +36351,7 @@
         <v>1883</v>
       </c>
       <c r="G569" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H569" s="3"/>
       <c r="I569" s="3"/>
@@ -36397,7 +36393,7 @@
         <v>1885</v>
       </c>
       <c r="G570" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H570" s="3"/>
       <c r="I570" s="3"/>
@@ -36683,7 +36679,7 @@
         <v>1908</v>
       </c>
       <c r="G577" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H577" s="3"/>
       <c r="I577" s="3"/>
@@ -36725,7 +36721,7 @@
         <v>1912</v>
       </c>
       <c r="G578" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H578" s="3"/>
       <c r="I578" s="3"/>
@@ -36767,7 +36763,7 @@
         <v>1914</v>
       </c>
       <c r="G579" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H579" s="3"/>
       <c r="I579" s="3"/>
@@ -36809,7 +36805,7 @@
         <v>1917</v>
       </c>
       <c r="G580" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H580" s="3"/>
       <c r="I580" s="3"/>
@@ -36851,7 +36847,7 @@
         <v>1920</v>
       </c>
       <c r="G581" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H581" s="3"/>
       <c r="I581" s="3"/>
@@ -36893,7 +36889,7 @@
         <v>1922</v>
       </c>
       <c r="G582" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H582" s="3"/>
       <c r="I582" s="3"/>
@@ -36935,7 +36931,7 @@
         <v>1924</v>
       </c>
       <c r="G583" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H583" s="3"/>
       <c r="I583" s="3"/>
@@ -37099,7 +37095,7 @@
         <v>1935</v>
       </c>
       <c r="G587" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H587" s="3"/>
       <c r="I587" s="3"/>
@@ -37425,7 +37421,7 @@
         <v>1964</v>
       </c>
       <c r="G595" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H595" s="3"/>
       <c r="I595" s="3"/>
@@ -37467,7 +37463,7 @@
         <v>1966</v>
       </c>
       <c r="G596" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H596" s="3"/>
       <c r="I596" s="3"/>
@@ -37509,7 +37505,7 @@
         <v>1968</v>
       </c>
       <c r="G597" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H597" s="3"/>
       <c r="I597" s="3"/>
@@ -37551,7 +37547,7 @@
         <v>1970</v>
       </c>
       <c r="G598" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H598" s="3"/>
       <c r="I598" s="3"/>
@@ -37723,7 +37719,7 @@
         <v>1988</v>
       </c>
       <c r="G602" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H602" s="3"/>
       <c r="I602" s="3"/>
@@ -37849,7 +37845,7 @@
         <v>1997</v>
       </c>
       <c r="G605" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H605" s="3"/>
       <c r="I605" s="3"/>
@@ -38133,7 +38129,7 @@
         <v>2015</v>
       </c>
       <c r="G612" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H612" s="3"/>
       <c r="I612" s="3"/>
@@ -38177,7 +38173,7 @@
         <v>2017</v>
       </c>
       <c r="G613" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H613" s="3"/>
       <c r="I613" s="3"/>
@@ -38383,7 +38379,7 @@
         <v>2031</v>
       </c>
       <c r="G618" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H618" s="3"/>
       <c r="I618" s="3"/>
@@ -39045,7 +39041,7 @@
         <v>2100</v>
       </c>
       <c r="G634" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H634" s="3"/>
       <c r="I634" s="3"/>
@@ -39129,7 +39125,7 @@
         <v>2109</v>
       </c>
       <c r="G636" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H636" s="3"/>
       <c r="I636" s="3"/>
@@ -39653,7 +39649,7 @@
         <v>2146</v>
       </c>
       <c r="G649" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H649" s="3"/>
       <c r="I649" s="3"/>
@@ -40109,7 +40105,7 @@
         <v>2181</v>
       </c>
       <c r="G660" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H660" s="3"/>
       <c r="I660" s="3"/>
@@ -40433,7 +40429,7 @@
         <v>2204</v>
       </c>
       <c r="G668" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H668" s="3"/>
       <c r="I668" s="3"/>
@@ -40475,7 +40471,7 @@
         <v>2206</v>
       </c>
       <c r="G669" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H669" s="3"/>
       <c r="I669" s="3"/>
@@ -40517,7 +40513,7 @@
         <v>2208</v>
       </c>
       <c r="G670" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H670" s="3"/>
       <c r="I670" s="3"/>
@@ -40547,7 +40543,7 @@
         <v>189</v>
       </c>
       <c r="C671" s="3" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
       <c r="D671" s="3" t="s">
         <v>2212</v>
@@ -40587,7 +40583,7 @@
         <v>189</v>
       </c>
       <c r="C672" s="3" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="D672" s="3" t="s">
         <v>3324</v>
@@ -40806,7 +40802,7 @@
         <v>2234</v>
       </c>
       <c r="G677" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H677" s="3"/>
       <c r="I677" s="3"/>
@@ -40848,7 +40844,7 @@
         <v>2237</v>
       </c>
       <c r="G678" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H678" s="3"/>
       <c r="I678" s="3"/>
@@ -41172,7 +41168,7 @@
         <v>2260</v>
       </c>
       <c r="G686" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H686" s="3"/>
       <c r="I686" s="3"/>
@@ -41214,7 +41210,7 @@
         <v>2262</v>
       </c>
       <c r="G687" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H687" s="3"/>
       <c r="I687" s="3"/>
@@ -41256,7 +41252,7 @@
         <v>2264</v>
       </c>
       <c r="G688" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H688" s="3"/>
       <c r="I688" s="3"/>
@@ -41286,7 +41282,7 @@
         <v>189</v>
       </c>
       <c r="C689" s="3" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
       <c r="D689" s="3" t="s">
         <v>2268</v>
@@ -41328,7 +41324,7 @@
         <v>189</v>
       </c>
       <c r="C690" s="3" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="D690" s="3" t="s">
         <v>3325</v>
@@ -41537,10 +41533,10 @@
         <v>24</v>
       </c>
       <c r="C695" s="3" t="s">
-        <v>3938</v>
+        <v>3936</v>
       </c>
       <c r="D695" s="3" t="s">
-        <v>3938</v>
+        <v>3936</v>
       </c>
       <c r="E695" s="4" t="s">
         <v>15</v>
@@ -41549,7 +41545,7 @@
         <v>2285</v>
       </c>
       <c r="G695" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H695" s="3"/>
       <c r="I695" s="3"/>
@@ -41557,7 +41553,7 @@
         <v>47</v>
       </c>
       <c r="K695" s="3" t="s">
-        <v>3940</v>
+        <v>3938</v>
       </c>
       <c r="L695" s="3"/>
       <c r="M695" s="3" t="s">
@@ -41580,7 +41576,7 @@
         <v>14</v>
       </c>
       <c r="D696" s="3" t="s">
-        <v>3939</v>
+        <v>3937</v>
       </c>
       <c r="E696" s="4" t="s">
         <v>15</v>
@@ -41624,7 +41620,7 @@
         <v>2290</v>
       </c>
       <c r="D697" s="3" t="s">
-        <v>3948</v>
+        <v>3946</v>
       </c>
       <c r="E697" s="4" t="s">
         <v>15</v>
@@ -41633,7 +41629,7 @@
         <v>2291</v>
       </c>
       <c r="G697" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H697" s="3"/>
       <c r="I697" s="3"/>
@@ -41666,7 +41662,7 @@
         <v>380</v>
       </c>
       <c r="D698" s="3" t="s">
-        <v>3949</v>
+        <v>3947</v>
       </c>
       <c r="E698" s="4" t="s">
         <v>15</v>
@@ -41675,7 +41671,7 @@
         <v>2295</v>
       </c>
       <c r="G698" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H698" s="3"/>
       <c r="I698" s="3"/>
@@ -41708,7 +41704,7 @@
         <v>14</v>
       </c>
       <c r="D699" s="3" t="s">
-        <v>3950</v>
+        <v>3948</v>
       </c>
       <c r="E699" s="4" t="s">
         <v>15</v>
@@ -41752,7 +41748,7 @@
         <v>389</v>
       </c>
       <c r="D700" s="3" t="s">
-        <v>3951</v>
+        <v>3949</v>
       </c>
       <c r="E700" s="4" t="s">
         <v>15</v>
@@ -41792,7 +41788,7 @@
         <v>3314</v>
       </c>
       <c r="D701" s="3" t="s">
-        <v>3952</v>
+        <v>3950</v>
       </c>
       <c r="E701" s="4" t="s">
         <v>15</v>
@@ -41832,7 +41828,7 @@
         <v>76</v>
       </c>
       <c r="D702" s="3" t="s">
-        <v>3953</v>
+        <v>3951</v>
       </c>
       <c r="E702" s="4" t="s">
         <v>15</v>
@@ -41872,7 +41868,7 @@
         <v>82</v>
       </c>
       <c r="D703" s="3" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="E703" s="4" t="s">
         <v>15</v>
@@ -41914,7 +41910,7 @@
         <v>403</v>
       </c>
       <c r="D704" s="3" t="s">
-        <v>3955</v>
+        <v>3953</v>
       </c>
       <c r="E704" s="4" t="s">
         <v>15</v>
@@ -41954,7 +41950,7 @@
         <v>409</v>
       </c>
       <c r="D705" s="3" t="s">
-        <v>3956</v>
+        <v>3954</v>
       </c>
       <c r="E705" s="4" t="s">
         <v>15</v>
@@ -41994,7 +41990,7 @@
         <v>3315</v>
       </c>
       <c r="D706" s="3" t="s">
-        <v>3957</v>
+        <v>3955</v>
       </c>
       <c r="E706" s="4" t="s">
         <v>15</v>
@@ -42034,7 +42030,7 @@
         <v>93</v>
       </c>
       <c r="D707" s="3" t="s">
-        <v>3958</v>
+        <v>3956</v>
       </c>
       <c r="E707" s="4" t="s">
         <v>15</v>
@@ -42074,7 +42070,7 @@
         <v>420</v>
       </c>
       <c r="D708" s="3" t="s">
-        <v>3959</v>
+        <v>3957</v>
       </c>
       <c r="E708" s="4" t="s">
         <v>15</v>
@@ -42114,7 +42110,7 @@
         <v>426</v>
       </c>
       <c r="D709" s="3" t="s">
-        <v>3960</v>
+        <v>3958</v>
       </c>
       <c r="E709" s="4" t="s">
         <v>15</v>
@@ -42154,7 +42150,7 @@
         <v>432</v>
       </c>
       <c r="D710" s="3" t="s">
-        <v>3961</v>
+        <v>3959</v>
       </c>
       <c r="E710" s="4" t="s">
         <v>15</v>
@@ -42194,7 +42190,7 @@
         <v>99</v>
       </c>
       <c r="D711" s="3" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
       <c r="E711" s="4" t="s">
         <v>15</v>
@@ -42203,7 +42199,7 @@
         <v>2321</v>
       </c>
       <c r="G711" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H711" s="3"/>
       <c r="I711" s="3"/>
@@ -42236,7 +42232,7 @@
         <v>236</v>
       </c>
       <c r="D712" s="3" t="s">
-        <v>3963</v>
+        <v>3961</v>
       </c>
       <c r="E712" s="4" t="s">
         <v>15</v>
@@ -42281,7 +42277,7 @@
         <v>445</v>
       </c>
       <c r="D713" s="3" t="s">
-        <v>3964</v>
+        <v>3962</v>
       </c>
       <c r="E713" s="4" t="s">
         <v>15</v>
@@ -42323,7 +42319,7 @@
         <v>3317</v>
       </c>
       <c r="D714" s="3" t="s">
-        <v>3965</v>
+        <v>3963</v>
       </c>
       <c r="E714" s="4" t="s">
         <v>15</v>
@@ -42365,7 +42361,7 @@
         <v>2328</v>
       </c>
       <c r="D715" s="3" t="s">
-        <v>3966</v>
+        <v>3964</v>
       </c>
       <c r="E715" s="4" t="s">
         <v>15</v>
@@ -42405,7 +42401,7 @@
         <v>24</v>
       </c>
       <c r="D716" s="3" t="s">
-        <v>3967</v>
+        <v>3965</v>
       </c>
       <c r="E716" s="4" t="s">
         <v>15</v>
@@ -42414,7 +42410,7 @@
         <v>2333</v>
       </c>
       <c r="G716" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H716" s="3"/>
       <c r="I716" s="3"/>
@@ -42447,7 +42443,7 @@
         <v>14</v>
       </c>
       <c r="D717" s="3" t="s">
-        <v>3968</v>
+        <v>3966</v>
       </c>
       <c r="E717" s="4" t="s">
         <v>15</v>
@@ -42491,7 +42487,7 @@
         <v>25</v>
       </c>
       <c r="D718" s="3" t="s">
-        <v>3969</v>
+        <v>3967</v>
       </c>
       <c r="E718" s="4" t="s">
         <v>15</v>
@@ -42531,7 +42527,7 @@
         <v>3314</v>
       </c>
       <c r="D719" s="3" t="s">
-        <v>3970</v>
+        <v>3968</v>
       </c>
       <c r="E719" s="4" t="s">
         <v>15</v>
@@ -42571,7 +42567,7 @@
         <v>76</v>
       </c>
       <c r="D720" s="3" t="s">
-        <v>3971</v>
+        <v>3969</v>
       </c>
       <c r="E720" s="4" t="s">
         <v>15</v>
@@ -42611,7 +42607,7 @@
         <v>82</v>
       </c>
       <c r="D721" s="3" t="s">
-        <v>3972</v>
+        <v>3970</v>
       </c>
       <c r="E721" s="4" t="s">
         <v>15</v>
@@ -42651,7 +42647,7 @@
         <v>3315</v>
       </c>
       <c r="D722" s="3" t="s">
-        <v>3973</v>
+        <v>3971</v>
       </c>
       <c r="E722" s="4" t="s">
         <v>15</v>
@@ -42691,7 +42687,7 @@
         <v>93</v>
       </c>
       <c r="D723" s="3" t="s">
-        <v>3974</v>
+        <v>3972</v>
       </c>
       <c r="E723" s="4" t="s">
         <v>15</v>
@@ -42731,7 +42727,7 @@
         <v>3316</v>
       </c>
       <c r="D724" s="3" t="s">
-        <v>3975</v>
+        <v>3973</v>
       </c>
       <c r="E724" s="4" t="s">
         <v>15</v>
@@ -42740,7 +42736,7 @@
         <v>2349</v>
       </c>
       <c r="G724" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H724" s="3"/>
       <c r="I724" s="3"/>
@@ -42773,7 +42769,7 @@
         <v>211</v>
       </c>
       <c r="D725" s="3" t="s">
-        <v>3976</v>
+        <v>3974</v>
       </c>
       <c r="E725" s="4" t="s">
         <v>15</v>
@@ -42782,7 +42778,7 @@
         <v>2350</v>
       </c>
       <c r="G725" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H725" s="3"/>
       <c r="I725" s="3"/>
@@ -42815,7 +42811,7 @@
         <v>99</v>
       </c>
       <c r="D726" s="3" t="s">
-        <v>3977</v>
+        <v>3975</v>
       </c>
       <c r="E726" s="4" t="s">
         <v>15</v>
@@ -42824,7 +42820,7 @@
         <v>2351</v>
       </c>
       <c r="G726" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H726" s="3"/>
       <c r="I726" s="3"/>
@@ -42854,10 +42850,10 @@
         <v>2292</v>
       </c>
       <c r="C727" s="3" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
       <c r="D727" s="3" t="s">
-        <v>3978</v>
+        <v>3976</v>
       </c>
       <c r="E727" s="4" t="s">
         <v>15</v>
@@ -42897,10 +42893,10 @@
         <v>2292</v>
       </c>
       <c r="C728" s="3" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="D728" s="3" t="s">
-        <v>3979</v>
+        <v>3977</v>
       </c>
       <c r="E728" s="4" t="s">
         <v>15</v>
@@ -42943,7 +42939,7 @@
         <v>227</v>
       </c>
       <c r="D729" s="3" t="s">
-        <v>3980</v>
+        <v>3978</v>
       </c>
       <c r="E729" s="4" t="s">
         <v>15</v>
@@ -42985,7 +42981,7 @@
         <v>3317</v>
       </c>
       <c r="D730" s="3" t="s">
-        <v>3981</v>
+        <v>3979</v>
       </c>
       <c r="E730" s="4" t="s">
         <v>15</v>
@@ -43025,7 +43021,7 @@
         <v>3314</v>
       </c>
       <c r="D731" s="3" t="s">
-        <v>3941</v>
+        <v>3939</v>
       </c>
       <c r="E731" s="4" t="s">
         <v>15</v>
@@ -43065,7 +43061,7 @@
         <v>76</v>
       </c>
       <c r="D732" s="3" t="s">
-        <v>3942</v>
+        <v>3940</v>
       </c>
       <c r="E732" s="4" t="s">
         <v>15</v>
@@ -43105,7 +43101,7 @@
         <v>82</v>
       </c>
       <c r="D733" s="3" t="s">
-        <v>3943</v>
+        <v>3941</v>
       </c>
       <c r="E733" s="4" t="s">
         <v>15</v>
@@ -43145,7 +43141,7 @@
         <v>3315</v>
       </c>
       <c r="D734" s="3" t="s">
-        <v>3944</v>
+        <v>3942</v>
       </c>
       <c r="E734" s="4" t="s">
         <v>15</v>
@@ -43185,7 +43181,7 @@
         <v>93</v>
       </c>
       <c r="D735" s="3" t="s">
-        <v>3945</v>
+        <v>3943</v>
       </c>
       <c r="E735" s="4" t="s">
         <v>15</v>
@@ -43225,7 +43221,7 @@
         <v>99</v>
       </c>
       <c r="D736" s="3" t="s">
-        <v>3946</v>
+        <v>3944</v>
       </c>
       <c r="E736" s="4" t="s">
         <v>15</v>
@@ -43234,7 +43230,7 @@
         <v>2370</v>
       </c>
       <c r="G736" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H736" s="3"/>
       <c r="I736" s="3"/>
@@ -43267,7 +43263,7 @@
         <v>3317</v>
       </c>
       <c r="D737" s="3" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="E737" s="4" t="s">
         <v>15</v>
@@ -43358,7 +43354,7 @@
         <v>2379</v>
       </c>
       <c r="G739" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H739" s="3"/>
       <c r="I739" s="3"/>
@@ -43694,7 +43690,7 @@
         <v>2417</v>
       </c>
       <c r="G747" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H747" s="3"/>
       <c r="I747" s="3"/>
@@ -44018,7 +44014,7 @@
         <v>2440</v>
       </c>
       <c r="G755" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H755" s="3"/>
       <c r="I755" s="3"/>
@@ -44060,7 +44056,7 @@
         <v>2442</v>
       </c>
       <c r="G756" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H756" s="3"/>
       <c r="I756" s="3"/>
@@ -44102,7 +44098,7 @@
         <v>2444</v>
       </c>
       <c r="G757" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H757" s="3"/>
       <c r="I757" s="3"/>
@@ -44132,7 +44128,7 @@
         <v>189</v>
       </c>
       <c r="C758" s="3" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
       <c r="D758" s="3" t="s">
         <v>2448</v>
@@ -44172,7 +44168,7 @@
         <v>189</v>
       </c>
       <c r="C759" s="3" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="D759" s="3" t="s">
         <v>3326</v>
@@ -44309,7 +44305,7 @@
         <v>2458</v>
       </c>
       <c r="G762" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H762" s="3"/>
       <c r="I762" s="3"/>
@@ -44633,7 +44629,7 @@
         <v>2481</v>
       </c>
       <c r="G770" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H770" s="3"/>
       <c r="I770" s="3"/>
@@ -44675,7 +44671,7 @@
         <v>2483</v>
       </c>
       <c r="G771" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H771" s="3"/>
       <c r="I771" s="3"/>
@@ -44717,7 +44713,7 @@
         <v>2485</v>
       </c>
       <c r="G772" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H772" s="3"/>
       <c r="I772" s="3"/>
@@ -44747,7 +44743,7 @@
         <v>189</v>
       </c>
       <c r="C773" s="3" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
       <c r="D773" s="3" t="s">
         <v>2489</v>
@@ -44787,7 +44783,7 @@
         <v>189</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="D774" s="3" t="s">
         <v>3327</v>
@@ -45252,7 +45248,7 @@
         <v>2540</v>
       </c>
       <c r="G785" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H785" s="3"/>
       <c r="I785" s="3"/>
@@ -45576,7 +45572,7 @@
         <v>2561</v>
       </c>
       <c r="G793" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H793" s="3"/>
       <c r="I793" s="3"/>
@@ -45618,7 +45614,7 @@
         <v>2563</v>
       </c>
       <c r="G794" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H794" s="3"/>
       <c r="I794" s="3"/>
@@ -45660,7 +45656,7 @@
         <v>2565</v>
       </c>
       <c r="G795" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H795" s="3"/>
       <c r="I795" s="3"/>
@@ -45690,7 +45686,7 @@
         <v>189</v>
       </c>
       <c r="C796" s="3" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
       <c r="D796" s="3" t="s">
         <v>2569</v>
@@ -45730,7 +45726,7 @@
         <v>189</v>
       </c>
       <c r="C797" s="3" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="D797" s="3" t="s">
         <v>3328</v>
@@ -45955,7 +45951,7 @@
         <v>2592</v>
       </c>
       <c r="G802" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H802" s="3"/>
       <c r="I802" s="3"/>
@@ -46169,7 +46165,7 @@
         <v>2618</v>
       </c>
       <c r="G807" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H807" s="3"/>
       <c r="I807" s="3"/>
@@ -46651,7 +46647,7 @@
         <v>885</v>
       </c>
       <c r="D819" s="3" t="s">
-        <v>3982</v>
+        <v>3980</v>
       </c>
       <c r="E819" s="4" t="s">
         <v>15</v>
@@ -46660,7 +46656,7 @@
         <v>2654</v>
       </c>
       <c r="G819" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H819" s="3"/>
       <c r="I819" s="3"/>
@@ -46693,7 +46689,7 @@
         <v>890</v>
       </c>
       <c r="D820" s="3" t="s">
-        <v>3983</v>
+        <v>3981</v>
       </c>
       <c r="E820" s="4" t="s">
         <v>15</v>
@@ -46702,7 +46698,7 @@
         <v>2655</v>
       </c>
       <c r="G820" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H820" s="3"/>
       <c r="I820" s="3"/>
@@ -46735,7 +46731,7 @@
         <v>3315</v>
       </c>
       <c r="D821" s="3" t="s">
-        <v>3984</v>
+        <v>3982</v>
       </c>
       <c r="E821" s="4" t="s">
         <v>15</v>
@@ -46775,7 +46771,7 @@
         <v>93</v>
       </c>
       <c r="D822" s="3" t="s">
-        <v>3985</v>
+        <v>3983</v>
       </c>
       <c r="E822" s="4" t="s">
         <v>15</v>
@@ -46815,7 +46811,7 @@
         <v>900</v>
       </c>
       <c r="D823" s="3" t="s">
-        <v>3986</v>
+        <v>3984</v>
       </c>
       <c r="E823" s="4" t="s">
         <v>15</v>
@@ -46824,7 +46820,7 @@
         <v>2660</v>
       </c>
       <c r="G823" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H823" s="3"/>
       <c r="I823" s="3"/>
@@ -46857,7 +46853,7 @@
         <v>905</v>
       </c>
       <c r="D824" s="3" t="s">
-        <v>3995</v>
+        <v>3993</v>
       </c>
       <c r="E824" s="4" t="s">
         <v>15</v>
@@ -46866,7 +46862,7 @@
         <v>2661</v>
       </c>
       <c r="G824" s="3" t="s">
-        <v>4002</v>
+        <v>4000</v>
       </c>
       <c r="H824" s="3"/>
       <c r="I824" s="3"/>
@@ -46899,7 +46895,7 @@
         <v>910</v>
       </c>
       <c r="D825" s="3" t="s">
-        <v>3987</v>
+        <v>3985</v>
       </c>
       <c r="E825" s="4" t="s">
         <v>15</v>
@@ -46908,7 +46904,7 @@
         <v>2662</v>
       </c>
       <c r="G825" s="5" t="s">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="H825" s="3" t="s">
         <v>913</v>
@@ -46941,7 +46937,7 @@
         <v>99</v>
       </c>
       <c r="D826" s="3" t="s">
-        <v>3988</v>
+        <v>3986</v>
       </c>
       <c r="E826" s="4" t="s">
         <v>15</v>
@@ -46950,7 +46946,7 @@
         <v>2663</v>
       </c>
       <c r="G826" s="3" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H826" s="3"/>
       <c r="I826" s="3"/>
@@ -46980,10 +46976,10 @@
         <v>787</v>
       </c>
       <c r="C827" s="3" t="s">
-        <v>4000</v>
+        <v>3998</v>
       </c>
       <c r="D827" s="3" t="s">
-        <v>3999</v>
+        <v>3997</v>
       </c>
       <c r="E827" s="4" t="s">
         <v>15</v>
@@ -46992,7 +46988,7 @@
         <v>2664</v>
       </c>
       <c r="G827" s="3" t="s">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="H827" s="3"/>
       <c r="I827" s="3"/>
@@ -47025,7 +47021,7 @@
         <v>922</v>
       </c>
       <c r="D828" s="3" t="s">
-        <v>3989</v>
+        <v>3987</v>
       </c>
       <c r="E828" s="4" t="s">
         <v>15</v>
@@ -47034,7 +47030,7 @@
         <v>2665</v>
       </c>
       <c r="G828" s="3" t="s">
-        <v>4005</v>
+        <v>4003</v>
       </c>
       <c r="H828" s="3"/>
       <c r="I828" s="3"/>
@@ -47067,7 +47063,7 @@
         <v>2666</v>
       </c>
       <c r="D829" s="3" t="s">
-        <v>3990</v>
+        <v>3988</v>
       </c>
       <c r="E829" s="4" t="s">
         <v>15</v>
@@ -47076,7 +47072,7 @@
         <v>2667</v>
       </c>
       <c r="G829" s="5" t="s">
-        <v>4011</v>
+        <v>4009</v>
       </c>
       <c r="H829" s="3" t="s">
         <v>931</v>
@@ -47111,7 +47107,7 @@
         <v>2668</v>
       </c>
       <c r="D830" s="3" t="s">
-        <v>3991</v>
+        <v>3989</v>
       </c>
       <c r="E830" s="4" t="s">
         <v>15</v>
@@ -47120,7 +47116,7 @@
         <v>2669</v>
       </c>
       <c r="G830" s="5" t="s">
-        <v>4006</v>
+        <v>4004</v>
       </c>
       <c r="H830" s="3"/>
       <c r="I830" s="3"/>
@@ -47160,7 +47156,7 @@
         <v>2671</v>
       </c>
       <c r="G831" s="3" t="s">
-        <v>4007</v>
+        <v>4005</v>
       </c>
       <c r="H831" s="3" t="s">
         <v>2672</v>
@@ -47207,7 +47203,7 @@
         <v>2673</v>
       </c>
       <c r="G832" s="3" t="s">
-        <v>4008</v>
+        <v>4006</v>
       </c>
       <c r="H832" s="3"/>
       <c r="I832" s="3"/>
@@ -47251,7 +47247,7 @@
         <v>2675</v>
       </c>
       <c r="G833" s="3" t="s">
-        <v>4009</v>
+        <v>4007</v>
       </c>
       <c r="H833" s="3"/>
       <c r="I833" s="3"/>
@@ -47293,7 +47289,7 @@
         <v>2678</v>
       </c>
       <c r="G834" s="3" t="s">
-        <v>4010</v>
+        <v>4008</v>
       </c>
       <c r="H834" s="3"/>
       <c r="I834" s="3"/>
@@ -47837,9 +47833,7 @@
       <c r="N846" s="6" t="s">
         <v>3333</v>
       </c>
-      <c r="O846" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="O846" s="6"/>
       <c r="P846" s="16"/>
     </row>
     <row r="847" spans="1:16" x14ac:dyDescent="0.25">
@@ -47879,9 +47873,7 @@
       <c r="N847" s="6" t="s">
         <v>3333</v>
       </c>
-      <c r="O847" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="O847" s="6"/>
       <c r="P847" s="16"/>
     </row>
     <row r="848" spans="1:16" x14ac:dyDescent="0.25">
@@ -48007,9 +47999,7 @@
       <c r="N850" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O850" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="O850" s="6"/>
       <c r="P850" s="16"/>
     </row>
     <row r="851" spans="1:16" x14ac:dyDescent="0.25">
@@ -48091,9 +48081,7 @@
       <c r="N852" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O852" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="O852" s="6"/>
       <c r="P852" s="16"/>
     </row>
     <row r="853" spans="1:16" x14ac:dyDescent="0.25">
@@ -48104,7 +48092,7 @@
         <v>2687</v>
       </c>
       <c r="C853" s="15" t="s">
-        <v>3494</v>
+        <v>3492</v>
       </c>
       <c r="D853" s="15" t="s">
         <v>3355</v>
@@ -48116,7 +48104,7 @@
         <v>3354</v>
       </c>
       <c r="G853" s="15" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H853" s="15"/>
       <c r="I853" s="15"/>
@@ -48242,7 +48230,7 @@
         <v>3360</v>
       </c>
       <c r="G856" s="6" t="s">
-        <v>3491</v>
+        <v>3489</v>
       </c>
       <c r="H856" s="6"/>
       <c r="I856" s="6"/>
@@ -48272,7 +48260,7 @@
         <v>3363</v>
       </c>
       <c r="C857" s="15" t="s">
-        <v>3492</v>
+        <v>3490</v>
       </c>
       <c r="D857" s="15" t="s">
         <v>3411</v>
@@ -48284,7 +48272,7 @@
         <v>3410</v>
       </c>
       <c r="G857" s="15" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H857" s="15"/>
       <c r="I857" s="15"/>
@@ -48400,7 +48388,7 @@
         <v>3363</v>
       </c>
       <c r="C860" s="15" t="s">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="D860" s="15" t="s">
         <v>3416</v>
@@ -48412,7 +48400,7 @@
         <v>3415</v>
       </c>
       <c r="G860" s="15" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H860" s="15"/>
       <c r="I860" s="15"/>
@@ -48597,9 +48585,7 @@
       <c r="N864" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O864" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="O864" s="6"/>
       <c r="P864" s="16"/>
     </row>
     <row r="865" spans="1:16" x14ac:dyDescent="0.25">
@@ -48681,9 +48667,7 @@
       <c r="N866" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O866" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="O866" s="6"/>
       <c r="P866" s="16"/>
     </row>
     <row r="867" spans="1:16" x14ac:dyDescent="0.25">
@@ -48694,7 +48678,7 @@
         <v>2687</v>
       </c>
       <c r="C867" s="15" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="D867" s="15" t="s">
         <v>3421</v>
@@ -48706,7 +48690,7 @@
         <v>3420</v>
       </c>
       <c r="G867" s="15" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H867" s="15"/>
       <c r="I867" s="15"/>
@@ -49095,19 +49079,19 @@
         <v>2073</v>
       </c>
       <c r="D877" s="17" t="s">
-        <v>3513</v>
+        <v>3511</v>
       </c>
       <c r="E877" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F877" s="17" t="s">
-        <v>3441</v>
+        <v>3439</v>
       </c>
       <c r="G877" s="17" t="s">
-        <v>3451</v>
+        <v>3449</v>
       </c>
       <c r="H877" s="17" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
       <c r="I877" s="17"/>
       <c r="J877" s="17"/>
@@ -49154,7 +49138,7 @@
       <c r="I878" s="17"/>
       <c r="J878" s="17"/>
       <c r="K878" s="17" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
       <c r="L878" s="17" t="s">
         <v>3344</v>
@@ -49194,7 +49178,7 @@
       <c r="I879" s="17"/>
       <c r="J879" s="17"/>
       <c r="K879" s="17" t="s">
-        <v>3477</v>
+        <v>3475</v>
       </c>
       <c r="L879" s="17" t="s">
         <v>3345</v>
@@ -49231,7 +49215,7 @@
         <v>2784</v>
       </c>
       <c r="H880" s="17" t="s">
-        <v>3465</v>
+        <v>3463</v>
       </c>
       <c r="I880" s="17"/>
       <c r="J880" s="17"/>
@@ -49261,7 +49245,7 @@
         <v>2832</v>
       </c>
       <c r="D881" s="17" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
       <c r="E881" s="18" t="s">
         <v>15</v>
@@ -49273,7 +49257,7 @@
         <v>2834</v>
       </c>
       <c r="H881" s="17" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
       <c r="I881" s="17"/>
       <c r="J881" s="17"/>
@@ -49300,10 +49284,10 @@
         <v>2778</v>
       </c>
       <c r="C882" s="17" t="s">
-        <v>3433</v>
+        <v>3431</v>
       </c>
       <c r="D882" s="17" t="s">
-        <v>3433</v>
+        <v>3431</v>
       </c>
       <c r="E882" s="18" t="s">
         <v>15</v>
@@ -49315,12 +49299,12 @@
         <v>2831</v>
       </c>
       <c r="H882" s="17" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
       <c r="I882" s="17"/>
       <c r="J882" s="17"/>
       <c r="K882" s="17" t="s">
-        <v>3433</v>
+        <v>3431</v>
       </c>
       <c r="L882" s="17" t="s">
         <v>3407</v>
@@ -49345,16 +49329,16 @@
         <v>3361</v>
       </c>
       <c r="D883" s="17" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="E883" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F883" s="17" t="s">
-        <v>3443</v>
+        <v>3441</v>
       </c>
       <c r="G883" s="17" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="H883" s="17" t="s">
         <v>2796</v>
@@ -49466,28 +49450,28 @@
         <v>2778</v>
       </c>
       <c r="C886" s="17" t="s">
-        <v>3434</v>
+        <v>3432</v>
       </c>
       <c r="D886" s="17" t="s">
-        <v>3515</v>
+        <v>3513</v>
       </c>
       <c r="E886" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F886" s="17" t="s">
-        <v>3444</v>
+        <v>3442</v>
       </c>
       <c r="G886" s="17" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
       <c r="H886" s="17"/>
       <c r="I886" s="17"/>
       <c r="J886" s="17"/>
       <c r="K886" s="17" t="s">
-        <v>3434</v>
+        <v>3432</v>
       </c>
       <c r="L886" s="17" t="s">
-        <v>3469</v>
+        <v>3467</v>
       </c>
       <c r="M886" s="20" t="s">
         <v>22</v>
@@ -49506,22 +49490,22 @@
         <v>2778</v>
       </c>
       <c r="C887" s="17" t="s">
-        <v>3435</v>
+        <v>3433</v>
       </c>
       <c r="D887" s="17" t="s">
-        <v>3435</v>
+        <v>3433</v>
       </c>
       <c r="E887" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F887" s="17" t="s">
-        <v>3445</v>
+        <v>3443</v>
       </c>
       <c r="G887" s="17" t="s">
-        <v>3455</v>
+        <v>3453</v>
       </c>
       <c r="H887" s="17" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
       <c r="I887" s="17"/>
       <c r="J887" s="17"/>
@@ -49529,7 +49513,7 @@
         <v>3124</v>
       </c>
       <c r="L887" s="17" t="s">
-        <v>3470</v>
+        <v>3468</v>
       </c>
       <c r="M887" s="20" t="s">
         <v>22</v>
@@ -49548,28 +49532,28 @@
         <v>2778</v>
       </c>
       <c r="C888" s="17" t="s">
-        <v>3436</v>
+        <v>3434</v>
       </c>
       <c r="D888" s="17" t="s">
-        <v>3436</v>
+        <v>3434</v>
       </c>
       <c r="E888" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F888" s="17" t="s">
-        <v>3446</v>
+        <v>3444</v>
       </c>
       <c r="G888" s="17" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
       <c r="H888" s="17"/>
       <c r="I888" s="17"/>
       <c r="J888" s="17"/>
       <c r="K888" s="17" t="s">
-        <v>3478</v>
+        <v>3476</v>
       </c>
       <c r="L888" s="17" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
       <c r="M888" s="20" t="s">
         <v>22</v>
@@ -49588,30 +49572,30 @@
         <v>2778</v>
       </c>
       <c r="C889" s="17" t="s">
-        <v>3437</v>
+        <v>3435</v>
       </c>
       <c r="D889" s="17" t="s">
-        <v>3437</v>
+        <v>3435</v>
       </c>
       <c r="E889" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F889" s="17" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
       <c r="G889" s="17" t="s">
-        <v>3457</v>
+        <v>3455</v>
       </c>
       <c r="H889" s="17" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="I889" s="17"/>
       <c r="J889" s="17"/>
       <c r="K889" s="17" t="s">
-        <v>3437</v>
+        <v>3435</v>
       </c>
       <c r="L889" s="17" t="s">
-        <v>3472</v>
+        <v>3470</v>
       </c>
       <c r="M889" s="20" t="s">
         <v>22</v>
@@ -49630,28 +49614,28 @@
         <v>2778</v>
       </c>
       <c r="C890" s="17" t="s">
-        <v>3448</v>
+        <v>3446</v>
       </c>
       <c r="D890" s="17" t="s">
-        <v>3448</v>
+        <v>3446</v>
       </c>
       <c r="E890" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F890" s="17" t="s">
-        <v>3449</v>
+        <v>3447</v>
       </c>
       <c r="G890" s="17" t="s">
-        <v>3458</v>
+        <v>3456</v>
       </c>
       <c r="H890" s="17"/>
       <c r="I890" s="17"/>
       <c r="J890" s="17"/>
       <c r="K890" s="17" t="s">
-        <v>3448</v>
+        <v>3446</v>
       </c>
       <c r="L890" s="17" t="s">
-        <v>3473</v>
+        <v>3471</v>
       </c>
       <c r="M890" s="20" t="s">
         <v>22</v>
@@ -49670,30 +49654,30 @@
         <v>2778</v>
       </c>
       <c r="C891" s="17" t="s">
-        <v>3438</v>
+        <v>3436</v>
       </c>
       <c r="D891" s="17" t="s">
-        <v>3511</v>
+        <v>3509</v>
       </c>
       <c r="E891" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F891" s="17" t="s">
-        <v>3450</v>
+        <v>3448</v>
       </c>
       <c r="G891" s="17" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="H891" s="17" t="s">
-        <v>3467</v>
+        <v>3465</v>
       </c>
       <c r="I891" s="17"/>
       <c r="J891" s="17"/>
       <c r="K891" s="17" t="s">
-        <v>3438</v>
+        <v>3436</v>
       </c>
       <c r="L891" s="17" t="s">
-        <v>3474</v>
+        <v>3472</v>
       </c>
       <c r="M891" s="20" t="s">
         <v>22</v>
@@ -49712,19 +49696,19 @@
         <v>2778</v>
       </c>
       <c r="C892" s="17" t="s">
+        <v>3438</v>
+      </c>
+      <c r="D892" s="17" t="s">
+        <v>3514</v>
+      </c>
+      <c r="E892" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F892" s="17" t="s">
         <v>3440</v>
       </c>
-      <c r="D892" s="17" t="s">
-        <v>3516</v>
-      </c>
-      <c r="E892" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F892" s="17" t="s">
-        <v>3442</v>
-      </c>
       <c r="G892" s="17" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
       <c r="H892" s="17" t="s">
         <v>976</v>
@@ -49732,10 +49716,10 @@
       <c r="I892" s="17"/>
       <c r="J892" s="17"/>
       <c r="K892" s="17" t="s">
-        <v>3440</v>
+        <v>3438</v>
       </c>
       <c r="L892" s="17" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
       <c r="M892" s="20" t="s">
         <v>22</v>
@@ -49757,7 +49741,7 @@
         <v>2779</v>
       </c>
       <c r="D893" s="17" t="s">
-        <v>3510</v>
+        <v>3508</v>
       </c>
       <c r="E893" s="18" t="s">
         <v>15</v>
@@ -49769,7 +49753,7 @@
         <v>2723</v>
       </c>
       <c r="H893" s="17" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="I893" s="17"/>
       <c r="J893" s="17"/>
@@ -49796,10 +49780,10 @@
         <v>2778</v>
       </c>
       <c r="C894" s="18" t="s">
-        <v>3768</v>
+        <v>3766</v>
       </c>
       <c r="D894" s="18" t="s">
-        <v>3475</v>
+        <v>3473</v>
       </c>
       <c r="E894" s="18" t="s">
         <v>15</v>
@@ -49814,7 +49798,7 @@
       <c r="I894" s="17"/>
       <c r="J894" s="17"/>
       <c r="K894" s="17" t="s">
-        <v>3479</v>
+        <v>3477</v>
       </c>
       <c r="L894" s="17" t="s">
         <v>3009</v>
@@ -49839,7 +49823,7 @@
         <v>76</v>
       </c>
       <c r="D895" s="18" t="s">
-        <v>3485</v>
+        <v>3483</v>
       </c>
       <c r="E895" s="18" t="s">
         <v>15</v>
@@ -49854,7 +49838,7 @@
       <c r="I895" s="17"/>
       <c r="J895" s="17"/>
       <c r="K895" s="17" t="s">
-        <v>3480</v>
+        <v>3478</v>
       </c>
       <c r="L895" s="17" t="s">
         <v>81</v>
@@ -49876,10 +49860,10 @@
         <v>2778</v>
       </c>
       <c r="C896" s="18" t="s">
+        <v>3482</v>
+      </c>
+      <c r="D896" s="18" t="s">
         <v>3484</v>
-      </c>
-      <c r="D896" s="18" t="s">
-        <v>3486</v>
       </c>
       <c r="E896" s="18" t="s">
         <v>15</v>
@@ -49894,7 +49878,7 @@
       <c r="I896" s="17"/>
       <c r="J896" s="17"/>
       <c r="K896" s="17" t="s">
-        <v>3481</v>
+        <v>3479</v>
       </c>
       <c r="L896" s="17" t="s">
         <v>3005</v>
@@ -49916,10 +49900,10 @@
         <v>2778</v>
       </c>
       <c r="C897" s="18" t="s">
-        <v>3483</v>
+        <v>3481</v>
       </c>
       <c r="D897" s="18" t="s">
-        <v>3487</v>
+        <v>3485</v>
       </c>
       <c r="E897" s="18" t="s">
         <v>15</v>
@@ -49934,7 +49918,7 @@
       <c r="I897" s="17"/>
       <c r="J897" s="17"/>
       <c r="K897" s="17" t="s">
-        <v>3482</v>
+        <v>3480</v>
       </c>
       <c r="L897" s="17" t="s">
         <v>3350</v>
@@ -49956,34 +49940,34 @@
         <v>2778</v>
       </c>
       <c r="C898" s="18" t="s">
-        <v>3489</v>
+        <v>3487</v>
       </c>
       <c r="D898" s="18" t="s">
-        <v>3496</v>
+        <v>3494</v>
       </c>
       <c r="E898" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F898" s="18" t="s">
-        <v>3495</v>
+        <v>3493</v>
       </c>
       <c r="G898" s="18" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H898" s="18"/>
       <c r="I898" s="18"/>
       <c r="J898" s="18"/>
       <c r="K898" s="18" t="s">
-        <v>3497</v>
+        <v>3495</v>
       </c>
       <c r="L898" s="18" t="s">
-        <v>3488</v>
+        <v>3486</v>
       </c>
       <c r="M898" s="18" t="s">
         <v>22</v>
       </c>
       <c r="N898" s="18" t="s">
-        <v>3498</v>
+        <v>3496</v>
       </c>
       <c r="O898" s="18"/>
       <c r="P898" s="19"/>
@@ -49993,7 +49977,7 @@
         <v>2778</v>
       </c>
       <c r="B899" s="18" t="s">
-        <v>3503</v>
+        <v>3501</v>
       </c>
       <c r="C899" s="17" t="s">
         <v>2739</v>
@@ -50005,10 +49989,10 @@
         <v>15</v>
       </c>
       <c r="F899" s="17" t="s">
+        <v>3497</v>
+      </c>
+      <c r="G899" s="17" t="s">
         <v>3499</v>
-      </c>
-      <c r="G899" s="17" t="s">
-        <v>3501</v>
       </c>
       <c r="H899" s="17"/>
       <c r="I899" s="17"/>
@@ -50033,7 +50017,7 @@
         <v>2778</v>
       </c>
       <c r="B900" s="18" t="s">
-        <v>3503</v>
+        <v>3501</v>
       </c>
       <c r="C900" s="17" t="s">
         <v>3392</v>
@@ -50045,10 +50029,10 @@
         <v>15</v>
       </c>
       <c r="F900" s="17" t="s">
+        <v>3498</v>
+      </c>
+      <c r="G900" s="17" t="s">
         <v>3500</v>
-      </c>
-      <c r="G900" s="17" t="s">
-        <v>3502</v>
       </c>
       <c r="H900" s="17" t="s">
         <v>3394</v>
@@ -50078,34 +50062,34 @@
         <v>2778</v>
       </c>
       <c r="C901" s="18" t="s">
-        <v>3506</v>
+        <v>3504</v>
       </c>
       <c r="D901" s="18" t="s">
-        <v>3505</v>
+        <v>3503</v>
       </c>
       <c r="E901" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F901" s="18" t="s">
-        <v>3504</v>
+        <v>3502</v>
       </c>
       <c r="G901" s="18" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H901" s="18"/>
       <c r="I901" s="18"/>
       <c r="J901" s="18"/>
       <c r="K901" s="18" t="s">
+        <v>3505</v>
+      </c>
+      <c r="L901" s="18" t="s">
+        <v>3506</v>
+      </c>
+      <c r="M901" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N901" s="18" t="s">
         <v>3507</v>
-      </c>
-      <c r="L901" s="18" t="s">
-        <v>3508</v>
-      </c>
-      <c r="M901" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="N901" s="18" t="s">
-        <v>3509</v>
       </c>
       <c r="O901" s="18"/>
       <c r="P901" s="19"/>
@@ -50115,31 +50099,31 @@
         <v>2778</v>
       </c>
       <c r="B902" s="18" t="s">
-        <v>3526</v>
+        <v>3524</v>
       </c>
       <c r="C902" s="17" t="s">
+        <v>3516</v>
+      </c>
+      <c r="D902" s="17" t="s">
+        <v>3521</v>
+      </c>
+      <c r="E902" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F902" s="17" t="s">
         <v>3518</v>
       </c>
-      <c r="D902" s="17" t="s">
-        <v>3523</v>
-      </c>
-      <c r="E902" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F902" s="17" t="s">
+      <c r="G902" s="17" t="s">
         <v>3520</v>
-      </c>
-      <c r="G902" s="17" t="s">
-        <v>3522</v>
       </c>
       <c r="H902" s="17"/>
       <c r="I902" s="17"/>
       <c r="J902" s="17"/>
       <c r="K902" s="17" t="s">
-        <v>3523</v>
+        <v>3521</v>
       </c>
       <c r="L902" s="17" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="M902" s="17" t="s">
         <v>22</v>
@@ -50155,33 +50139,33 @@
         <v>2778</v>
       </c>
       <c r="B903" s="18" t="s">
-        <v>3526</v>
+        <v>3524</v>
       </c>
       <c r="C903" s="17" t="s">
+        <v>3517</v>
+      </c>
+      <c r="D903" s="17" t="s">
+        <v>3517</v>
+      </c>
+      <c r="E903" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F903" s="17" t="s">
         <v>3519</v>
       </c>
-      <c r="D903" s="17" t="s">
-        <v>3519</v>
-      </c>
-      <c r="E903" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F903" s="17" t="s">
-        <v>3521</v>
-      </c>
       <c r="G903" s="17" t="s">
-        <v>3524</v>
+        <v>3522</v>
       </c>
       <c r="H903" s="17" t="s">
-        <v>3538</v>
+        <v>3536</v>
       </c>
       <c r="I903" s="17"/>
       <c r="J903" s="17"/>
       <c r="K903" s="17" t="s">
-        <v>3519</v>
+        <v>3517</v>
       </c>
       <c r="L903" s="17" t="s">
-        <v>3525</v>
+        <v>3523</v>
       </c>
       <c r="M903" s="17" t="s">
         <v>22</v>
@@ -50200,34 +50184,34 @@
         <v>2778</v>
       </c>
       <c r="C904" s="18" t="s">
-        <v>3527</v>
+        <v>3525</v>
       </c>
       <c r="D904" s="18" t="s">
-        <v>3531</v>
+        <v>3529</v>
       </c>
       <c r="E904" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F904" s="18" t="s">
-        <v>3532</v>
+        <v>3530</v>
       </c>
       <c r="G904" s="18" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H904" s="18"/>
       <c r="I904" s="18"/>
       <c r="J904" s="18"/>
       <c r="K904" s="18" t="s">
-        <v>3530</v>
+        <v>3528</v>
       </c>
       <c r="L904" s="18" t="s">
-        <v>3529</v>
+        <v>3527</v>
       </c>
       <c r="M904" s="18" t="s">
         <v>22</v>
       </c>
       <c r="N904" s="18" t="s">
-        <v>3528</v>
+        <v>3526</v>
       </c>
       <c r="O904" s="18"/>
       <c r="P904" s="19"/>
@@ -50237,31 +50221,31 @@
         <v>2778</v>
       </c>
       <c r="B905" s="18" t="s">
-        <v>3537</v>
+        <v>3535</v>
       </c>
       <c r="C905" s="17" t="s">
-        <v>3536</v>
+        <v>3534</v>
       </c>
       <c r="D905" s="17" t="s">
-        <v>3536</v>
+        <v>3534</v>
       </c>
       <c r="E905" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F905" s="17" t="s">
-        <v>3534</v>
+        <v>3532</v>
       </c>
       <c r="G905" s="17" t="s">
-        <v>3535</v>
+        <v>3533</v>
       </c>
       <c r="H905" s="17"/>
       <c r="I905" s="17"/>
       <c r="J905" s="17"/>
       <c r="K905" s="17" t="s">
-        <v>3523</v>
+        <v>3521</v>
       </c>
       <c r="L905" s="17" t="s">
-        <v>3533</v>
+        <v>3531</v>
       </c>
       <c r="M905" s="17" t="s">
         <v>22</v>
@@ -50277,31 +50261,31 @@
         <v>2778</v>
       </c>
       <c r="B906" s="18" t="s">
+        <v>3535</v>
+      </c>
+      <c r="C906" s="17" t="s">
+        <v>3539</v>
+      </c>
+      <c r="D906" s="17" t="s">
+        <v>3539</v>
+      </c>
+      <c r="E906" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F906" s="17" t="s">
         <v>3537</v>
       </c>
-      <c r="C906" s="17" t="s">
-        <v>3541</v>
-      </c>
-      <c r="D906" s="17" t="s">
-        <v>3541</v>
-      </c>
-      <c r="E906" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F906" s="17" t="s">
-        <v>3539</v>
-      </c>
       <c r="G906" s="17" t="s">
-        <v>3542</v>
+        <v>3540</v>
       </c>
       <c r="H906" s="17"/>
       <c r="I906" s="17"/>
       <c r="J906" s="17"/>
       <c r="K906" s="17" t="s">
-        <v>3541</v>
+        <v>3539</v>
       </c>
       <c r="L906" s="17" t="s">
-        <v>3545</v>
+        <v>3543</v>
       </c>
       <c r="M906" s="17" t="s">
         <v>22</v>
@@ -50317,31 +50301,31 @@
         <v>2778</v>
       </c>
       <c r="B907" s="18" t="s">
-        <v>3537</v>
+        <v>3535</v>
       </c>
       <c r="C907" s="17" t="s">
-        <v>3511</v>
+        <v>3509</v>
       </c>
       <c r="D907" s="17" t="s">
-        <v>3544</v>
+        <v>3542</v>
       </c>
       <c r="E907" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F907" s="17" t="s">
-        <v>3540</v>
+        <v>3538</v>
       </c>
       <c r="G907" s="17" t="s">
-        <v>3543</v>
+        <v>3541</v>
       </c>
       <c r="H907" s="17"/>
       <c r="I907" s="17"/>
       <c r="J907" s="17"/>
       <c r="K907" s="17" t="s">
-        <v>3544</v>
+        <v>3542</v>
       </c>
       <c r="L907" s="17" t="s">
-        <v>3474</v>
+        <v>3472</v>
       </c>
       <c r="M907" s="17" t="s">
         <v>22</v>
@@ -50360,34 +50344,34 @@
         <v>2778</v>
       </c>
       <c r="C908" s="18" t="s">
-        <v>3549</v>
+        <v>3547</v>
       </c>
       <c r="D908" s="18" t="s">
-        <v>3548</v>
+        <v>3546</v>
       </c>
       <c r="E908" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F908" s="18" t="s">
-        <v>3546</v>
+        <v>3544</v>
       </c>
       <c r="G908" s="18" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H908" s="18"/>
       <c r="I908" s="18"/>
       <c r="J908" s="18"/>
       <c r="K908" s="18" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
       <c r="L908" s="18" t="s">
-        <v>3550</v>
+        <v>3548</v>
       </c>
       <c r="M908" s="18" t="s">
         <v>22</v>
       </c>
       <c r="N908" s="18" t="s">
-        <v>3551</v>
+        <v>3549</v>
       </c>
       <c r="O908" s="18"/>
       <c r="P908" s="19"/>
@@ -50397,31 +50381,31 @@
         <v>2778</v>
       </c>
       <c r="B909" s="18" t="s">
-        <v>3567</v>
+        <v>3565</v>
       </c>
       <c r="C909" s="17" t="s">
+        <v>3550</v>
+      </c>
+      <c r="D909" s="17" t="s">
+        <v>3553</v>
+      </c>
+      <c r="E909" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F909" s="17" t="s">
+        <v>3551</v>
+      </c>
+      <c r="G909" s="17" t="s">
         <v>3552</v>
-      </c>
-      <c r="D909" s="17" t="s">
-        <v>3555</v>
-      </c>
-      <c r="E909" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F909" s="17" t="s">
-        <v>3553</v>
-      </c>
-      <c r="G909" s="17" t="s">
-        <v>3554</v>
       </c>
       <c r="H909" s="17"/>
       <c r="I909" s="17"/>
       <c r="J909" s="17"/>
       <c r="K909" s="17" t="s">
-        <v>3555</v>
+        <v>3553</v>
       </c>
       <c r="L909" s="17" t="s">
-        <v>3565</v>
+        <v>3563</v>
       </c>
       <c r="M909" s="17" t="s">
         <v>22</v>
@@ -50437,31 +50421,31 @@
         <v>2778</v>
       </c>
       <c r="B910" s="18" t="s">
-        <v>3567</v>
+        <v>3565</v>
       </c>
       <c r="C910" s="17" t="s">
-        <v>3556</v>
+        <v>3554</v>
       </c>
       <c r="D910" s="17" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="E910" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F910" s="17" t="s">
-        <v>3559</v>
+        <v>3557</v>
       </c>
       <c r="G910" s="17" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
       <c r="H910" s="17"/>
       <c r="I910" s="17"/>
       <c r="J910" s="17"/>
       <c r="K910" s="17" t="s">
+        <v>3560</v>
+      </c>
+      <c r="L910" s="17" t="s">
         <v>3562</v>
-      </c>
-      <c r="L910" s="17" t="s">
-        <v>3564</v>
       </c>
       <c r="M910" s="17" t="s">
         <v>22</v>
@@ -50477,31 +50461,31 @@
         <v>2778</v>
       </c>
       <c r="B911" s="18" t="s">
-        <v>3567</v>
+        <v>3565</v>
       </c>
       <c r="C911" s="17" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
       <c r="D911" s="17" t="s">
-        <v>3563</v>
+        <v>3561</v>
       </c>
       <c r="E911" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F911" s="17" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="G911" s="17" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
       <c r="H911" s="17"/>
       <c r="I911" s="17"/>
       <c r="J911" s="17"/>
       <c r="K911" s="17" t="s">
-        <v>3563</v>
+        <v>3561</v>
       </c>
       <c r="L911" s="17" t="s">
-        <v>3566</v>
+        <v>3564</v>
       </c>
       <c r="M911" s="17" t="s">
         <v>22</v>
@@ -50517,31 +50501,31 @@
         <v>2778</v>
       </c>
       <c r="B912" s="18" t="s">
-        <v>3567</v>
+        <v>3565</v>
       </c>
       <c r="C912" s="23" t="s">
-        <v>3568</v>
+        <v>3566</v>
       </c>
       <c r="D912" s="17" t="s">
-        <v>3648</v>
+        <v>3646</v>
       </c>
       <c r="E912" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F912" s="17" t="s">
-        <v>3646</v>
+        <v>3644</v>
       </c>
       <c r="G912" s="17" t="s">
-        <v>3647</v>
+        <v>3645</v>
       </c>
       <c r="H912" s="17"/>
       <c r="I912" s="17"/>
       <c r="J912" s="17"/>
       <c r="K912" s="17" t="s">
-        <v>3648</v>
+        <v>3646</v>
       </c>
       <c r="L912" s="17" t="s">
-        <v>3649</v>
+        <v>3647</v>
       </c>
       <c r="M912" s="17" t="s">
         <v>22</v>
@@ -50557,31 +50541,31 @@
         <v>2778</v>
       </c>
       <c r="B913" s="18" t="s">
+        <v>3565</v>
+      </c>
+      <c r="C913" s="23" t="s">
         <v>3567</v>
       </c>
-      <c r="C913" s="23" t="s">
-        <v>3569</v>
-      </c>
       <c r="D913" s="17" t="s">
-        <v>3652</v>
+        <v>3650</v>
       </c>
       <c r="E913" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F913" s="17" t="s">
-        <v>3650</v>
+        <v>3648</v>
       </c>
       <c r="G913" s="17" t="s">
-        <v>3651</v>
+        <v>3649</v>
       </c>
       <c r="H913" s="17"/>
       <c r="I913" s="17"/>
       <c r="J913" s="17"/>
       <c r="K913" s="17" t="s">
-        <v>3653</v>
+        <v>3651</v>
       </c>
       <c r="L913" s="17" t="s">
-        <v>3654</v>
+        <v>3652</v>
       </c>
       <c r="M913" s="17" t="s">
         <v>22</v>
@@ -50597,31 +50581,31 @@
         <v>2778</v>
       </c>
       <c r="B914" s="18" t="s">
-        <v>3567</v>
+        <v>3565</v>
       </c>
       <c r="C914" s="23" t="s">
         <v>2824</v>
       </c>
       <c r="D914" s="17" t="s">
-        <v>3657</v>
+        <v>3655</v>
       </c>
       <c r="E914" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F914" s="17" t="s">
-        <v>3655</v>
+        <v>3653</v>
       </c>
       <c r="G914" s="17" t="s">
-        <v>3656</v>
+        <v>3654</v>
       </c>
       <c r="H914" s="17"/>
       <c r="I914" s="17"/>
       <c r="J914" s="17"/>
       <c r="K914" s="17" t="s">
-        <v>3657</v>
+        <v>3655</v>
       </c>
       <c r="L914" s="17" t="s">
-        <v>3658</v>
+        <v>3656</v>
       </c>
       <c r="M914" s="17" t="s">
         <v>22</v>
@@ -50637,31 +50621,31 @@
         <v>2778</v>
       </c>
       <c r="B915" s="18" t="s">
-        <v>3567</v>
+        <v>3565</v>
       </c>
       <c r="C915" s="23" t="s">
-        <v>3570</v>
+        <v>3568</v>
       </c>
       <c r="D915" s="17" t="s">
-        <v>3661</v>
+        <v>3659</v>
       </c>
       <c r="E915" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F915" s="17" t="s">
-        <v>3659</v>
+        <v>3657</v>
       </c>
       <c r="G915" s="17" t="s">
-        <v>3660</v>
+        <v>3658</v>
       </c>
       <c r="H915" s="17"/>
       <c r="I915" s="17"/>
       <c r="J915" s="17"/>
       <c r="K915" s="17" t="s">
-        <v>3661</v>
+        <v>3659</v>
       </c>
       <c r="L915" s="17" t="s">
-        <v>3662</v>
+        <v>3660</v>
       </c>
       <c r="M915" s="17" t="s">
         <v>22</v>
@@ -50677,31 +50661,31 @@
         <v>2778</v>
       </c>
       <c r="B916" s="18" t="s">
-        <v>3567</v>
+        <v>3565</v>
       </c>
       <c r="C916" s="23" t="s">
-        <v>3571</v>
+        <v>3569</v>
       </c>
       <c r="D916" s="17" t="s">
-        <v>3665</v>
+        <v>3663</v>
       </c>
       <c r="E916" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F916" s="17" t="s">
-        <v>3663</v>
+        <v>3661</v>
       </c>
       <c r="G916" s="17" t="s">
-        <v>3664</v>
+        <v>3662</v>
       </c>
       <c r="H916" s="17"/>
       <c r="I916" s="17"/>
       <c r="J916" s="17"/>
       <c r="K916" s="17" t="s">
-        <v>3666</v>
+        <v>3664</v>
       </c>
       <c r="L916" s="17" t="s">
-        <v>3667</v>
+        <v>3665</v>
       </c>
       <c r="M916" s="17" t="s">
         <v>22</v>
@@ -50717,31 +50701,31 @@
         <v>2778</v>
       </c>
       <c r="B917" s="18" t="s">
-        <v>3567</v>
+        <v>3565</v>
       </c>
       <c r="C917" s="23" t="s">
-        <v>3572</v>
+        <v>3570</v>
       </c>
       <c r="D917" s="17" t="s">
-        <v>3670</v>
+        <v>3668</v>
       </c>
       <c r="E917" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F917" s="17" t="s">
-        <v>3668</v>
+        <v>3666</v>
       </c>
       <c r="G917" s="17" t="s">
-        <v>3669</v>
+        <v>3667</v>
       </c>
       <c r="H917" s="17"/>
       <c r="I917" s="17"/>
       <c r="J917" s="17"/>
       <c r="K917" s="17" t="s">
-        <v>3670</v>
+        <v>3668</v>
       </c>
       <c r="L917" s="17" t="s">
-        <v>3671</v>
+        <v>3669</v>
       </c>
       <c r="M917" s="17" t="s">
         <v>22</v>
@@ -50760,34 +50744,34 @@
         <v>2778</v>
       </c>
       <c r="C918" s="21" t="s">
+        <v>3571</v>
+      </c>
+      <c r="D918" s="18" t="s">
         <v>3573</v>
       </c>
-      <c r="D918" s="18" t="s">
-        <v>3575</v>
-      </c>
       <c r="E918" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F918" s="18" t="s">
-        <v>3574</v>
+        <v>3572</v>
       </c>
       <c r="G918" s="19" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H918" s="18"/>
       <c r="I918" s="18"/>
       <c r="J918" s="18"/>
       <c r="K918" s="18" t="s">
-        <v>3578</v>
+        <v>3576</v>
       </c>
       <c r="L918" s="18" t="s">
-        <v>3577</v>
+        <v>3575</v>
       </c>
       <c r="M918" s="18" t="s">
         <v>22</v>
       </c>
       <c r="N918" s="18" t="s">
-        <v>3576</v>
+        <v>3574</v>
       </c>
       <c r="O918" s="18"/>
       <c r="P918" s="19"/>
@@ -50797,22 +50781,22 @@
         <v>2778</v>
       </c>
       <c r="B919" s="18" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="C919" s="21" t="s">
         <v>2736</v>
       </c>
       <c r="D919" s="18" t="s">
-        <v>3676</v>
+        <v>3674</v>
       </c>
       <c r="E919" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F919" s="18" t="s">
-        <v>3617</v>
+        <v>3615</v>
       </c>
       <c r="G919" s="18" t="s">
-        <v>3675</v>
+        <v>3673</v>
       </c>
       <c r="H919" s="18" t="s">
         <v>2738</v>
@@ -50820,7 +50804,7 @@
       <c r="I919" s="18"/>
       <c r="J919" s="18"/>
       <c r="K919" s="18" t="s">
-        <v>3676</v>
+        <v>3674</v>
       </c>
       <c r="L919" s="18" t="s">
         <v>3343</v>
@@ -50839,33 +50823,33 @@
         <v>2778</v>
       </c>
       <c r="B920" s="18" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="C920" s="23" t="s">
-        <v>3581</v>
+        <v>3579</v>
       </c>
       <c r="D920" s="17" t="s">
-        <v>3681</v>
+        <v>3679</v>
       </c>
       <c r="E920" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F920" s="18" t="s">
-        <v>3619</v>
+        <v>3617</v>
       </c>
       <c r="G920" s="18" t="s">
-        <v>3680</v>
+        <v>3678</v>
       </c>
       <c r="H920" s="17" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
       <c r="I920" s="17"/>
       <c r="J920" s="17"/>
       <c r="K920" s="17" t="s">
-        <v>3681</v>
+        <v>3679</v>
       </c>
       <c r="L920" s="17" t="s">
-        <v>3682</v>
+        <v>3680</v>
       </c>
       <c r="M920" s="17" t="s">
         <v>22</v>
@@ -50881,33 +50865,33 @@
         <v>2778</v>
       </c>
       <c r="B921" s="18" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="C921" s="23" t="s">
-        <v>3582</v>
+        <v>3580</v>
       </c>
       <c r="D921" s="17" t="s">
-        <v>3684</v>
+        <v>3682</v>
       </c>
       <c r="E921" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F921" s="18" t="s">
-        <v>3620</v>
+        <v>3618</v>
       </c>
       <c r="G921" s="18" t="s">
-        <v>3683</v>
+        <v>3681</v>
       </c>
       <c r="H921" s="17" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
       <c r="I921" s="17"/>
       <c r="J921" s="17"/>
       <c r="K921" s="17" t="s">
-        <v>3684</v>
+        <v>3682</v>
       </c>
       <c r="L921" s="17" t="s">
-        <v>3685</v>
+        <v>3683</v>
       </c>
       <c r="M921" s="17" t="s">
         <v>22</v>
@@ -50923,33 +50907,33 @@
         <v>2778</v>
       </c>
       <c r="B922" s="18" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="C922" s="23" t="s">
-        <v>3583</v>
+        <v>3581</v>
       </c>
       <c r="D922" s="17" t="s">
-        <v>3688</v>
+        <v>3686</v>
       </c>
       <c r="E922" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F922" s="18" t="s">
-        <v>3621</v>
+        <v>3619</v>
       </c>
       <c r="G922" s="18" t="s">
-        <v>3686</v>
+        <v>3684</v>
       </c>
       <c r="H922" s="17" t="s">
-        <v>3630</v>
+        <v>3628</v>
       </c>
       <c r="I922" s="17"/>
       <c r="J922" s="17"/>
       <c r="K922" s="17" t="s">
-        <v>3688</v>
+        <v>3686</v>
       </c>
       <c r="L922" s="17" t="s">
-        <v>3687</v>
+        <v>3685</v>
       </c>
       <c r="M922" s="17" t="s">
         <v>22</v>
@@ -50965,33 +50949,33 @@
         <v>2778</v>
       </c>
       <c r="B923" s="18" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="C923" s="23" t="s">
-        <v>3584</v>
+        <v>3582</v>
       </c>
       <c r="D923" s="17" t="s">
-        <v>3691</v>
+        <v>3689</v>
       </c>
       <c r="E923" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F923" s="18" t="s">
-        <v>3622</v>
+        <v>3620</v>
       </c>
       <c r="G923" s="18" t="s">
-        <v>3689</v>
+        <v>3687</v>
       </c>
       <c r="H923" s="17" t="s">
-        <v>3631</v>
+        <v>3629</v>
       </c>
       <c r="I923" s="17"/>
       <c r="J923" s="17"/>
       <c r="K923" s="17" t="s">
-        <v>3691</v>
+        <v>3689</v>
       </c>
       <c r="L923" s="17" t="s">
-        <v>3690</v>
+        <v>3688</v>
       </c>
       <c r="M923" s="17" t="s">
         <v>22</v>
@@ -51007,31 +50991,31 @@
         <v>2778</v>
       </c>
       <c r="B924" s="18" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="C924" s="23" t="s">
-        <v>3580</v>
+        <v>3578</v>
       </c>
       <c r="D924" s="17" t="s">
-        <v>3695</v>
+        <v>3693</v>
       </c>
       <c r="E924" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F924" s="18" t="s">
-        <v>3623</v>
+        <v>3621</v>
       </c>
       <c r="G924" s="18" t="s">
-        <v>3693</v>
+        <v>3691</v>
       </c>
       <c r="H924" s="17"/>
       <c r="I924" s="17"/>
       <c r="J924" s="17"/>
       <c r="K924" s="17" t="s">
-        <v>3695</v>
+        <v>3693</v>
       </c>
       <c r="L924" s="17" t="s">
-        <v>3694</v>
+        <v>3692</v>
       </c>
       <c r="M924" s="17" t="s">
         <v>22</v>
@@ -51047,31 +51031,31 @@
         <v>2778</v>
       </c>
       <c r="B925" s="18" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="C925" s="23" t="s">
-        <v>3579</v>
+        <v>3577</v>
       </c>
       <c r="D925" s="17" t="s">
-        <v>3697</v>
+        <v>3695</v>
       </c>
       <c r="E925" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F925" s="18" t="s">
-        <v>3618</v>
+        <v>3616</v>
       </c>
       <c r="G925" s="18" t="s">
-        <v>3696</v>
+        <v>3694</v>
       </c>
       <c r="H925" s="17"/>
       <c r="I925" s="17"/>
       <c r="J925" s="17"/>
       <c r="K925" s="17" t="s">
-        <v>3697</v>
+        <v>3695</v>
       </c>
       <c r="L925" s="17" t="s">
-        <v>3698</v>
+        <v>3696</v>
       </c>
       <c r="M925" s="17" t="s">
         <v>22</v>
@@ -51087,28 +51071,28 @@
         <v>2778</v>
       </c>
       <c r="B926" s="18" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="C926" s="23" t="s">
         <v>380</v>
       </c>
       <c r="D926" s="17" t="s">
-        <v>3700</v>
+        <v>3698</v>
       </c>
       <c r="E926" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F926" s="18" t="s">
-        <v>3624</v>
+        <v>3622</v>
       </c>
       <c r="G926" s="18" t="s">
-        <v>3699</v>
+        <v>3697</v>
       </c>
       <c r="H926" s="17"/>
       <c r="I926" s="17"/>
       <c r="J926" s="17"/>
       <c r="K926" s="17" t="s">
-        <v>3700</v>
+        <v>3698</v>
       </c>
       <c r="L926" s="17" t="s">
         <v>384</v>
@@ -51127,33 +51111,33 @@
         <v>2778</v>
       </c>
       <c r="B927" s="18" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="C927" s="21" t="s">
-        <v>3585</v>
+        <v>3583</v>
       </c>
       <c r="D927" s="18" t="s">
-        <v>3677</v>
+        <v>3675</v>
       </c>
       <c r="E927" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F927" s="18" t="s">
-        <v>3625</v>
+        <v>3623</v>
       </c>
       <c r="G927" s="18" t="s">
-        <v>3703</v>
+        <v>3701</v>
       </c>
       <c r="H927" s="17" t="s">
-        <v>3632</v>
+        <v>3630</v>
       </c>
       <c r="I927" s="17"/>
       <c r="J927" s="17"/>
       <c r="K927" s="18" t="s">
-        <v>3677</v>
+        <v>3675</v>
       </c>
       <c r="L927" s="17" t="s">
-        <v>3672</v>
+        <v>3670</v>
       </c>
       <c r="M927" s="17" t="s">
         <v>22</v>
@@ -51169,31 +51153,31 @@
         <v>2778</v>
       </c>
       <c r="B928" s="18" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="C928" s="21" t="s">
-        <v>3586</v>
+        <v>3584</v>
       </c>
       <c r="D928" s="18" t="s">
-        <v>3678</v>
+        <v>3676</v>
       </c>
       <c r="E928" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F928" s="18" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
       <c r="G928" s="18" t="s">
-        <v>3704</v>
+        <v>3702</v>
       </c>
       <c r="H928" s="17"/>
       <c r="I928" s="17"/>
       <c r="J928" s="17"/>
       <c r="K928" s="18" t="s">
-        <v>3678</v>
+        <v>3676</v>
       </c>
       <c r="L928" s="17" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="M928" s="17" t="s">
         <v>22</v>
@@ -51209,33 +51193,33 @@
         <v>2778</v>
       </c>
       <c r="B929" s="18" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="C929" s="21" t="s">
-        <v>3587</v>
+        <v>3585</v>
       </c>
       <c r="D929" s="18" t="s">
-        <v>3679</v>
+        <v>3677</v>
       </c>
       <c r="E929" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F929" s="18" t="s">
-        <v>3627</v>
+        <v>3625</v>
       </c>
       <c r="G929" s="18" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="H929" s="17" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
       <c r="I929" s="17"/>
       <c r="J929" s="17"/>
       <c r="K929" s="18" t="s">
-        <v>3679</v>
+        <v>3677</v>
       </c>
       <c r="L929" s="17" t="s">
-        <v>3674</v>
+        <v>3672</v>
       </c>
       <c r="M929" s="17" t="s">
         <v>22</v>
@@ -51251,37 +51235,37 @@
         <v>2778</v>
       </c>
       <c r="B930" s="18" t="s">
+        <v>3586</v>
+      </c>
+      <c r="C930" s="21" t="s">
+        <v>3587</v>
+      </c>
+      <c r="D930" s="18" t="s">
         <v>3588</v>
       </c>
-      <c r="C930" s="21" t="s">
-        <v>3589</v>
-      </c>
-      <c r="D930" s="18" t="s">
-        <v>3590</v>
-      </c>
       <c r="E930" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F930" s="18" t="s">
-        <v>3637</v>
+        <v>3635</v>
       </c>
       <c r="G930" s="18" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H930" s="18"/>
       <c r="I930" s="18"/>
       <c r="J930" s="18"/>
       <c r="K930" s="18" t="s">
+        <v>3589</v>
+      </c>
+      <c r="L930" s="18" t="s">
+        <v>3590</v>
+      </c>
+      <c r="M930" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N930" s="18" t="s">
         <v>3591</v>
-      </c>
-      <c r="L930" s="18" t="s">
-        <v>3592</v>
-      </c>
-      <c r="M930" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="N930" s="18" t="s">
-        <v>3593</v>
       </c>
       <c r="O930" s="18"/>
       <c r="P930" s="19"/>
@@ -51291,31 +51275,31 @@
         <v>2778</v>
       </c>
       <c r="B931" s="18" t="s">
-        <v>3604</v>
+        <v>3602</v>
       </c>
       <c r="C931" s="23" t="s">
-        <v>3594</v>
+        <v>3592</v>
       </c>
       <c r="D931" s="17" t="s">
-        <v>3692</v>
+        <v>3690</v>
       </c>
       <c r="E931" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F931" s="18" t="s">
-        <v>3706</v>
+        <v>3704</v>
       </c>
       <c r="G931" s="17" t="s">
-        <v>3710</v>
+        <v>3708</v>
       </c>
       <c r="H931" s="17"/>
       <c r="I931" s="17"/>
       <c r="J931" s="17"/>
       <c r="K931" s="17" t="s">
-        <v>3692</v>
+        <v>3690</v>
       </c>
       <c r="L931" s="17" t="s">
-        <v>3713</v>
+        <v>3711</v>
       </c>
       <c r="M931" s="17" t="s">
         <v>22</v>
@@ -51331,31 +51315,31 @@
         <v>2778</v>
       </c>
       <c r="B932" s="18" t="s">
-        <v>3604</v>
+        <v>3602</v>
       </c>
       <c r="C932" s="23" t="s">
-        <v>3597</v>
+        <v>3595</v>
       </c>
       <c r="D932" s="17" t="s">
-        <v>3718</v>
+        <v>3716</v>
       </c>
       <c r="E932" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F932" s="18" t="s">
-        <v>3707</v>
+        <v>3705</v>
       </c>
       <c r="G932" s="17" t="s">
-        <v>3711</v>
+        <v>3709</v>
       </c>
       <c r="H932" s="17"/>
       <c r="I932" s="17"/>
       <c r="J932" s="17"/>
       <c r="K932" s="17" t="s">
-        <v>3718</v>
+        <v>3716</v>
       </c>
       <c r="L932" s="17" t="s">
-        <v>3712</v>
+        <v>3710</v>
       </c>
       <c r="M932" s="17" t="s">
         <v>22</v>
@@ -51371,31 +51355,31 @@
         <v>2778</v>
       </c>
       <c r="B933" s="18" t="s">
-        <v>3604</v>
+        <v>3602</v>
       </c>
       <c r="C933" s="23" t="s">
-        <v>3595</v>
+        <v>3593</v>
       </c>
       <c r="D933" s="17" t="s">
-        <v>3719</v>
+        <v>3717</v>
       </c>
       <c r="E933" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F933" s="18" t="s">
-        <v>3708</v>
+        <v>3706</v>
       </c>
       <c r="G933" s="17" t="s">
-        <v>3714</v>
+        <v>3712</v>
       </c>
       <c r="H933" s="17"/>
       <c r="I933" s="17"/>
       <c r="J933" s="17"/>
       <c r="K933" s="17" t="s">
-        <v>3719</v>
+        <v>3717</v>
       </c>
       <c r="L933" s="17" t="s">
-        <v>3715</v>
+        <v>3713</v>
       </c>
       <c r="M933" s="17" t="s">
         <v>22</v>
@@ -51411,31 +51395,31 @@
         <v>2778</v>
       </c>
       <c r="B934" s="18" t="s">
-        <v>3604</v>
+        <v>3602</v>
       </c>
       <c r="C934" s="23" t="s">
-        <v>3596</v>
+        <v>3594</v>
       </c>
       <c r="D934" s="17" t="s">
-        <v>3720</v>
+        <v>3718</v>
       </c>
       <c r="E934" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F934" s="18" t="s">
-        <v>3709</v>
+        <v>3707</v>
       </c>
       <c r="G934" s="17" t="s">
-        <v>3716</v>
+        <v>3714</v>
       </c>
       <c r="H934" s="17"/>
       <c r="I934" s="17"/>
       <c r="J934" s="17"/>
       <c r="K934" s="17" t="s">
-        <v>3720</v>
+        <v>3718</v>
       </c>
       <c r="L934" s="17" t="s">
-        <v>3717</v>
+        <v>3715</v>
       </c>
       <c r="M934" s="17" t="s">
         <v>22</v>
@@ -51451,37 +51435,37 @@
         <v>2778</v>
       </c>
       <c r="B935" s="18" t="s">
-        <v>3604</v>
+        <v>3602</v>
       </c>
       <c r="C935" s="21" t="s">
+        <v>3596</v>
+      </c>
+      <c r="D935" s="18" t="s">
         <v>3598</v>
       </c>
-      <c r="D935" s="18" t="s">
-        <v>3600</v>
-      </c>
       <c r="E935" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F935" s="18" t="s">
-        <v>3599</v>
+        <v>3597</v>
       </c>
       <c r="G935" s="18" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="H935" s="18"/>
       <c r="I935" s="18"/>
       <c r="J935" s="18"/>
       <c r="K935" s="18" t="s">
+        <v>3599</v>
+      </c>
+      <c r="L935" s="18" t="s">
+        <v>3600</v>
+      </c>
+      <c r="M935" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N935" s="18" t="s">
         <v>3601</v>
-      </c>
-      <c r="L935" s="18" t="s">
-        <v>3602</v>
-      </c>
-      <c r="M935" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="N935" s="18" t="s">
-        <v>3603</v>
       </c>
       <c r="O935" s="18"/>
       <c r="P935" s="19"/>
@@ -51491,28 +51475,28 @@
         <v>2778</v>
       </c>
       <c r="B936" s="18" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="C936" s="23" t="s">
         <v>2741</v>
       </c>
       <c r="D936" s="17" t="s">
-        <v>3726</v>
+        <v>3724</v>
       </c>
       <c r="E936" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F936" s="18" t="s">
-        <v>3721</v>
+        <v>3719</v>
       </c>
       <c r="G936" s="17" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H936" s="17"/>
       <c r="I936" s="17"/>
       <c r="J936" s="17"/>
       <c r="K936" s="17" t="s">
-        <v>3726</v>
+        <v>3724</v>
       </c>
       <c r="L936" s="17" t="s">
         <v>2986</v>
@@ -51531,28 +51515,28 @@
         <v>2778</v>
       </c>
       <c r="B937" s="18" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="C937" s="21" t="s">
         <v>2987</v>
       </c>
       <c r="D937" s="18" t="s">
-        <v>3738</v>
+        <v>3736</v>
       </c>
       <c r="E937" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F937" s="18" t="s">
-        <v>3722</v>
+        <v>3720</v>
       </c>
       <c r="G937" s="17" t="s">
-        <v>3737</v>
+        <v>3735</v>
       </c>
       <c r="H937" s="17"/>
       <c r="I937" s="17"/>
       <c r="J937" s="17"/>
       <c r="K937" s="18" t="s">
-        <v>3738</v>
+        <v>3736</v>
       </c>
       <c r="L937" s="17" t="s">
         <v>2991</v>
@@ -51571,31 +51555,31 @@
         <v>2778</v>
       </c>
       <c r="B938" s="18" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="C938" s="21" t="s">
-        <v>3605</v>
+        <v>3603</v>
       </c>
       <c r="D938" s="18" t="s">
-        <v>3739</v>
+        <v>3737</v>
       </c>
       <c r="E938" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F938" s="18" t="s">
-        <v>3723</v>
+        <v>3721</v>
       </c>
       <c r="G938" s="17" t="s">
-        <v>3724</v>
+        <v>3722</v>
       </c>
       <c r="H938" s="17"/>
       <c r="I938" s="17"/>
       <c r="J938" s="17"/>
       <c r="K938" s="18" t="s">
-        <v>3739</v>
+        <v>3737</v>
       </c>
       <c r="L938" s="17" t="s">
-        <v>3725</v>
+        <v>3723</v>
       </c>
       <c r="M938" s="17" t="s">
         <v>22</v>
@@ -51611,31 +51595,31 @@
         <v>2778</v>
       </c>
       <c r="B939" s="18" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="C939" s="21" t="s">
-        <v>3607</v>
+        <v>3605</v>
       </c>
       <c r="D939" s="18" t="s">
-        <v>3727</v>
+        <v>3725</v>
       </c>
       <c r="E939" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F939" s="18" t="s">
-        <v>3741</v>
+        <v>3739</v>
       </c>
       <c r="G939" s="17" t="s">
-        <v>3742</v>
+        <v>3740</v>
       </c>
       <c r="H939" s="17"/>
       <c r="I939" s="17"/>
       <c r="J939" s="17"/>
       <c r="K939" s="18" t="s">
-        <v>3727</v>
+        <v>3725</v>
       </c>
       <c r="L939" s="17" t="s">
-        <v>3743</v>
+        <v>3741</v>
       </c>
       <c r="M939" s="17" t="s">
         <v>22</v>
@@ -51651,22 +51635,22 @@
         <v>2778</v>
       </c>
       <c r="B940" s="18" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="C940" s="21" t="s">
         <v>2743</v>
       </c>
       <c r="D940" s="18" t="s">
-        <v>3728</v>
+        <v>3726</v>
       </c>
       <c r="E940" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F940" s="18" t="s">
-        <v>3744</v>
+        <v>3742</v>
       </c>
       <c r="G940" s="17" t="s">
-        <v>3745</v>
+        <v>3743</v>
       </c>
       <c r="H940" s="17" t="s">
         <v>2745</v>
@@ -51674,7 +51658,7 @@
       <c r="I940" s="17"/>
       <c r="J940" s="17"/>
       <c r="K940" s="18" t="s">
-        <v>3728</v>
+        <v>3726</v>
       </c>
       <c r="L940" s="17" t="s">
         <v>3366</v>
@@ -51693,31 +51677,31 @@
         <v>2778</v>
       </c>
       <c r="B941" s="18" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="C941" s="21" t="s">
-        <v>3606</v>
+        <v>3604</v>
       </c>
       <c r="D941" s="18" t="s">
-        <v>3606</v>
+        <v>3604</v>
       </c>
       <c r="E941" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F941" s="18" t="s">
-        <v>3746</v>
+        <v>3744</v>
       </c>
       <c r="G941" s="17" t="s">
-        <v>3747</v>
+        <v>3745</v>
       </c>
       <c r="H941" s="17"/>
       <c r="I941" s="17"/>
       <c r="J941" s="17"/>
       <c r="K941" s="18" t="s">
-        <v>3606</v>
+        <v>3604</v>
       </c>
       <c r="L941" s="17" t="s">
-        <v>3748</v>
+        <v>3746</v>
       </c>
       <c r="M941" s="17" t="s">
         <v>22</v>
@@ -51733,31 +51717,31 @@
         <v>2778</v>
       </c>
       <c r="B942" s="18" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="C942" s="21" t="s">
-        <v>3437</v>
+        <v>3435</v>
       </c>
       <c r="D942" s="18" t="s">
-        <v>3729</v>
+        <v>3727</v>
       </c>
       <c r="E942" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F942" s="18" t="s">
-        <v>3749</v>
+        <v>3747</v>
       </c>
       <c r="G942" s="17" t="s">
-        <v>3750</v>
+        <v>3748</v>
       </c>
       <c r="H942" s="17"/>
       <c r="I942" s="17"/>
       <c r="J942" s="17"/>
       <c r="K942" s="18" t="s">
-        <v>3729</v>
+        <v>3727</v>
       </c>
       <c r="L942" s="17" t="s">
-        <v>3472</v>
+        <v>3470</v>
       </c>
       <c r="M942" s="17" t="s">
         <v>22</v>
@@ -51773,33 +51757,33 @@
         <v>2778</v>
       </c>
       <c r="B943" s="18" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="C943" s="21" t="s">
-        <v>3609</v>
+        <v>3607</v>
       </c>
       <c r="D943" s="18" t="s">
-        <v>3730</v>
+        <v>3728</v>
       </c>
       <c r="E943" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F943" s="18" t="s">
-        <v>3751</v>
+        <v>3749</v>
       </c>
       <c r="G943" s="17" t="s">
-        <v>3752</v>
+        <v>3750</v>
       </c>
       <c r="H943" s="17" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
       <c r="I943" s="17"/>
       <c r="J943" s="17"/>
       <c r="K943" s="18" t="s">
-        <v>3730</v>
+        <v>3728</v>
       </c>
       <c r="L943" s="17" t="s">
-        <v>3701</v>
+        <v>3699</v>
       </c>
       <c r="M943" s="17" t="s">
         <v>22</v>
@@ -51815,31 +51799,31 @@
         <v>2778</v>
       </c>
       <c r="B944" s="18" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="C944" s="21" t="s">
-        <v>3610</v>
+        <v>3608</v>
       </c>
       <c r="D944" s="18" t="s">
-        <v>3731</v>
+        <v>3729</v>
       </c>
       <c r="E944" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F944" s="18" t="s">
-        <v>3753</v>
+        <v>3751</v>
       </c>
       <c r="G944" s="17" t="s">
-        <v>3754</v>
+        <v>3752</v>
       </c>
       <c r="H944" s="17"/>
       <c r="I944" s="17"/>
       <c r="J944" s="17"/>
       <c r="K944" s="18" t="s">
-        <v>3731</v>
+        <v>3729</v>
       </c>
       <c r="L944" s="17" t="s">
-        <v>3702</v>
+        <v>3700</v>
       </c>
       <c r="M944" s="17" t="s">
         <v>22</v>
@@ -51855,31 +51839,31 @@
         <v>2778</v>
       </c>
       <c r="B945" s="18" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="C945" s="21" t="s">
-        <v>3594</v>
+        <v>3592</v>
       </c>
       <c r="D945" s="18" t="s">
-        <v>3608</v>
+        <v>3606</v>
       </c>
       <c r="E945" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F945" s="18" t="s">
-        <v>3755</v>
+        <v>3753</v>
       </c>
       <c r="G945" s="17" t="s">
-        <v>3756</v>
+        <v>3754</v>
       </c>
       <c r="H945" s="17"/>
       <c r="I945" s="17"/>
       <c r="J945" s="17"/>
       <c r="K945" s="18" t="s">
-        <v>3608</v>
+        <v>3606</v>
       </c>
       <c r="L945" s="17" t="s">
-        <v>3757</v>
+        <v>3755</v>
       </c>
       <c r="M945" s="17" t="s">
         <v>22</v>
@@ -51895,28 +51879,28 @@
         <v>2778</v>
       </c>
       <c r="B946" s="18" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="C946" s="23" t="s">
         <v>389</v>
       </c>
       <c r="D946" s="18" t="s">
-        <v>3732</v>
+        <v>3730</v>
       </c>
       <c r="E946" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F946" s="18" t="s">
-        <v>3758</v>
+        <v>3756</v>
       </c>
       <c r="G946" s="17" t="s">
-        <v>3759</v>
+        <v>3757</v>
       </c>
       <c r="H946" s="17"/>
       <c r="I946" s="17"/>
       <c r="J946" s="17"/>
       <c r="K946" s="18" t="s">
-        <v>3732</v>
+        <v>3730</v>
       </c>
       <c r="L946" s="17" t="s">
         <v>394</v>
@@ -51935,28 +51919,28 @@
         <v>2778</v>
       </c>
       <c r="B947" s="18" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="C947" s="23" t="s">
         <v>420</v>
       </c>
       <c r="D947" s="18" t="s">
-        <v>3733</v>
+        <v>3731</v>
       </c>
       <c r="E947" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F947" s="18" t="s">
-        <v>3760</v>
+        <v>3758</v>
       </c>
       <c r="G947" s="17" t="s">
-        <v>3761</v>
+        <v>3759</v>
       </c>
       <c r="H947" s="17"/>
       <c r="I947" s="17"/>
       <c r="J947" s="17"/>
       <c r="K947" s="18" t="s">
-        <v>3733</v>
+        <v>3731</v>
       </c>
       <c r="L947" s="17" t="s">
         <v>425</v>
@@ -51975,28 +51959,28 @@
         <v>2778</v>
       </c>
       <c r="B948" s="18" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="C948" s="23" t="s">
         <v>408</v>
       </c>
       <c r="D948" s="18" t="s">
-        <v>3740</v>
+        <v>3738</v>
       </c>
       <c r="E948" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F948" s="18" t="s">
-        <v>3762</v>
+        <v>3760</v>
       </c>
       <c r="G948" s="17" t="s">
-        <v>3763</v>
+        <v>3761</v>
       </c>
       <c r="H948" s="17"/>
       <c r="I948" s="17"/>
       <c r="J948" s="17"/>
       <c r="K948" s="18" t="s">
-        <v>3740</v>
+        <v>3738</v>
       </c>
       <c r="L948" s="17" t="s">
         <v>408</v>
@@ -52015,31 +51999,31 @@
         <v>2778</v>
       </c>
       <c r="B949" s="18" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="C949" s="21" t="s">
-        <v>3585</v>
+        <v>3583</v>
       </c>
       <c r="D949" s="18" t="s">
-        <v>3734</v>
+        <v>3732</v>
       </c>
       <c r="E949" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F949" s="18" t="s">
-        <v>3764</v>
+        <v>3762</v>
       </c>
       <c r="G949" s="17" t="s">
-        <v>3765</v>
+        <v>3763</v>
       </c>
       <c r="H949" s="17"/>
       <c r="I949" s="17"/>
       <c r="J949" s="17"/>
       <c r="K949" s="18" t="s">
-        <v>3734</v>
+        <v>3732</v>
       </c>
       <c r="L949" s="17" t="s">
-        <v>3672</v>
+        <v>3670</v>
       </c>
       <c r="M949" s="17" t="s">
         <v>22</v>
@@ -52055,28 +52039,28 @@
         <v>2778</v>
       </c>
       <c r="B950" s="18" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="C950" s="21" t="s">
         <v>1052</v>
       </c>
       <c r="D950" s="18" t="s">
-        <v>3735</v>
+        <v>3733</v>
       </c>
       <c r="E950" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F950" s="18" t="s">
-        <v>3766</v>
+        <v>3764</v>
       </c>
       <c r="G950" s="17" t="s">
-        <v>3767</v>
+        <v>3765</v>
       </c>
       <c r="H950" s="17"/>
       <c r="I950" s="17"/>
       <c r="J950" s="17"/>
       <c r="K950" s="18" t="s">
-        <v>3735</v>
+        <v>3733</v>
       </c>
       <c r="L950" s="17" t="s">
         <v>1056</v>
@@ -52092,10 +52076,10 @@
     </row>
     <row r="951" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A951" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B951" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="C951" s="7" t="s">
         <v>2805</v>
@@ -52114,7 +52098,7 @@
       </c>
       <c r="H951" s="7"/>
       <c r="I951" s="7" t="s">
-        <v>3635</v>
+        <v>3633</v>
       </c>
       <c r="J951" s="7"/>
       <c r="K951" s="7" t="s">
@@ -52136,10 +52120,10 @@
     </row>
     <row r="952" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A952" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B952" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="C952" s="7" t="s">
         <v>2775</v>
@@ -52178,10 +52162,10 @@
     </row>
     <row r="953" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A953" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B953" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="C953" s="7" t="s">
         <v>2779</v>
@@ -52222,10 +52206,10 @@
     </row>
     <row r="954" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A954" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B954" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="C954" s="7" t="s">
         <v>2782</v>
@@ -52266,10 +52250,10 @@
     </row>
     <row r="955" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A955" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B955" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="C955" s="7" t="s">
         <v>2785</v>
@@ -52310,10 +52294,10 @@
     </row>
     <row r="956" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A956" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B956" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="C956" s="7" t="s">
         <v>2788</v>
@@ -52332,7 +52316,7 @@
       </c>
       <c r="H956" s="7"/>
       <c r="I956" s="7" t="s">
-        <v>3636</v>
+        <v>3634</v>
       </c>
       <c r="J956" s="7"/>
       <c r="K956" s="7" t="s">
@@ -52354,10 +52338,10 @@
     </row>
     <row r="957" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A957" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B957" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="C957" s="7" t="s">
         <v>9</v>
@@ -52398,10 +52382,10 @@
     </row>
     <row r="958" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A958" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B958" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="C958" s="7" t="s">
         <v>2793</v>
@@ -52421,9 +52405,7 @@
       <c r="H958" s="7" t="s">
         <v>2796</v>
       </c>
-      <c r="I958" s="7" t="s">
-        <v>3431</v>
-      </c>
+      <c r="I958" s="7"/>
       <c r="J958" s="7"/>
       <c r="K958" s="7" t="s">
         <v>2793</v>
@@ -52444,10 +52426,10 @@
     </row>
     <row r="959" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A959" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B959" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="C959" s="7" t="s">
         <v>2811</v>
@@ -52486,10 +52468,10 @@
     </row>
     <row r="960" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A960" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B960" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="C960" s="7" t="s">
         <v>2814</v>
@@ -52530,10 +52512,10 @@
     </row>
     <row r="961" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A961" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B961" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="C961" s="7" t="s">
         <v>2829</v>
@@ -52551,7 +52533,7 @@
         <v>2831</v>
       </c>
       <c r="H961" s="7" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
       <c r="I961" s="7"/>
       <c r="J961" s="7"/>
@@ -52574,10 +52556,10 @@
     </row>
     <row r="962" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A962" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B962" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="C962" s="7" t="s">
         <v>2832</v>
@@ -52616,10 +52598,10 @@
     </row>
     <row r="963" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A963" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B963" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="C963" s="7" t="s">
         <v>2716</v>
@@ -52658,10 +52640,10 @@
     </row>
     <row r="964" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A964" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B964" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="C964" s="7" t="s">
         <v>2688</v>
@@ -52702,10 +52684,10 @@
     </row>
     <row r="965" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A965" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B965" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="C965" s="7" t="s">
         <v>2692</v>
@@ -52744,10 +52726,10 @@
     </row>
     <row r="966" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A966" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B966" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="C966" s="7" t="s">
         <v>82</v>
@@ -52784,31 +52766,31 @@
     </row>
     <row r="967" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A967" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B967" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="C967" s="7" t="s">
-        <v>3615</v>
+        <v>3613</v>
       </c>
       <c r="D967" s="7" t="s">
-        <v>3614</v>
+        <v>3612</v>
       </c>
       <c r="E967" s="22" t="s">
         <v>3010</v>
       </c>
       <c r="F967" s="7" t="s">
-        <v>3612</v>
+        <v>3610</v>
       </c>
       <c r="G967" s="7" t="s">
-        <v>3613</v>
+        <v>3611</v>
       </c>
       <c r="H967" s="7"/>
       <c r="I967" s="7"/>
       <c r="J967" s="7"/>
       <c r="K967" s="7" t="s">
-        <v>3616</v>
+        <v>3614</v>
       </c>
       <c r="L967" s="7"/>
       <c r="M967" s="7" t="s">
@@ -52822,10 +52804,10 @@
     </row>
     <row r="968" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A968" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B968" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="C968" s="7" t="s">
         <v>2739</v>
@@ -52866,10 +52848,10 @@
     </row>
     <row r="969" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A969" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B969" s="7" t="s">
-        <v>4051</v>
+        <v>4049</v>
       </c>
       <c r="C969" s="7" t="s">
         <v>2817</v>
@@ -52881,14 +52863,14 @@
         <v>15</v>
       </c>
       <c r="F969" s="7" t="s">
-        <v>3642</v>
+        <v>3640</v>
       </c>
       <c r="G969" s="7" t="s">
         <v>2818</v>
       </c>
       <c r="H969" s="7"/>
       <c r="I969" s="7" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="J969" s="7"/>
       <c r="K969" s="7" t="s">
@@ -52910,10 +52892,10 @@
     </row>
     <row r="970" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A970" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B970" s="7" t="s">
-        <v>4051</v>
+        <v>4049</v>
       </c>
       <c r="C970" s="7" t="s">
         <v>2819</v>
@@ -52925,7 +52907,7 @@
         <v>15</v>
       </c>
       <c r="F970" s="7" t="s">
-        <v>3643</v>
+        <v>3641</v>
       </c>
       <c r="G970" s="7" t="s">
         <v>2820</v>
@@ -52952,10 +52934,10 @@
     </row>
     <row r="971" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A971" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B971" s="7" t="s">
-        <v>4051</v>
+        <v>4049</v>
       </c>
       <c r="C971" s="7" t="s">
         <v>2821</v>
@@ -52967,7 +52949,7 @@
         <v>15</v>
       </c>
       <c r="F971" s="7" t="s">
-        <v>3644</v>
+        <v>3642</v>
       </c>
       <c r="G971" s="7" t="s">
         <v>2822</v>
@@ -52994,10 +52976,10 @@
     </row>
     <row r="972" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A972" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B972" s="7" t="s">
-        <v>4051</v>
+        <v>4049</v>
       </c>
       <c r="C972" s="7" t="s">
         <v>2824</v>
@@ -53009,14 +52991,14 @@
         <v>15</v>
       </c>
       <c r="F972" s="7" t="s">
-        <v>4049</v>
+        <v>4047</v>
       </c>
       <c r="G972" s="7" t="s">
-        <v>4050</v>
+        <v>4048</v>
       </c>
       <c r="H972" s="7"/>
       <c r="I972" s="7" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="J972" s="7"/>
       <c r="K972" s="7" t="s">
@@ -53038,10 +53020,10 @@
     </row>
     <row r="973" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A973" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B973" s="7" t="s">
-        <v>4051</v>
+        <v>4049</v>
       </c>
       <c r="C973" s="7" t="s">
         <v>2825</v>
@@ -53053,10 +53035,10 @@
         <v>15</v>
       </c>
       <c r="F973" s="7" t="s">
-        <v>4054</v>
+        <v>4052</v>
       </c>
       <c r="G973" s="7" t="s">
-        <v>4052</v>
+        <v>4050</v>
       </c>
       <c r="H973" s="7"/>
       <c r="I973" s="7"/>
@@ -53080,10 +53062,10 @@
     </row>
     <row r="974" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A974" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B974" s="7" t="s">
-        <v>4051</v>
+        <v>4049</v>
       </c>
       <c r="C974" s="7" t="s">
         <v>2827</v>
@@ -53095,7 +53077,7 @@
         <v>15</v>
       </c>
       <c r="F974" s="7" t="s">
-        <v>3645</v>
+        <v>3643</v>
       </c>
       <c r="G974" s="7" t="s">
         <v>2828</v>
@@ -53122,10 +53104,10 @@
     </row>
     <row r="975" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A975" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B975" s="7" t="s">
-        <v>4053</v>
+        <v>4051</v>
       </c>
       <c r="C975" s="7" t="s">
         <v>2741</v>
@@ -53137,7 +53119,7 @@
         <v>15</v>
       </c>
       <c r="F975" s="7" t="s">
-        <v>3638</v>
+        <v>3636</v>
       </c>
       <c r="G975" s="7" t="s">
         <v>2797</v>
@@ -53164,10 +53146,10 @@
     </row>
     <row r="976" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A976" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B976" s="7" t="s">
-        <v>4053</v>
+        <v>4051</v>
       </c>
       <c r="C976" s="7" t="s">
         <v>2756</v>
@@ -53208,10 +53190,10 @@
     </row>
     <row r="977" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A977" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B977" s="7" t="s">
-        <v>4053</v>
+        <v>4051</v>
       </c>
       <c r="C977" s="7" t="s">
         <v>2800</v>
@@ -53223,7 +53205,7 @@
         <v>15</v>
       </c>
       <c r="F977" s="7" t="s">
-        <v>3639</v>
+        <v>3637</v>
       </c>
       <c r="G977" s="7" t="s">
         <v>2801</v>
@@ -53250,10 +53232,10 @@
     </row>
     <row r="978" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A978" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B978" s="7" t="s">
-        <v>4053</v>
+        <v>4051</v>
       </c>
       <c r="C978" s="7" t="s">
         <v>2743</v>
@@ -53265,7 +53247,7 @@
         <v>15</v>
       </c>
       <c r="F978" s="7" t="s">
-        <v>3640</v>
+        <v>3638</v>
       </c>
       <c r="G978" s="7" t="s">
         <v>2802</v>
@@ -53273,9 +53255,7 @@
       <c r="H978" s="7" t="s">
         <v>2745</v>
       </c>
-      <c r="I978" s="7" t="s">
-        <v>3427</v>
-      </c>
+      <c r="I978" s="7"/>
       <c r="J978" s="7"/>
       <c r="K978" s="7" t="s">
         <v>2743</v>
@@ -53296,10 +53276,10 @@
     </row>
     <row r="979" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A979" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B979" s="7" t="s">
-        <v>4053</v>
+        <v>4051</v>
       </c>
       <c r="C979" s="7" t="s">
         <v>2803</v>
@@ -53311,14 +53291,14 @@
         <v>15</v>
       </c>
       <c r="F979" s="7" t="s">
-        <v>3641</v>
+        <v>3639</v>
       </c>
       <c r="G979" s="7" t="s">
         <v>2804</v>
       </c>
       <c r="H979" s="7"/>
       <c r="I979" s="7" t="s">
-        <v>3432</v>
+        <v>3430</v>
       </c>
       <c r="J979" s="7"/>
       <c r="K979" s="7" t="s">
@@ -53340,10 +53320,10 @@
     </row>
     <row r="980" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A980" s="7" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="B980" s="7" t="s">
-        <v>4053</v>
+        <v>4051</v>
       </c>
       <c r="C980" s="7" t="s">
         <v>2808</v>
@@ -53362,7 +53342,7 @@
       </c>
       <c r="H980" s="7"/>
       <c r="I980" s="7" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="J980" s="7"/>
       <c r="K980" s="7" t="s">
@@ -53393,7 +53373,7 @@
         <v>2839</v>
       </c>
       <c r="D981" s="5" t="s">
-        <v>3769</v>
+        <v>3767</v>
       </c>
       <c r="E981" s="5" t="s">
         <v>15</v>
@@ -53419,7 +53399,9 @@
       <c r="N981" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O981" s="5"/>
+      <c r="O981" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="P981" s="5"/>
     </row>
     <row r="982" spans="1:16" x14ac:dyDescent="0.25">
@@ -53433,7 +53415,7 @@
         <v>2845</v>
       </c>
       <c r="D982" s="5" t="s">
-        <v>3770</v>
+        <v>3768</v>
       </c>
       <c r="E982" s="5" t="s">
         <v>15</v>
@@ -53475,7 +53457,7 @@
         <v>2696</v>
       </c>
       <c r="D983" s="5" t="s">
-        <v>3771</v>
+        <v>3769</v>
       </c>
       <c r="E983" s="5" t="s">
         <v>15</v>
@@ -53501,7 +53483,9 @@
       <c r="N983" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O983" s="5"/>
+      <c r="O983" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="P983" s="5" t="b">
         <v>1</v>
       </c>
@@ -53517,7 +53501,7 @@
         <v>110</v>
       </c>
       <c r="D984" s="5" t="s">
-        <v>3772</v>
+        <v>3770</v>
       </c>
       <c r="E984" s="5" t="s">
         <v>15</v>
@@ -53556,7 +53540,7 @@
         <v>2855</v>
       </c>
       <c r="D985" s="5" t="s">
-        <v>3773</v>
+        <v>3771</v>
       </c>
       <c r="E985" s="5" t="s">
         <v>15</v>
@@ -53595,7 +53579,7 @@
         <v>2860</v>
       </c>
       <c r="D986" s="5" t="s">
-        <v>3774</v>
+        <v>3772</v>
       </c>
       <c r="E986" s="5" t="s">
         <v>15</v>
@@ -53634,7 +53618,7 @@
         <v>2865</v>
       </c>
       <c r="D987" s="5" t="s">
-        <v>3775</v>
+        <v>3773</v>
       </c>
       <c r="E987" s="5" t="s">
         <v>15</v>
@@ -53673,7 +53657,7 @@
         <v>2870</v>
       </c>
       <c r="D988" s="5" t="s">
-        <v>3776</v>
+        <v>3774</v>
       </c>
       <c r="E988" s="5" t="s">
         <v>15</v>
@@ -53712,7 +53696,7 @@
         <v>2875</v>
       </c>
       <c r="D989" s="5" t="s">
-        <v>3777</v>
+        <v>3775</v>
       </c>
       <c r="E989" s="5" t="s">
         <v>15</v>
@@ -53751,7 +53735,7 @@
         <v>2880</v>
       </c>
       <c r="D990" s="5" t="s">
-        <v>3778</v>
+        <v>3776</v>
       </c>
       <c r="E990" s="5" t="s">
         <v>15</v>
@@ -53790,7 +53774,7 @@
         <v>2885</v>
       </c>
       <c r="D991" s="5" t="s">
-        <v>3779</v>
+        <v>3777</v>
       </c>
       <c r="E991" s="5" t="s">
         <v>15</v>
@@ -53829,7 +53813,7 @@
         <v>2890</v>
       </c>
       <c r="D992" s="5" t="s">
-        <v>3780</v>
+        <v>3778</v>
       </c>
       <c r="E992" s="5" t="s">
         <v>15</v>
@@ -53868,7 +53852,7 @@
         <v>2895</v>
       </c>
       <c r="D993" s="5" t="s">
-        <v>3781</v>
+        <v>3779</v>
       </c>
       <c r="E993" s="5" t="s">
         <v>15</v>
@@ -53907,7 +53891,7 @@
         <v>2900</v>
       </c>
       <c r="D994" s="5" t="s">
-        <v>3782</v>
+        <v>3780</v>
       </c>
       <c r="E994" s="5" t="s">
         <v>15</v>
@@ -53946,7 +53930,7 @@
         <v>2905</v>
       </c>
       <c r="D995" s="5" t="s">
-        <v>3783</v>
+        <v>3781</v>
       </c>
       <c r="E995" s="5" t="s">
         <v>15</v>
@@ -53985,7 +53969,7 @@
         <v>2910</v>
       </c>
       <c r="D996" s="5" t="s">
-        <v>3784</v>
+        <v>3782</v>
       </c>
       <c r="E996" s="5" t="s">
         <v>15</v>
@@ -54024,7 +54008,7 @@
         <v>2915</v>
       </c>
       <c r="D997" s="5" t="s">
-        <v>3785</v>
+        <v>3783</v>
       </c>
       <c r="E997" s="5" t="s">
         <v>15</v>
@@ -54063,7 +54047,7 @@
         <v>2920</v>
       </c>
       <c r="D998" s="5" t="s">
-        <v>3786</v>
+        <v>3784</v>
       </c>
       <c r="E998" s="5" t="s">
         <v>15</v>
@@ -54102,7 +54086,7 @@
         <v>2925</v>
       </c>
       <c r="D999" s="5" t="s">
-        <v>3787</v>
+        <v>3785</v>
       </c>
       <c r="E999" s="5" t="s">
         <v>15</v>
@@ -54141,7 +54125,7 @@
         <v>2930</v>
       </c>
       <c r="D1000" s="5" t="s">
-        <v>3788</v>
+        <v>3786</v>
       </c>
       <c r="E1000" s="5" t="s">
         <v>15</v>
@@ -54180,7 +54164,7 @@
         <v>9</v>
       </c>
       <c r="D1001" s="5" t="s">
-        <v>3789</v>
+        <v>3787</v>
       </c>
       <c r="E1001" s="5" t="s">
         <v>15</v>
@@ -54219,7 +54203,7 @@
         <v>2936</v>
       </c>
       <c r="D1002" s="5" t="s">
-        <v>3790</v>
+        <v>3788</v>
       </c>
       <c r="E1002" s="5" t="s">
         <v>15</v>
@@ -54234,7 +54218,7 @@
       <c r="I1002" s="5"/>
       <c r="J1002" s="5"/>
       <c r="K1002" s="5" t="s">
-        <v>3791</v>
+        <v>3789</v>
       </c>
       <c r="L1002" s="5" t="s">
         <v>2939</v>
@@ -54258,7 +54242,7 @@
         <v>2940</v>
       </c>
       <c r="D1003" s="5" t="s">
-        <v>3792</v>
+        <v>3790</v>
       </c>
       <c r="E1003" s="5" t="s">
         <v>15</v>
@@ -54273,7 +54257,7 @@
       <c r="I1003" s="5"/>
       <c r="J1003" s="5"/>
       <c r="K1003" s="5" t="s">
-        <v>3793</v>
+        <v>3791</v>
       </c>
       <c r="L1003" s="5" t="s">
         <v>2943</v>
@@ -54297,7 +54281,7 @@
         <v>2944</v>
       </c>
       <c r="D1004" s="5" t="s">
-        <v>3794</v>
+        <v>3792</v>
       </c>
       <c r="E1004" s="5" t="s">
         <v>15</v>
@@ -54312,7 +54296,7 @@
       <c r="I1004" s="5"/>
       <c r="J1004" s="5"/>
       <c r="K1004" s="5" t="s">
-        <v>3795</v>
+        <v>3793</v>
       </c>
       <c r="L1004" s="5" t="s">
         <v>2947</v>
@@ -54336,7 +54320,7 @@
         <v>2948</v>
       </c>
       <c r="D1005" s="5" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="E1005" s="5" t="s">
         <v>15</v>
@@ -54375,7 +54359,7 @@
         <v>2953</v>
       </c>
       <c r="D1006" s="5" t="s">
-        <v>3797</v>
+        <v>3795</v>
       </c>
       <c r="E1006" s="5" t="s">
         <v>15</v>
@@ -54414,7 +54398,7 @@
         <v>2958</v>
       </c>
       <c r="D1007" s="5" t="s">
-        <v>3798</v>
+        <v>3796</v>
       </c>
       <c r="E1007" s="5" t="s">
         <v>15</v>
@@ -54453,7 +54437,7 @@
         <v>2963</v>
       </c>
       <c r="D1008" s="5" t="s">
-        <v>3799</v>
+        <v>3797</v>
       </c>
       <c r="E1008" s="5" t="s">
         <v>15</v>
@@ -54492,7 +54476,7 @@
         <v>2969</v>
       </c>
       <c r="D1009" s="5" t="s">
-        <v>3800</v>
+        <v>3798</v>
       </c>
       <c r="E1009" s="5" t="s">
         <v>15</v>
@@ -54531,7 +54515,7 @@
         <v>2974</v>
       </c>
       <c r="D1010" s="5" t="s">
-        <v>3801</v>
+        <v>3799</v>
       </c>
       <c r="E1010" s="5" t="s">
         <v>15</v>
@@ -54564,13 +54548,13 @@
         <v>2844</v>
       </c>
       <c r="B1011" s="5" t="s">
-        <v>3860</v>
+        <v>3858</v>
       </c>
       <c r="C1011" s="5" t="s">
         <v>890</v>
       </c>
       <c r="D1011" s="5" t="s">
-        <v>3802</v>
+        <v>3800</v>
       </c>
       <c r="E1011" s="5" t="s">
         <v>15</v>
@@ -54603,13 +54587,13 @@
         <v>2844</v>
       </c>
       <c r="B1012" s="5" t="s">
-        <v>3860</v>
+        <v>3858</v>
       </c>
       <c r="C1012" s="5" t="s">
         <v>2741</v>
       </c>
       <c r="D1012" s="5" t="s">
-        <v>3803</v>
+        <v>3801</v>
       </c>
       <c r="E1012" s="5" t="s">
         <v>15</v>
@@ -54645,13 +54629,13 @@
         <v>2844</v>
       </c>
       <c r="B1013" s="5" t="s">
-        <v>3860</v>
+        <v>3858</v>
       </c>
       <c r="C1013" s="5" t="s">
         <v>2987</v>
       </c>
       <c r="D1013" s="5" t="s">
-        <v>3804</v>
+        <v>3802</v>
       </c>
       <c r="E1013" s="5" t="s">
         <v>15</v>
@@ -54687,13 +54671,13 @@
         <v>2844</v>
       </c>
       <c r="B1014" s="5" t="s">
-        <v>3860</v>
+        <v>3858</v>
       </c>
       <c r="C1014" s="5" t="s">
         <v>2992</v>
       </c>
       <c r="D1014" s="5" t="s">
-        <v>3805</v>
+        <v>3803</v>
       </c>
       <c r="E1014" s="5" t="s">
         <v>15</v>
@@ -54726,13 +54710,13 @@
         <v>2844</v>
       </c>
       <c r="B1015" s="5" t="s">
-        <v>3860</v>
+        <v>3858</v>
       </c>
       <c r="C1015" s="5" t="s">
         <v>2997</v>
       </c>
       <c r="D1015" s="5" t="s">
-        <v>3806</v>
+        <v>3804</v>
       </c>
       <c r="E1015" s="5" t="s">
         <v>15</v>
@@ -54771,7 +54755,7 @@
         <v>3002</v>
       </c>
       <c r="D1016" s="5" t="s">
-        <v>3807</v>
+        <v>3805</v>
       </c>
       <c r="E1016" s="5" t="s">
         <v>15</v>
@@ -54810,7 +54794,7 @@
         <v>3006</v>
       </c>
       <c r="D1017" s="5" t="s">
-        <v>3808</v>
+        <v>3806</v>
       </c>
       <c r="E1017" s="5" t="s">
         <v>15</v>
@@ -54847,13 +54831,13 @@
         <v>82</v>
       </c>
       <c r="D1018" s="5" t="s">
-        <v>3809</v>
+        <v>3807</v>
       </c>
       <c r="E1018" s="5" t="s">
         <v>3010</v>
       </c>
       <c r="F1018" s="5" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="G1018" s="5" t="s">
         <v>3011</v>
@@ -54882,13 +54866,13 @@
         <v>3013</v>
       </c>
       <c r="D1019" s="5" t="s">
-        <v>3810</v>
+        <v>3808</v>
       </c>
       <c r="E1019" s="5" t="s">
         <v>3010</v>
       </c>
       <c r="F1019" s="5" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="G1019" s="5" t="s">
         <v>3014</v>
@@ -54917,16 +54901,16 @@
         <v>3016</v>
       </c>
       <c r="D1020" s="5" t="s">
-        <v>3811</v>
+        <v>3809</v>
       </c>
       <c r="E1020" s="5" t="s">
         <v>3010</v>
       </c>
       <c r="F1020" s="5" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="G1020" s="5" t="s">
-        <v>4030</v>
+        <v>4028</v>
       </c>
       <c r="H1020" s="5"/>
       <c r="I1020" s="5"/>
@@ -54952,16 +54936,16 @@
         <v>3018</v>
       </c>
       <c r="D1021" s="5" t="s">
-        <v>3812</v>
+        <v>3810</v>
       </c>
       <c r="E1021" s="5" t="s">
         <v>3010</v>
       </c>
       <c r="F1021" s="5" t="s">
+        <v>4027</v>
+      </c>
+      <c r="G1021" s="5" t="s">
         <v>4029</v>
-      </c>
-      <c r="G1021" s="5" t="s">
-        <v>4031</v>
       </c>
       <c r="H1021" s="5"/>
       <c r="I1021" s="5"/>
@@ -54987,16 +54971,16 @@
         <v>3020</v>
       </c>
       <c r="D1022" s="5" t="s">
-        <v>3813</v>
+        <v>3811</v>
       </c>
       <c r="E1022" s="5" t="s">
         <v>3010</v>
       </c>
       <c r="F1022" s="5" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="G1022" s="5" t="s">
-        <v>4032</v>
+        <v>4030</v>
       </c>
       <c r="H1022" s="5"/>
       <c r="I1022" s="5"/>
@@ -55022,16 +55006,16 @@
         <v>3022</v>
       </c>
       <c r="D1023" s="5" t="s">
-        <v>3814</v>
+        <v>3812</v>
       </c>
       <c r="E1023" s="5" t="s">
         <v>3010</v>
       </c>
       <c r="F1023" s="5" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="G1023" s="5" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="H1023" s="5"/>
       <c r="I1023" s="5"/>
@@ -55057,16 +55041,16 @@
         <v>3024</v>
       </c>
       <c r="D1024" s="5" t="s">
-        <v>3815</v>
+        <v>3813</v>
       </c>
       <c r="E1024" s="5" t="s">
         <v>3010</v>
       </c>
       <c r="F1024" s="5" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="G1024" s="5" t="s">
-        <v>4034</v>
+        <v>4032</v>
       </c>
       <c r="H1024" s="5"/>
       <c r="I1024" s="5"/>
@@ -55092,16 +55076,16 @@
         <v>2870</v>
       </c>
       <c r="D1025" s="5" t="s">
-        <v>3816</v>
+        <v>3814</v>
       </c>
       <c r="E1025" s="5" t="s">
         <v>3010</v>
       </c>
       <c r="F1025" s="5" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="G1025" s="5" t="s">
-        <v>4035</v>
+        <v>4033</v>
       </c>
       <c r="H1025" s="5"/>
       <c r="I1025" s="5" t="s">
@@ -55129,16 +55113,16 @@
         <v>3027</v>
       </c>
       <c r="D1026" s="5" t="s">
-        <v>3817</v>
+        <v>3815</v>
       </c>
       <c r="E1026" s="5" t="s">
         <v>3010</v>
       </c>
       <c r="F1026" s="5" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="G1026" s="5" t="s">
-        <v>4036</v>
+        <v>4034</v>
       </c>
       <c r="H1026" s="5"/>
       <c r="I1026" s="5"/>
@@ -55164,16 +55148,16 @@
         <v>3029</v>
       </c>
       <c r="D1027" s="5" t="s">
-        <v>3818</v>
+        <v>3816</v>
       </c>
       <c r="E1027" s="5" t="s">
         <v>3010</v>
       </c>
       <c r="F1027" s="5" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="G1027" s="5" t="s">
-        <v>4037</v>
+        <v>4035</v>
       </c>
       <c r="H1027" s="5"/>
       <c r="I1027" s="5" t="s">
@@ -55201,16 +55185,16 @@
         <v>2910</v>
       </c>
       <c r="D1028" s="5" t="s">
-        <v>3819</v>
+        <v>3817</v>
       </c>
       <c r="E1028" s="5" t="s">
         <v>3010</v>
       </c>
       <c r="F1028" s="5" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="G1028" s="5" t="s">
-        <v>4038</v>
+        <v>4036</v>
       </c>
       <c r="H1028" s="5"/>
       <c r="I1028" s="5"/>
@@ -55236,16 +55220,16 @@
         <v>2963</v>
       </c>
       <c r="D1029" s="5" t="s">
-        <v>3820</v>
+        <v>3818</v>
       </c>
       <c r="E1029" s="5" t="s">
         <v>3010</v>
       </c>
       <c r="F1029" s="5" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="G1029" s="5" t="s">
-        <v>4039</v>
+        <v>4037</v>
       </c>
       <c r="H1029" s="5"/>
       <c r="I1029" s="5"/>
@@ -55271,13 +55255,13 @@
         <v>2895</v>
       </c>
       <c r="D1030" s="5" t="s">
-        <v>3821</v>
+        <v>3819</v>
       </c>
       <c r="E1030" s="5" t="s">
         <v>3010</v>
       </c>
       <c r="F1030" s="5" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="G1030" s="5" t="s">
         <v>3033</v>
@@ -55308,7 +55292,7 @@
         <v>2839</v>
       </c>
       <c r="D1031" s="5" t="s">
-        <v>3822</v>
+        <v>3820</v>
       </c>
       <c r="E1031" s="5" t="s">
         <v>15</v>
@@ -55350,7 +55334,7 @@
         <v>2845</v>
       </c>
       <c r="D1032" s="5" t="s">
-        <v>3823</v>
+        <v>3821</v>
       </c>
       <c r="E1032" s="5" t="s">
         <v>15</v>
@@ -55389,7 +55373,7 @@
         <v>2696</v>
       </c>
       <c r="D1033" s="5" t="s">
-        <v>3824</v>
+        <v>3822</v>
       </c>
       <c r="E1033" s="5" t="s">
         <v>15</v>
@@ -55431,7 +55415,7 @@
         <v>110</v>
       </c>
       <c r="D1034" s="5" t="s">
-        <v>3825</v>
+        <v>3823</v>
       </c>
       <c r="E1034" s="5" t="s">
         <v>15</v>
@@ -55470,7 +55454,7 @@
         <v>2699</v>
       </c>
       <c r="D1035" s="5" t="s">
-        <v>3826</v>
+        <v>3824</v>
       </c>
       <c r="E1035" s="5" t="s">
         <v>15</v>
@@ -55509,7 +55493,7 @@
         <v>3039</v>
       </c>
       <c r="D1036" s="5" t="s">
-        <v>3827</v>
+        <v>3825</v>
       </c>
       <c r="E1036" s="5" t="s">
         <v>15</v>
@@ -55548,7 +55532,7 @@
         <v>3044</v>
       </c>
       <c r="D1037" s="5" t="s">
-        <v>3828</v>
+        <v>3826</v>
       </c>
       <c r="E1037" s="5" t="s">
         <v>15</v>
@@ -55563,7 +55547,7 @@
       <c r="I1037" s="5"/>
       <c r="J1037" s="5"/>
       <c r="K1037" s="5" t="s">
-        <v>3865</v>
+        <v>3863</v>
       </c>
       <c r="L1037" s="5" t="s">
         <v>3047</v>
@@ -55587,7 +55571,7 @@
         <v>3048</v>
       </c>
       <c r="D1038" s="5" t="s">
-        <v>3829</v>
+        <v>3827</v>
       </c>
       <c r="E1038" s="5" t="s">
         <v>15</v>
@@ -55626,7 +55610,7 @@
         <v>3053</v>
       </c>
       <c r="D1039" s="5" t="s">
-        <v>3830</v>
+        <v>3828</v>
       </c>
       <c r="E1039" s="5" t="s">
         <v>15</v>
@@ -55665,7 +55649,7 @@
         <v>3058</v>
       </c>
       <c r="D1040" s="5" t="s">
-        <v>3831</v>
+        <v>3829</v>
       </c>
       <c r="E1040" s="5" t="s">
         <v>15</v>
@@ -55704,7 +55688,7 @@
         <v>3063</v>
       </c>
       <c r="D1041" s="5" t="s">
-        <v>3832</v>
+        <v>3830</v>
       </c>
       <c r="E1041" s="5" t="s">
         <v>15</v>
@@ -55743,7 +55727,7 @@
         <v>3068</v>
       </c>
       <c r="D1042" s="5" t="s">
-        <v>3833</v>
+        <v>3831</v>
       </c>
       <c r="E1042" s="5" t="s">
         <v>15</v>
@@ -55782,7 +55766,7 @@
         <v>3073</v>
       </c>
       <c r="D1043" s="5" t="s">
-        <v>3834</v>
+        <v>3832</v>
       </c>
       <c r="E1043" s="5" t="s">
         <v>15</v>
@@ -55821,7 +55805,7 @@
         <v>3078</v>
       </c>
       <c r="D1044" s="5" t="s">
-        <v>3835</v>
+        <v>3833</v>
       </c>
       <c r="E1044" s="5" t="s">
         <v>15</v>
@@ -55860,7 +55844,7 @@
         <v>3083</v>
       </c>
       <c r="D1045" s="5" t="s">
-        <v>3836</v>
+        <v>3834</v>
       </c>
       <c r="E1045" s="5" t="s">
         <v>15</v>
@@ -55932,13 +55916,13 @@
         <v>3035</v>
       </c>
       <c r="B1047" s="5" t="s">
-        <v>3864</v>
+        <v>3862</v>
       </c>
       <c r="C1047" s="5" t="s">
         <v>890</v>
       </c>
       <c r="D1047" s="5" t="s">
-        <v>3837</v>
+        <v>3835</v>
       </c>
       <c r="E1047" s="5" t="s">
         <v>15</v>
@@ -55971,13 +55955,13 @@
         <v>3035</v>
       </c>
       <c r="B1048" s="5" t="s">
-        <v>3864</v>
+        <v>3862</v>
       </c>
       <c r="C1048" s="5" t="s">
         <v>3097</v>
       </c>
       <c r="D1048" s="5" t="s">
-        <v>3838</v>
+        <v>3836</v>
       </c>
       <c r="E1048" s="5" t="s">
         <v>15</v>
@@ -56010,13 +55994,13 @@
         <v>3035</v>
       </c>
       <c r="B1049" s="5" t="s">
-        <v>3864</v>
+        <v>3862</v>
       </c>
       <c r="C1049" s="5" t="s">
         <v>2739</v>
       </c>
       <c r="D1049" s="5" t="s">
-        <v>3839</v>
+        <v>3837</v>
       </c>
       <c r="E1049" s="5" t="s">
         <v>15</v>
@@ -56049,13 +56033,13 @@
         <v>3035</v>
       </c>
       <c r="B1050" s="5" t="s">
-        <v>3864</v>
+        <v>3862</v>
       </c>
       <c r="C1050" s="5" t="s">
         <v>3106</v>
       </c>
       <c r="D1050" s="5" t="s">
-        <v>3840</v>
+        <v>3838</v>
       </c>
       <c r="E1050" s="5" t="s">
         <v>15</v>
@@ -56088,13 +56072,13 @@
         <v>3035</v>
       </c>
       <c r="B1051" s="5" t="s">
-        <v>3864</v>
+        <v>3862</v>
       </c>
       <c r="C1051" s="5" t="s">
         <v>3111</v>
       </c>
       <c r="D1051" s="5" t="s">
-        <v>3841</v>
+        <v>3839</v>
       </c>
       <c r="E1051" s="5" t="s">
         <v>15</v>
@@ -56127,13 +56111,13 @@
         <v>3035</v>
       </c>
       <c r="B1052" s="5" t="s">
-        <v>3864</v>
+        <v>3862</v>
       </c>
       <c r="C1052" s="5" t="s">
         <v>3116</v>
       </c>
       <c r="D1052" s="5" t="s">
-        <v>3842</v>
+        <v>3840</v>
       </c>
       <c r="E1052" s="5" t="s">
         <v>15</v>
@@ -56166,13 +56150,13 @@
         <v>3035</v>
       </c>
       <c r="B1053" s="5" t="s">
-        <v>3864</v>
+        <v>3862</v>
       </c>
       <c r="C1053" s="5" t="s">
         <v>3121</v>
       </c>
       <c r="D1053" s="5" t="s">
-        <v>3843</v>
+        <v>3841</v>
       </c>
       <c r="E1053" s="5" t="s">
         <v>15</v>
@@ -56205,13 +56189,13 @@
         <v>3035</v>
       </c>
       <c r="B1054" s="5" t="s">
-        <v>3864</v>
+        <v>3862</v>
       </c>
       <c r="C1054" s="5" t="s">
         <v>3126</v>
       </c>
       <c r="D1054" s="5" t="s">
-        <v>3844</v>
+        <v>3842</v>
       </c>
       <c r="E1054" s="5" t="s">
         <v>15</v>
@@ -56244,7 +56228,7 @@
         <v>3035</v>
       </c>
       <c r="B1055" s="5" t="s">
-        <v>3864</v>
+        <v>3862</v>
       </c>
       <c r="C1055" s="5" t="s">
         <v>3131</v>
@@ -56283,13 +56267,13 @@
         <v>3035</v>
       </c>
       <c r="B1056" s="5" t="s">
-        <v>3863</v>
+        <v>3861</v>
       </c>
       <c r="C1056" s="5" t="s">
         <v>890</v>
       </c>
       <c r="D1056" s="5" t="s">
-        <v>3845</v>
+        <v>3843</v>
       </c>
       <c r="E1056" s="5" t="s">
         <v>15</v>
@@ -56322,13 +56306,13 @@
         <v>3035</v>
       </c>
       <c r="B1057" s="5" t="s">
-        <v>3863</v>
+        <v>3861</v>
       </c>
       <c r="C1057" s="5" t="s">
         <v>2741</v>
       </c>
       <c r="D1057" s="5" t="s">
-        <v>3846</v>
+        <v>3844</v>
       </c>
       <c r="E1057" s="5" t="s">
         <v>15</v>
@@ -56364,13 +56348,13 @@
         <v>3035</v>
       </c>
       <c r="B1058" s="5" t="s">
-        <v>3863</v>
+        <v>3861</v>
       </c>
       <c r="C1058" s="5" t="s">
         <v>2987</v>
       </c>
       <c r="D1058" s="5" t="s">
-        <v>3847</v>
+        <v>3845</v>
       </c>
       <c r="E1058" s="5" t="s">
         <v>15</v>
@@ -56445,13 +56429,13 @@
         <v>3035</v>
       </c>
       <c r="B1060" s="5" t="s">
-        <v>3862</v>
+        <v>3860</v>
       </c>
       <c r="C1060" s="5" t="s">
         <v>890</v>
       </c>
       <c r="D1060" s="5" t="s">
-        <v>3848</v>
+        <v>3846</v>
       </c>
       <c r="E1060" s="5" t="s">
         <v>15</v>
@@ -56484,13 +56468,13 @@
         <v>3035</v>
       </c>
       <c r="B1061" s="5" t="s">
-        <v>3862</v>
+        <v>3860</v>
       </c>
       <c r="C1061" s="5" t="s">
         <v>3154</v>
       </c>
       <c r="D1061" s="5" t="s">
-        <v>3849</v>
+        <v>3847</v>
       </c>
       <c r="E1061" s="5" t="s">
         <v>15</v>
@@ -56523,13 +56507,13 @@
         <v>3035</v>
       </c>
       <c r="B1062" s="5" t="s">
-        <v>3862</v>
+        <v>3860</v>
       </c>
       <c r="C1062" s="5" t="s">
         <v>3158</v>
       </c>
       <c r="D1062" s="5" t="s">
-        <v>3850</v>
+        <v>3848</v>
       </c>
       <c r="E1062" s="5" t="s">
         <v>15</v>
@@ -56562,13 +56546,13 @@
         <v>3035</v>
       </c>
       <c r="B1063" s="5" t="s">
-        <v>3862</v>
+        <v>3860</v>
       </c>
       <c r="C1063" s="5" t="s">
         <v>3163</v>
       </c>
       <c r="D1063" s="5" t="s">
-        <v>3851</v>
+        <v>3849</v>
       </c>
       <c r="E1063" s="5" t="s">
         <v>15</v>
@@ -56638,13 +56622,13 @@
         <v>3035</v>
       </c>
       <c r="B1065" s="5" t="s">
-        <v>3861</v>
+        <v>3859</v>
       </c>
       <c r="C1065" s="5" t="s">
         <v>890</v>
       </c>
       <c r="D1065" s="5" t="s">
-        <v>3852</v>
+        <v>3850</v>
       </c>
       <c r="E1065" s="5" t="s">
         <v>15</v>
@@ -56677,13 +56661,13 @@
         <v>3035</v>
       </c>
       <c r="B1066" s="5" t="s">
-        <v>3861</v>
+        <v>3859</v>
       </c>
       <c r="C1066" s="5" t="s">
         <v>3176</v>
       </c>
       <c r="D1066" s="5" t="s">
-        <v>3853</v>
+        <v>3851</v>
       </c>
       <c r="E1066" s="5" t="s">
         <v>15</v>
@@ -56716,13 +56700,13 @@
         <v>3035</v>
       </c>
       <c r="B1067" s="5" t="s">
-        <v>3861</v>
+        <v>3859</v>
       </c>
       <c r="C1067" s="5" t="s">
         <v>3181</v>
       </c>
       <c r="D1067" s="5" t="s">
-        <v>3854</v>
+        <v>3852</v>
       </c>
       <c r="E1067" s="5" t="s">
         <v>15</v>
@@ -56755,13 +56739,13 @@
         <v>3035</v>
       </c>
       <c r="B1068" s="5" t="s">
-        <v>3861</v>
+        <v>3859</v>
       </c>
       <c r="C1068" s="5" t="s">
         <v>3186</v>
       </c>
       <c r="D1068" s="5" t="s">
-        <v>3855</v>
+        <v>3853</v>
       </c>
       <c r="E1068" s="5" t="s">
         <v>15</v>
@@ -56794,13 +56778,13 @@
         <v>3035</v>
       </c>
       <c r="B1069" s="5" t="s">
-        <v>3861</v>
+        <v>3859</v>
       </c>
       <c r="C1069" s="5" t="s">
         <v>3191</v>
       </c>
       <c r="D1069" s="5" t="s">
-        <v>3856</v>
+        <v>3854</v>
       </c>
       <c r="E1069" s="5" t="s">
         <v>15</v>
@@ -56839,7 +56823,7 @@
         <v>3002</v>
       </c>
       <c r="D1070" s="5" t="s">
-        <v>3857</v>
+        <v>3855</v>
       </c>
       <c r="E1070" s="5" t="s">
         <v>15</v>
@@ -56878,7 +56862,7 @@
         <v>3006</v>
       </c>
       <c r="D1071" s="5" t="s">
-        <v>3858</v>
+        <v>3856</v>
       </c>
       <c r="E1071" s="5" t="s">
         <v>15</v>
@@ -56915,13 +56899,13 @@
         <v>82</v>
       </c>
       <c r="D1072" s="5" t="s">
-        <v>3859</v>
+        <v>3857</v>
       </c>
       <c r="E1072" s="5" t="s">
         <v>3010</v>
       </c>
       <c r="F1072" s="5" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="G1072" s="5" t="s">
         <v>3011</v>
@@ -56975,7 +56959,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>3870</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="3" spans="1:1022" ht="26.4" x14ac:dyDescent="0.25">
@@ -56983,7 +56967,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>3871</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="4" spans="1:1022" x14ac:dyDescent="0.25">
@@ -56991,7 +56975,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>3872</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="5" spans="1:1022" ht="26.4" x14ac:dyDescent="0.25">
@@ -56999,7 +56983,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>3873</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="6" spans="1:1022" ht="132" x14ac:dyDescent="0.25">
@@ -57007,7 +56991,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>3874</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="7" spans="1:1022" ht="39.6" x14ac:dyDescent="0.25">
@@ -57015,7 +56999,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>3875</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="8" spans="1:1022" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -57023,7 +57007,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>4001</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="9" spans="1:1022" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -58059,7 +58043,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>3876</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="11" spans="1:1022" x14ac:dyDescent="0.25">
@@ -58067,7 +58051,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>3877</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="12" spans="1:1022" x14ac:dyDescent="0.25">
@@ -58075,7 +58059,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>3878</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="13" spans="1:1022" ht="26.4" x14ac:dyDescent="0.25">
@@ -58083,7 +58067,7 @@
         <v>3202</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>3879</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="14" spans="1:1022" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -58091,7 +58075,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>3880</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="15" spans="1:1022" ht="52.8" x14ac:dyDescent="0.25">
@@ -58099,15 +58083,15 @@
         <v>10</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>3881</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="16" spans="1:1022" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>3867</v>
+        <v>3865</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>3868</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -58115,15 +58099,15 @@
         <v>13</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>3869</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>4043</v>
+        <v>4041</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>4044</v>
+        <v>4042</v>
       </c>
     </row>
   </sheetData>

--- a/substance_dictionary/dictionary_current_all_entities.xlsx
+++ b/substance_dictionary/dictionary_current_all_entities.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GSRSFrontend\substance_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BE70AD-6EFD-4A34-95D4-54808D990E52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67393906-7013-4AA3-8A83-28CB275EBD9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="312" windowWidth="19836" windowHeight="11436" tabRatio="619" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="672" yWindow="636" windowWidth="19836" windowHeight="11436" tabRatio="619" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12290" uniqueCount="4053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12291" uniqueCount="4054">
   <si>
     <t>Field Name</t>
   </si>
@@ -12195,6 +12195,9 @@
   </si>
   <si>
     <t>/productCompanyAllList/?/state</t>
+  </si>
+  <si>
+    <t>Approval_ID</t>
   </si>
 </sst>
 </file>
@@ -12790,8 +12793,8 @@
   <dimension ref="A1:Q1072"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A834" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O846" sqref="O846"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13101,7 +13104,9 @@
         <v>27</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>4053</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
         <v>29</v>
@@ -13115,7 +13120,9 @@
       <c r="N7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O7" s="3"/>
+      <c r="O7" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">

--- a/substance_dictionary/dictionary_current_all_entities.xlsx
+++ b/substance_dictionary/dictionary_current_all_entities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GSRSFrontend\substance_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67393906-7013-4AA3-8A83-28CB275EBD9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A09809E-D399-4420-82F9-4A41945E4CE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="672" yWindow="636" windowWidth="19836" windowHeight="11436" tabRatio="619" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12291" uniqueCount="4054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12292" uniqueCount="4054">
   <si>
     <t>Field Name</t>
   </si>
@@ -12792,9 +12792,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1072"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13318,7 +13318,9 @@
         <v>56</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
         <v>57</v>

--- a/substance_dictionary/dictionary_current_all_entities.xlsx
+++ b/substance_dictionary/dictionary_current_all_entities.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GSRSFrontend\substance_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A09809E-D399-4420-82F9-4A41945E4CE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E924DD3-5B3F-46EB-A01C-7D638FD6D451}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="672" yWindow="636" windowWidth="19836" windowHeight="11436" tabRatio="619" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="612" yWindow="36" windowWidth="21480" windowHeight="11880" tabRatio="619" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12292" uniqueCount="4054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12796" uniqueCount="4193">
   <si>
     <t>Field Name</t>
   </si>
@@ -12198,6 +12198,423 @@
   </si>
   <si>
     <t>Approval_ID</t>
+  </si>
+  <si>
+    <t>AdverseEvent</t>
+  </si>
+  <si>
+    <t>AdverseEventPt</t>
+  </si>
+  <si>
+    <t>PT Term</t>
+  </si>
+  <si>
+    <t>AdverseEventCvm</t>
+  </si>
+  <si>
+    <t>/ptTerm</t>
+  </si>
+  <si>
+    <t>root_ptTerm</t>
+  </si>
+  <si>
+    <t>Adverse Event PT PT Term</t>
+  </si>
+  <si>
+    <t>ptTerm</t>
+  </si>
+  <si>
+    <t>Prim SOC</t>
+  </si>
+  <si>
+    <t>/primSoc</t>
+  </si>
+  <si>
+    <t>root_primSoc</t>
+  </si>
+  <si>
+    <t>primSoc</t>
+  </si>
+  <si>
+    <t>Adverse Event PT Prim SOC</t>
+  </si>
+  <si>
+    <t>Case Count</t>
+  </si>
+  <si>
+    <t>SOC Count</t>
+  </si>
+  <si>
+    <t>PT Count</t>
+  </si>
+  <si>
+    <t>PT Count Percent</t>
+  </si>
+  <si>
+    <t>SOC Count Percent</t>
+  </si>
+  <si>
+    <t>PT Count Total Vs Drug</t>
+  </si>
+  <si>
+    <t>PRR</t>
+  </si>
+  <si>
+    <t>Unii/Approval ID</t>
+  </si>
+  <si>
+    <t>Adverse Event PT Deprecated</t>
+  </si>
+  <si>
+    <t>/name</t>
+  </si>
+  <si>
+    <t>root_name</t>
+  </si>
+  <si>
+    <t>/substanceKey</t>
+  </si>
+  <si>
+    <t>root_substanceKey</t>
+  </si>
+  <si>
+    <t>/caseCount</t>
+  </si>
+  <si>
+    <t>root_caseCount</t>
+  </si>
+  <si>
+    <t>ptCount</t>
+  </si>
+  <si>
+    <t>/ptCount</t>
+  </si>
+  <si>
+    <t>/socCount</t>
+  </si>
+  <si>
+    <t>root_socCount</t>
+  </si>
+  <si>
+    <t>caseCount</t>
+  </si>
+  <si>
+    <t>socCount</t>
+  </si>
+  <si>
+    <t>/ptCountPercent</t>
+  </si>
+  <si>
+    <t>root_ptCountPercent</t>
+  </si>
+  <si>
+    <t>ptCountPercent</t>
+  </si>
+  <si>
+    <t>Substance ID</t>
+  </si>
+  <si>
+    <t>UNII/Approval ID</t>
+  </si>
+  <si>
+    <t>/unii</t>
+  </si>
+  <si>
+    <t>/prr</t>
+  </si>
+  <si>
+    <t>root_prr</t>
+  </si>
+  <si>
+    <t>root_unii</t>
+  </si>
+  <si>
+    <t>root_ptCount</t>
+  </si>
+  <si>
+    <t>Adverse Event PT Case Count</t>
+  </si>
+  <si>
+    <t>Adverse Event PT PT Count</t>
+  </si>
+  <si>
+    <t>Adverse Event PT SOC Count</t>
+  </si>
+  <si>
+    <t>Adverse Event PT PRR</t>
+  </si>
+  <si>
+    <t>Adverse Event PT UNII/Approval ID</t>
+  </si>
+  <si>
+    <t>Adverse Event PT Substance Key</t>
+  </si>
+  <si>
+    <t>Adverse Event PT Ingredient Name</t>
+  </si>
+  <si>
+    <t>Adverse Event PT Count Percent</t>
+  </si>
+  <si>
+    <t>Adverse Event PT SOC Count Percent</t>
+  </si>
+  <si>
+    <t>Adverse Event PT Count Total Vs Drug</t>
+  </si>
+  <si>
+    <t>Adverse Event PT Substance ID</t>
+  </si>
+  <si>
+    <t>/socCountPercent</t>
+  </si>
+  <si>
+    <t>/ptCountTotalVsDrug</t>
+  </si>
+  <si>
+    <t>root_ptCountTotalVsDrug</t>
+  </si>
+  <si>
+    <t>ptCountTotalVsDrug</t>
+  </si>
+  <si>
+    <t>root_socCountPercent</t>
+  </si>
+  <si>
+    <t>root_substanceId</t>
+  </si>
+  <si>
+    <t>/substanceId</t>
+  </si>
+  <si>
+    <t>unii</t>
+  </si>
+  <si>
+    <t>substanceId</t>
+  </si>
+  <si>
+    <t>prr</t>
+  </si>
+  <si>
+    <t>socCountPercent</t>
+  </si>
+  <si>
+    <t>PT_TERM</t>
+  </si>
+  <si>
+    <t>Prim_SOC</t>
+  </si>
+  <si>
+    <t>Adverse Event PT ATC Level 1</t>
+  </si>
+  <si>
+    <t>Adverse Event PT ATC Level 2</t>
+  </si>
+  <si>
+    <t>Adverse Event PT ATC Level 3</t>
+  </si>
+  <si>
+    <t>Adverse Event PT ATC Level 4</t>
+  </si>
+  <si>
+    <t>AdverseEventDme</t>
+  </si>
+  <si>
+    <t>root_dmeReactions</t>
+  </si>
+  <si>
+    <t>/dmeReactions</t>
+  </si>
+  <si>
+    <t>DME Reactions</t>
+  </si>
+  <si>
+    <t>dmeReactions</t>
+  </si>
+  <si>
+    <t>DME_Reactions</t>
+  </si>
+  <si>
+    <t>Adverse Event DME Substance ID</t>
+  </si>
+  <si>
+    <t>Adverse Event DME UNII/Approval ID</t>
+  </si>
+  <si>
+    <t>Adverse Event DME Substance Key</t>
+  </si>
+  <si>
+    <t>Adverse Event DME Ingredient Name</t>
+  </si>
+  <si>
+    <t>Adverse Event DME Deprecated</t>
+  </si>
+  <si>
+    <t>Adverse Event DME ATC Level 1</t>
+  </si>
+  <si>
+    <t>PT Term Meddra</t>
+  </si>
+  <si>
+    <t>/ptTermMeddra</t>
+  </si>
+  <si>
+    <t>root_ptTermMeddra</t>
+  </si>
+  <si>
+    <t>ptTermMeddra</t>
+  </si>
+  <si>
+    <t>Adverse Event DME PT Term Meddra</t>
+  </si>
+  <si>
+    <t>PTTerm_Meddra</t>
+  </si>
+  <si>
+    <t>Adverse Event DME Case Count</t>
+  </si>
+  <si>
+    <t>DME Count</t>
+  </si>
+  <si>
+    <t>DME Count Percent</t>
+  </si>
+  <si>
+    <t>Weighted Average PRR</t>
+  </si>
+  <si>
+    <t>Adverse Event DME ATC Level 2</t>
+  </si>
+  <si>
+    <t>Adverse Event DME ATC Level 3</t>
+  </si>
+  <si>
+    <t>Adverse Event DME ATC Level 4</t>
+  </si>
+  <si>
+    <t>Adverse Event CVM ATC Level 1</t>
+  </si>
+  <si>
+    <t>Adverse Event CVM ATC Level 2</t>
+  </si>
+  <si>
+    <t>Adverse Event CVM ATC Level 3</t>
+  </si>
+  <si>
+    <t>Adverse Event CVM ATC Level 4</t>
+  </si>
+  <si>
+    <t>/dmeCount</t>
+  </si>
+  <si>
+    <t>root_dmeCount</t>
+  </si>
+  <si>
+    <t>dmeCount</t>
+  </si>
+  <si>
+    <t>/dmeCountPercent</t>
+  </si>
+  <si>
+    <t>root_dmeCountPercent</t>
+  </si>
+  <si>
+    <t>Adverse Event DME Count</t>
+  </si>
+  <si>
+    <t>Adverse Event DME Count Percent</t>
+  </si>
+  <si>
+    <t>Adverse Event DME Reactions</t>
+  </si>
+  <si>
+    <t>dmeCountPercent</t>
+  </si>
+  <si>
+    <t>/weightedAvgPrr</t>
+  </si>
+  <si>
+    <t>root_weightedAvgPrr</t>
+  </si>
+  <si>
+    <t>Adverse Event DME Weighted Average PRR</t>
+  </si>
+  <si>
+    <t>weightedAvgPrr</t>
+  </si>
+  <si>
+    <t>Adverse Event DME ID</t>
+  </si>
+  <si>
+    <t>/id</t>
+  </si>
+  <si>
+    <t>root_id</t>
+  </si>
+  <si>
+    <t>Adverse Event CVM Deprecated</t>
+  </si>
+  <si>
+    <t>/species</t>
+  </si>
+  <si>
+    <t>root_species</t>
+  </si>
+  <si>
+    <t>Adverse Event CME Species</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>adverseEvent</t>
+  </si>
+  <si>
+    <t>/adverseEvent</t>
+  </si>
+  <si>
+    <t>root_adverseEvent</t>
+  </si>
+  <si>
+    <t>Adverse Event CME Adverse Event</t>
+  </si>
+  <si>
+    <t>Adverse_Event</t>
+  </si>
+  <si>
+    <t>routeOfAdmin</t>
+  </si>
+  <si>
+    <t>/routeOfAdmin</t>
+  </si>
+  <si>
+    <t>root_routeOfAdmin</t>
+  </si>
+  <si>
+    <t>Route_of_Administration</t>
+  </si>
+  <si>
+    <t>Adverse Event CME Route of Administration</t>
+  </si>
+  <si>
+    <t>aeCount</t>
+  </si>
+  <si>
+    <t>/aeCount</t>
+  </si>
+  <si>
+    <t>root_aeCount</t>
+  </si>
+  <si>
+    <t>Adverse Event CVM Substance ID</t>
+  </si>
+  <si>
+    <t>Adverse Event CVM UNII/Approval ID</t>
+  </si>
+  <si>
+    <t>Adverse Event CVM Substance Key</t>
+  </si>
+  <si>
+    <t>Adverse Event CVM Ingredient Name</t>
   </si>
 </sst>
 </file>
@@ -12256,7 +12673,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12323,6 +12740,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -12336,7 +12771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -12404,6 +12839,25 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12790,11 +13244,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1072"/>
+  <dimension ref="A1:Q1140"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="B1123" sqref="B1123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -56903,7 +57357,9 @@
       <c r="A1072" s="5" t="s">
         <v>3035</v>
       </c>
-      <c r="B1072" s="5"/>
+      <c r="B1072" s="5" t="s">
+        <v>3035</v>
+      </c>
       <c r="C1072" s="5" t="s">
         <v>82</v>
       </c>
@@ -56914,7 +57370,7 @@
         <v>3010</v>
       </c>
       <c r="F1072" s="5" t="s">
-        <v>4027</v>
+        <v>139</v>
       </c>
       <c r="G1072" s="5" t="s">
         <v>3011</v>
@@ -56934,6 +57390,1971 @@
       </c>
       <c r="O1072" s="5"/>
     </row>
+    <row r="1073" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1073" s="29" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1073" s="29" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C1073" s="29" t="s">
+        <v>4056</v>
+      </c>
+      <c r="D1073" s="29" t="s">
+        <v>4056</v>
+      </c>
+      <c r="E1073" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1073" s="29" t="s">
+        <v>4058</v>
+      </c>
+      <c r="G1073" s="29" t="s">
+        <v>4059</v>
+      </c>
+      <c r="H1073" s="30"/>
+      <c r="I1073" s="29" t="s">
+        <v>4120</v>
+      </c>
+      <c r="J1073" s="30"/>
+      <c r="K1073" s="29" t="s">
+        <v>4060</v>
+      </c>
+      <c r="L1073" s="29" t="s">
+        <v>4061</v>
+      </c>
+      <c r="M1073" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1073" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1073" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P1073" s="30"/>
+      <c r="Q1073" s="30"/>
+    </row>
+    <row r="1074" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1074" s="29" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1074" s="29" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C1074" s="29" t="s">
+        <v>4062</v>
+      </c>
+      <c r="D1074" s="29" t="s">
+        <v>4062</v>
+      </c>
+      <c r="E1074" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1074" s="29" t="s">
+        <v>4063</v>
+      </c>
+      <c r="G1074" s="29" t="s">
+        <v>4064</v>
+      </c>
+      <c r="H1074" s="30"/>
+      <c r="I1074" s="29" t="s">
+        <v>4121</v>
+      </c>
+      <c r="J1074" s="30"/>
+      <c r="K1074" s="29" t="s">
+        <v>4066</v>
+      </c>
+      <c r="L1074" s="29" t="s">
+        <v>4065</v>
+      </c>
+      <c r="M1074" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1074" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1074" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P1074" s="30"/>
+      <c r="Q1074" s="30"/>
+    </row>
+    <row r="1075" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1075" s="29" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1075" s="29" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C1075" s="29" t="s">
+        <v>4067</v>
+      </c>
+      <c r="D1075" s="29" t="s">
+        <v>4067</v>
+      </c>
+      <c r="E1075" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1075" s="29" t="s">
+        <v>4080</v>
+      </c>
+      <c r="G1075" s="29" t="s">
+        <v>4081</v>
+      </c>
+      <c r="H1075" s="30"/>
+      <c r="I1075" s="30"/>
+      <c r="J1075" s="30"/>
+      <c r="K1075" s="29" t="s">
+        <v>4098</v>
+      </c>
+      <c r="L1075" s="29" t="s">
+        <v>4086</v>
+      </c>
+      <c r="M1075" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1075" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1075" s="29"/>
+      <c r="P1075" s="30"/>
+      <c r="Q1075" s="30"/>
+    </row>
+    <row r="1076" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1076" s="29" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1076" s="29" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C1076" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="D1076" s="29" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E1076" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1076" s="29" t="s">
+        <v>4083</v>
+      </c>
+      <c r="G1076" s="29" t="s">
+        <v>4097</v>
+      </c>
+      <c r="H1076" s="30"/>
+      <c r="I1076" s="30"/>
+      <c r="J1076" s="30"/>
+      <c r="K1076" s="29" t="s">
+        <v>4099</v>
+      </c>
+      <c r="L1076" s="29" t="s">
+        <v>4082</v>
+      </c>
+      <c r="M1076" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1076" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1076" s="29"/>
+      <c r="P1076" s="30"/>
+      <c r="Q1076" s="30"/>
+    </row>
+    <row r="1077" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1077" s="29" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1077" s="29" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C1077" s="29" t="s">
+        <v>4068</v>
+      </c>
+      <c r="D1077" s="29" t="s">
+        <v>4068</v>
+      </c>
+      <c r="E1077" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1077" s="29" t="s">
+        <v>4084</v>
+      </c>
+      <c r="G1077" s="29" t="s">
+        <v>4085</v>
+      </c>
+      <c r="H1077" s="30"/>
+      <c r="I1077" s="30"/>
+      <c r="J1077" s="30"/>
+      <c r="K1077" s="29" t="s">
+        <v>4100</v>
+      </c>
+      <c r="L1077" s="29" t="s">
+        <v>4087</v>
+      </c>
+      <c r="M1077" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1077" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1077" s="29"/>
+      <c r="P1077" s="30"/>
+      <c r="Q1077" s="30"/>
+    </row>
+    <row r="1078" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1078" s="29" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1078" s="29" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C1078" s="29" t="s">
+        <v>4070</v>
+      </c>
+      <c r="D1078" s="29" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1078" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1078" s="29" t="s">
+        <v>4088</v>
+      </c>
+      <c r="G1078" s="29" t="s">
+        <v>4089</v>
+      </c>
+      <c r="H1078" s="30"/>
+      <c r="I1078" s="30"/>
+      <c r="J1078" s="30"/>
+      <c r="K1078" s="29" t="s">
+        <v>4105</v>
+      </c>
+      <c r="L1078" s="29" t="s">
+        <v>4090</v>
+      </c>
+      <c r="M1078" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1078" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1078" s="29"/>
+      <c r="P1078" s="30"/>
+      <c r="Q1078" s="30"/>
+    </row>
+    <row r="1079" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1079" s="29" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1079" s="29" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C1079" s="29" t="s">
+        <v>4071</v>
+      </c>
+      <c r="D1079" s="29" t="s">
+        <v>4071</v>
+      </c>
+      <c r="E1079" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1079" s="29" t="s">
+        <v>4109</v>
+      </c>
+      <c r="G1079" s="29" t="s">
+        <v>4113</v>
+      </c>
+      <c r="H1079" s="30"/>
+      <c r="I1079" s="30"/>
+      <c r="J1079" s="30"/>
+      <c r="K1079" s="29" t="s">
+        <v>4106</v>
+      </c>
+      <c r="L1079" s="29" t="s">
+        <v>4119</v>
+      </c>
+      <c r="M1079" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1079" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1079" s="29"/>
+      <c r="P1079" s="30"/>
+      <c r="Q1079" s="30"/>
+    </row>
+    <row r="1080" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1080" s="29" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1080" s="29" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C1080" s="29" t="s">
+        <v>4072</v>
+      </c>
+      <c r="D1080" s="29" t="s">
+        <v>4072</v>
+      </c>
+      <c r="E1080" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1080" s="29" t="s">
+        <v>4110</v>
+      </c>
+      <c r="G1080" s="29" t="s">
+        <v>4111</v>
+      </c>
+      <c r="H1080" s="30"/>
+      <c r="I1080" s="30"/>
+      <c r="J1080" s="30"/>
+      <c r="K1080" s="29" t="s">
+        <v>4107</v>
+      </c>
+      <c r="L1080" s="29" t="s">
+        <v>4112</v>
+      </c>
+      <c r="M1080" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1080" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1080" s="29"/>
+      <c r="P1080" s="30"/>
+      <c r="Q1080" s="30"/>
+    </row>
+    <row r="1081" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1081" s="29" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1081" s="29" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C1081" s="29" t="s">
+        <v>4073</v>
+      </c>
+      <c r="D1081" s="29" t="s">
+        <v>4073</v>
+      </c>
+      <c r="E1081" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1081" s="29" t="s">
+        <v>4094</v>
+      </c>
+      <c r="G1081" s="29" t="s">
+        <v>4095</v>
+      </c>
+      <c r="H1081" s="30"/>
+      <c r="I1081" s="30"/>
+      <c r="J1081" s="30"/>
+      <c r="K1081" s="29" t="s">
+        <v>4101</v>
+      </c>
+      <c r="L1081" s="29" t="s">
+        <v>4118</v>
+      </c>
+      <c r="M1081" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1081" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1081" s="29"/>
+      <c r="P1081" s="30"/>
+      <c r="Q1081" s="30"/>
+    </row>
+    <row r="1082" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1082" s="29" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1082" s="29" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C1082" s="29" t="s">
+        <v>4091</v>
+      </c>
+      <c r="D1082" s="29" t="s">
+        <v>4091</v>
+      </c>
+      <c r="E1082" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1082" s="29" t="s">
+        <v>4115</v>
+      </c>
+      <c r="G1082" s="29" t="s">
+        <v>4114</v>
+      </c>
+      <c r="H1082" s="30"/>
+      <c r="I1082" s="30"/>
+      <c r="J1082" s="30"/>
+      <c r="K1082" s="29" t="s">
+        <v>4108</v>
+      </c>
+      <c r="L1082" s="29" t="s">
+        <v>4117</v>
+      </c>
+      <c r="M1082" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1082" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1082" s="29"/>
+      <c r="P1082" s="30"/>
+      <c r="Q1082" s="30"/>
+    </row>
+    <row r="1083" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1083" s="29" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1083" s="29" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C1083" s="29" t="s">
+        <v>4092</v>
+      </c>
+      <c r="D1083" s="29" t="s">
+        <v>4074</v>
+      </c>
+      <c r="E1083" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1083" s="29" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G1083" s="29" t="s">
+        <v>4096</v>
+      </c>
+      <c r="H1083" s="30"/>
+      <c r="I1083" s="30"/>
+      <c r="J1083" s="30"/>
+      <c r="K1083" s="29" t="s">
+        <v>4102</v>
+      </c>
+      <c r="L1083" s="29" t="s">
+        <v>4116</v>
+      </c>
+      <c r="M1083" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1083" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1083" s="29"/>
+      <c r="P1083" s="30"/>
+      <c r="Q1083" s="30"/>
+    </row>
+    <row r="1084" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1084" s="29" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1084" s="29" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C1084" s="29" t="s">
+        <v>2741</v>
+      </c>
+      <c r="D1084" s="29" t="s">
+        <v>2741</v>
+      </c>
+      <c r="E1084" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1084" s="29" t="s">
+        <v>4078</v>
+      </c>
+      <c r="G1084" s="29" t="s">
+        <v>4079</v>
+      </c>
+      <c r="H1084" s="30"/>
+      <c r="I1084" s="30"/>
+      <c r="J1084" s="30"/>
+      <c r="K1084" s="29" t="s">
+        <v>4103</v>
+      </c>
+      <c r="L1084" s="29" t="s">
+        <v>2986</v>
+      </c>
+      <c r="M1084" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1084" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1084" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P1084" s="30"/>
+      <c r="Q1084" s="30"/>
+    </row>
+    <row r="1085" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1085" s="29" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1085" s="29" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C1085" s="29" t="s">
+        <v>2756</v>
+      </c>
+      <c r="D1085" s="29" t="s">
+        <v>2756</v>
+      </c>
+      <c r="E1085" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1085" s="29" t="s">
+        <v>4076</v>
+      </c>
+      <c r="G1085" s="29" t="s">
+        <v>4077</v>
+      </c>
+      <c r="H1085" s="30"/>
+      <c r="I1085" s="29" t="s">
+        <v>3406</v>
+      </c>
+      <c r="J1085" s="30"/>
+      <c r="K1085" s="29" t="s">
+        <v>4104</v>
+      </c>
+      <c r="L1085" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1085" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1085" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1085" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P1085" s="30"/>
+      <c r="Q1085" s="30"/>
+    </row>
+    <row r="1086" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1086" s="29" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1086" s="29" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C1086" s="29" t="s">
+        <v>4075</v>
+      </c>
+      <c r="D1086" s="29" t="s">
+        <v>4075</v>
+      </c>
+      <c r="E1086" s="29" t="s">
+        <v>3010</v>
+      </c>
+      <c r="F1086" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1086" s="29" t="s">
+        <v>3011</v>
+      </c>
+      <c r="H1086" s="30"/>
+      <c r="I1086" s="30"/>
+      <c r="J1086" s="30"/>
+      <c r="K1086" s="29" t="s">
+        <v>4075</v>
+      </c>
+      <c r="L1086" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1086" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1086" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1086" s="29"/>
+      <c r="P1086" s="30"/>
+      <c r="Q1086" s="30"/>
+    </row>
+    <row r="1087" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1087" s="29" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1087" s="29" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C1087" s="29" t="s">
+        <v>4122</v>
+      </c>
+      <c r="D1087" s="29" t="s">
+        <v>4122</v>
+      </c>
+      <c r="E1087" s="29" t="s">
+        <v>3010</v>
+      </c>
+      <c r="F1087" s="29"/>
+      <c r="G1087" s="29"/>
+      <c r="H1087" s="30"/>
+      <c r="I1087" s="30"/>
+      <c r="J1087" s="30"/>
+      <c r="K1087" s="29" t="s">
+        <v>4122</v>
+      </c>
+      <c r="L1087" s="29"/>
+      <c r="M1087" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1087" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1087" s="29"/>
+      <c r="P1087" s="30"/>
+      <c r="Q1087" s="30"/>
+    </row>
+    <row r="1088" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1088" s="29" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1088" s="29" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C1088" s="29" t="s">
+        <v>4123</v>
+      </c>
+      <c r="D1088" s="29" t="s">
+        <v>4123</v>
+      </c>
+      <c r="E1088" s="29" t="s">
+        <v>3010</v>
+      </c>
+      <c r="F1088" s="29"/>
+      <c r="G1088" s="29"/>
+      <c r="H1088" s="30"/>
+      <c r="I1088" s="30"/>
+      <c r="J1088" s="30"/>
+      <c r="K1088" s="29" t="s">
+        <v>4123</v>
+      </c>
+      <c r="L1088" s="29"/>
+      <c r="M1088" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1088" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1088" s="29"/>
+      <c r="P1088" s="30"/>
+      <c r="Q1088" s="30"/>
+    </row>
+    <row r="1089" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1089" s="29" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1089" s="29" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C1089" s="29" t="s">
+        <v>4124</v>
+      </c>
+      <c r="D1089" s="29" t="s">
+        <v>4124</v>
+      </c>
+      <c r="E1089" s="29" t="s">
+        <v>3010</v>
+      </c>
+      <c r="F1089" s="29"/>
+      <c r="G1089" s="29"/>
+      <c r="H1089" s="30"/>
+      <c r="I1089" s="30"/>
+      <c r="J1089" s="30"/>
+      <c r="K1089" s="29" t="s">
+        <v>4124</v>
+      </c>
+      <c r="L1089" s="29"/>
+      <c r="M1089" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1089" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1089" s="29"/>
+      <c r="P1089" s="30"/>
+      <c r="Q1089" s="30"/>
+    </row>
+    <row r="1090" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1090" s="29" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1090" s="29" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C1090" s="29" t="s">
+        <v>4125</v>
+      </c>
+      <c r="D1090" s="29" t="s">
+        <v>4125</v>
+      </c>
+      <c r="E1090" s="29" t="s">
+        <v>3010</v>
+      </c>
+      <c r="F1090" s="29"/>
+      <c r="G1090" s="29"/>
+      <c r="H1090" s="30"/>
+      <c r="I1090" s="30"/>
+      <c r="J1090" s="30"/>
+      <c r="K1090" s="29" t="s">
+        <v>4125</v>
+      </c>
+      <c r="L1090" s="29"/>
+      <c r="M1090" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1090" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1090" s="29"/>
+      <c r="P1090" s="31"/>
+      <c r="Q1090" s="31"/>
+    </row>
+    <row r="1091" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1091" s="32" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1091" s="32" t="s">
+        <v>4126</v>
+      </c>
+      <c r="C1091" s="32" t="s">
+        <v>4168</v>
+      </c>
+      <c r="D1091" s="32" t="s">
+        <v>4168</v>
+      </c>
+      <c r="E1091" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1091" s="32" t="s">
+        <v>4169</v>
+      </c>
+      <c r="G1091" s="32" t="s">
+        <v>4170</v>
+      </c>
+      <c r="H1091" s="33"/>
+      <c r="I1091" s="32"/>
+      <c r="J1091" s="33"/>
+      <c r="K1091" s="32" t="s">
+        <v>4168</v>
+      </c>
+      <c r="L1091" s="32" t="s">
+        <v>894</v>
+      </c>
+      <c r="M1091" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1091" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1091" s="32"/>
+      <c r="P1091" s="34"/>
+      <c r="Q1091" s="34"/>
+    </row>
+    <row r="1092" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1092" s="32" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1092" s="32" t="s">
+        <v>4126</v>
+      </c>
+      <c r="C1092" s="32" t="s">
+        <v>4129</v>
+      </c>
+      <c r="D1092" s="32" t="s">
+        <v>4129</v>
+      </c>
+      <c r="E1092" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1092" s="32" t="s">
+        <v>4128</v>
+      </c>
+      <c r="G1092" s="32" t="s">
+        <v>4127</v>
+      </c>
+      <c r="H1092" s="33"/>
+      <c r="I1092" s="32" t="s">
+        <v>4131</v>
+      </c>
+      <c r="J1092" s="33"/>
+      <c r="K1092" s="32" t="s">
+        <v>4162</v>
+      </c>
+      <c r="L1092" s="32" t="s">
+        <v>4130</v>
+      </c>
+      <c r="M1092" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1092" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1092" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P1092" s="34"/>
+      <c r="Q1092" s="34"/>
+    </row>
+    <row r="1093" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1093" s="32" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1093" s="32" t="s">
+        <v>4126</v>
+      </c>
+      <c r="C1093" s="32" t="s">
+        <v>4138</v>
+      </c>
+      <c r="D1093" s="32" t="s">
+        <v>4138</v>
+      </c>
+      <c r="E1093" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1093" s="32" t="s">
+        <v>4139</v>
+      </c>
+      <c r="G1093" s="32" t="s">
+        <v>4140</v>
+      </c>
+      <c r="H1093" s="33"/>
+      <c r="I1093" s="32" t="s">
+        <v>4143</v>
+      </c>
+      <c r="J1093" s="33"/>
+      <c r="K1093" s="32" t="s">
+        <v>4142</v>
+      </c>
+      <c r="L1093" s="32" t="s">
+        <v>4141</v>
+      </c>
+      <c r="M1093" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1093" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1093" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P1093" s="34"/>
+      <c r="Q1093" s="34"/>
+    </row>
+    <row r="1094" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1094" s="32" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1094" s="32" t="s">
+        <v>4126</v>
+      </c>
+      <c r="C1094" s="32" t="s">
+        <v>4067</v>
+      </c>
+      <c r="D1094" s="32" t="s">
+        <v>4067</v>
+      </c>
+      <c r="E1094" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1094" s="32" t="s">
+        <v>4080</v>
+      </c>
+      <c r="G1094" s="32" t="s">
+        <v>4081</v>
+      </c>
+      <c r="H1094" s="33"/>
+      <c r="I1094" s="32"/>
+      <c r="J1094" s="33"/>
+      <c r="K1094" s="32" t="s">
+        <v>4144</v>
+      </c>
+      <c r="L1094" s="32" t="s">
+        <v>4086</v>
+      </c>
+      <c r="M1094" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1094" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1094" s="32"/>
+      <c r="P1094" s="34"/>
+      <c r="Q1094" s="34"/>
+    </row>
+    <row r="1095" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1095" s="32" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1095" s="32" t="s">
+        <v>4126</v>
+      </c>
+      <c r="C1095" s="32" t="s">
+        <v>4145</v>
+      </c>
+      <c r="D1095" s="32" t="s">
+        <v>4145</v>
+      </c>
+      <c r="E1095" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1095" s="32" t="s">
+        <v>4155</v>
+      </c>
+      <c r="G1095" s="32" t="s">
+        <v>4156</v>
+      </c>
+      <c r="H1095" s="33"/>
+      <c r="I1095" s="32"/>
+      <c r="J1095" s="33"/>
+      <c r="K1095" s="32" t="s">
+        <v>4160</v>
+      </c>
+      <c r="L1095" s="32" t="s">
+        <v>4157</v>
+      </c>
+      <c r="M1095" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1095" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1095" s="32"/>
+      <c r="P1095" s="34"/>
+      <c r="Q1095" s="34"/>
+    </row>
+    <row r="1096" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1096" s="32" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1096" s="32" t="s">
+        <v>4126</v>
+      </c>
+      <c r="C1096" s="32" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D1096" s="32" t="s">
+        <v>4146</v>
+      </c>
+      <c r="E1096" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1096" s="32" t="s">
+        <v>4158</v>
+      </c>
+      <c r="G1096" s="32" t="s">
+        <v>4159</v>
+      </c>
+      <c r="H1096" s="33"/>
+      <c r="I1096" s="32"/>
+      <c r="J1096" s="33"/>
+      <c r="K1096" s="32" t="s">
+        <v>4161</v>
+      </c>
+      <c r="L1096" s="32" t="s">
+        <v>4163</v>
+      </c>
+      <c r="M1096" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1096" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1096" s="32"/>
+      <c r="P1096" s="34"/>
+      <c r="Q1096" s="34"/>
+    </row>
+    <row r="1097" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1097" s="32" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1097" s="32" t="s">
+        <v>4126</v>
+      </c>
+      <c r="C1097" s="32" t="s">
+        <v>4147</v>
+      </c>
+      <c r="D1097" s="32" t="s">
+        <v>4147</v>
+      </c>
+      <c r="E1097" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1097" s="32" t="s">
+        <v>4164</v>
+      </c>
+      <c r="G1097" s="32" t="s">
+        <v>4165</v>
+      </c>
+      <c r="H1097" s="33"/>
+      <c r="I1097" s="32"/>
+      <c r="J1097" s="33"/>
+      <c r="K1097" s="32" t="s">
+        <v>4166</v>
+      </c>
+      <c r="L1097" s="32" t="s">
+        <v>4167</v>
+      </c>
+      <c r="M1097" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1097" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1097" s="32"/>
+      <c r="P1097" s="34"/>
+      <c r="Q1097" s="34"/>
+    </row>
+    <row r="1098" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1098" s="32" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1098" s="32" t="s">
+        <v>4126</v>
+      </c>
+      <c r="C1098" s="32" t="s">
+        <v>4091</v>
+      </c>
+      <c r="D1098" s="32" t="s">
+        <v>4091</v>
+      </c>
+      <c r="E1098" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1098" s="32" t="s">
+        <v>4115</v>
+      </c>
+      <c r="G1098" s="32" t="s">
+        <v>4114</v>
+      </c>
+      <c r="H1098" s="33"/>
+      <c r="I1098" s="32"/>
+      <c r="J1098" s="33"/>
+      <c r="K1098" s="32" t="s">
+        <v>4132</v>
+      </c>
+      <c r="L1098" s="32" t="s">
+        <v>4117</v>
+      </c>
+      <c r="M1098" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1098" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1098" s="32"/>
+      <c r="P1098" s="34"/>
+      <c r="Q1098" s="34"/>
+    </row>
+    <row r="1099" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1099" s="32" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1099" s="32" t="s">
+        <v>4126</v>
+      </c>
+      <c r="C1099" s="32" t="s">
+        <v>4092</v>
+      </c>
+      <c r="D1099" s="32" t="s">
+        <v>4074</v>
+      </c>
+      <c r="E1099" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1099" s="32" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G1099" s="32" t="s">
+        <v>4096</v>
+      </c>
+      <c r="H1099" s="33"/>
+      <c r="I1099" s="32"/>
+      <c r="J1099" s="33"/>
+      <c r="K1099" s="32" t="s">
+        <v>4133</v>
+      </c>
+      <c r="L1099" s="32" t="s">
+        <v>4116</v>
+      </c>
+      <c r="M1099" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1099" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1099" s="32"/>
+      <c r="P1099" s="34"/>
+      <c r="Q1099" s="34"/>
+    </row>
+    <row r="1100" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1100" s="32" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1100" s="32" t="s">
+        <v>4126</v>
+      </c>
+      <c r="C1100" s="32" t="s">
+        <v>2741</v>
+      </c>
+      <c r="D1100" s="32" t="s">
+        <v>2741</v>
+      </c>
+      <c r="E1100" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1100" s="32" t="s">
+        <v>4078</v>
+      </c>
+      <c r="G1100" s="32" t="s">
+        <v>4079</v>
+      </c>
+      <c r="H1100" s="33"/>
+      <c r="I1100" s="32"/>
+      <c r="J1100" s="33"/>
+      <c r="K1100" s="32" t="s">
+        <v>4134</v>
+      </c>
+      <c r="L1100" s="32" t="s">
+        <v>2986</v>
+      </c>
+      <c r="M1100" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1100" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1100" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P1100" s="34"/>
+      <c r="Q1100" s="34"/>
+    </row>
+    <row r="1101" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1101" s="32" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1101" s="32" t="s">
+        <v>4126</v>
+      </c>
+      <c r="C1101" s="32" t="s">
+        <v>2756</v>
+      </c>
+      <c r="D1101" s="32" t="s">
+        <v>2756</v>
+      </c>
+      <c r="E1101" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1101" s="32" t="s">
+        <v>4076</v>
+      </c>
+      <c r="G1101" s="32" t="s">
+        <v>4077</v>
+      </c>
+      <c r="H1101" s="33"/>
+      <c r="I1101" s="32" t="s">
+        <v>3406</v>
+      </c>
+      <c r="J1101" s="33"/>
+      <c r="K1101" s="32" t="s">
+        <v>4135</v>
+      </c>
+      <c r="L1101" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1101" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1101" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1101" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P1101" s="34"/>
+      <c r="Q1101" s="34"/>
+    </row>
+    <row r="1102" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1102" s="32" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1102" s="32" t="s">
+        <v>4126</v>
+      </c>
+      <c r="C1102" s="32" t="s">
+        <v>4136</v>
+      </c>
+      <c r="D1102" s="32" t="s">
+        <v>4136</v>
+      </c>
+      <c r="E1102" s="32" t="s">
+        <v>3010</v>
+      </c>
+      <c r="F1102" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1102" s="32" t="s">
+        <v>3011</v>
+      </c>
+      <c r="H1102" s="33"/>
+      <c r="I1102" s="33"/>
+      <c r="J1102" s="33"/>
+      <c r="K1102" s="32" t="s">
+        <v>4075</v>
+      </c>
+      <c r="L1102" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1102" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1102" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1102" s="32"/>
+      <c r="P1102" s="34"/>
+      <c r="Q1102" s="34"/>
+    </row>
+    <row r="1103" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1103" s="32" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1103" s="32" t="s">
+        <v>4126</v>
+      </c>
+      <c r="C1103" s="32" t="s">
+        <v>4137</v>
+      </c>
+      <c r="D1103" s="32" t="s">
+        <v>4137</v>
+      </c>
+      <c r="E1103" s="32" t="s">
+        <v>3010</v>
+      </c>
+      <c r="F1103" s="32"/>
+      <c r="G1103" s="32"/>
+      <c r="H1103" s="33"/>
+      <c r="I1103" s="32"/>
+      <c r="J1103" s="33"/>
+      <c r="K1103" s="32" t="s">
+        <v>4137</v>
+      </c>
+      <c r="L1103" s="32"/>
+      <c r="M1103" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1103" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1103" s="32"/>
+      <c r="P1103" s="34"/>
+      <c r="Q1103" s="34"/>
+    </row>
+    <row r="1104" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1104" s="32" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1104" s="32" t="s">
+        <v>4126</v>
+      </c>
+      <c r="C1104" s="32" t="s">
+        <v>4148</v>
+      </c>
+      <c r="D1104" s="32" t="s">
+        <v>4148</v>
+      </c>
+      <c r="E1104" s="32" t="s">
+        <v>3010</v>
+      </c>
+      <c r="F1104" s="32"/>
+      <c r="G1104" s="32"/>
+      <c r="H1104" s="33"/>
+      <c r="I1104" s="32"/>
+      <c r="J1104" s="33"/>
+      <c r="K1104" s="32" t="s">
+        <v>4148</v>
+      </c>
+      <c r="L1104" s="32"/>
+      <c r="M1104" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1104" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1104" s="32"/>
+      <c r="P1104" s="34"/>
+      <c r="Q1104" s="34"/>
+    </row>
+    <row r="1105" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1105" s="32" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1105" s="32" t="s">
+        <v>4126</v>
+      </c>
+      <c r="C1105" s="32" t="s">
+        <v>4149</v>
+      </c>
+      <c r="D1105" s="32" t="s">
+        <v>4149</v>
+      </c>
+      <c r="E1105" s="32" t="s">
+        <v>3010</v>
+      </c>
+      <c r="F1105" s="32"/>
+      <c r="G1105" s="32"/>
+      <c r="H1105" s="33"/>
+      <c r="I1105" s="32"/>
+      <c r="J1105" s="33"/>
+      <c r="K1105" s="32" t="s">
+        <v>4149</v>
+      </c>
+      <c r="L1105" s="32"/>
+      <c r="M1105" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1105" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1105" s="32"/>
+      <c r="P1105" s="34"/>
+      <c r="Q1105" s="34"/>
+    </row>
+    <row r="1106" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1106" s="32" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1106" s="32" t="s">
+        <v>4126</v>
+      </c>
+      <c r="C1106" s="32" t="s">
+        <v>4150</v>
+      </c>
+      <c r="D1106" s="32" t="s">
+        <v>4150</v>
+      </c>
+      <c r="E1106" s="32" t="s">
+        <v>3010</v>
+      </c>
+      <c r="F1106" s="32"/>
+      <c r="G1106" s="32"/>
+      <c r="H1106" s="33"/>
+      <c r="I1106" s="32"/>
+      <c r="J1106" s="33"/>
+      <c r="K1106" s="32" t="s">
+        <v>4150</v>
+      </c>
+      <c r="L1106" s="32"/>
+      <c r="M1106" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1106" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1106" s="32"/>
+      <c r="P1106" s="34"/>
+      <c r="Q1106" s="34"/>
+    </row>
+    <row r="1107" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1107" s="35" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1107" s="35" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C1107" s="35" t="s">
+        <v>2534</v>
+      </c>
+      <c r="D1107" s="35" t="s">
+        <v>4175</v>
+      </c>
+      <c r="E1107" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1107" s="35" t="s">
+        <v>4172</v>
+      </c>
+      <c r="G1107" s="35" t="s">
+        <v>4173</v>
+      </c>
+      <c r="H1107" s="36"/>
+      <c r="I1107" s="35" t="s">
+        <v>2534</v>
+      </c>
+      <c r="J1107" s="36"/>
+      <c r="K1107" s="35" t="s">
+        <v>4174</v>
+      </c>
+      <c r="L1107" s="35" t="s">
+        <v>4175</v>
+      </c>
+      <c r="M1107" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1107" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1107" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="P1107" s="37"/>
+      <c r="Q1107" s="37"/>
+    </row>
+    <row r="1108" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1108" s="35" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1108" s="35" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C1108" s="35" t="s">
+        <v>4176</v>
+      </c>
+      <c r="D1108" s="35" t="s">
+        <v>4176</v>
+      </c>
+      <c r="E1108" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1108" s="35" t="s">
+        <v>4177</v>
+      </c>
+      <c r="G1108" s="35" t="s">
+        <v>4178</v>
+      </c>
+      <c r="H1108" s="36"/>
+      <c r="I1108" s="35" t="s">
+        <v>4180</v>
+      </c>
+      <c r="J1108" s="36"/>
+      <c r="K1108" s="35" t="s">
+        <v>4179</v>
+      </c>
+      <c r="L1108" s="35" t="s">
+        <v>4176</v>
+      </c>
+      <c r="M1108" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1108" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1108" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="P1108" s="37"/>
+      <c r="Q1108" s="37"/>
+    </row>
+    <row r="1109" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1109" s="35" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1109" s="35" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C1109" s="35" t="s">
+        <v>4181</v>
+      </c>
+      <c r="D1109" s="35" t="s">
+        <v>4181</v>
+      </c>
+      <c r="E1109" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1109" s="35" t="s">
+        <v>4182</v>
+      </c>
+      <c r="G1109" s="35" t="s">
+        <v>4183</v>
+      </c>
+      <c r="H1109" s="36"/>
+      <c r="I1109" s="35" t="s">
+        <v>4184</v>
+      </c>
+      <c r="J1109" s="36"/>
+      <c r="K1109" s="35" t="s">
+        <v>4185</v>
+      </c>
+      <c r="L1109" s="35" t="s">
+        <v>4181</v>
+      </c>
+      <c r="M1109" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1109" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1109" s="35"/>
+      <c r="P1109" s="37"/>
+      <c r="Q1109" s="37"/>
+    </row>
+    <row r="1110" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1110" s="35" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1110" s="35" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C1110" s="35" t="s">
+        <v>4181</v>
+      </c>
+      <c r="D1110" s="35" t="s">
+        <v>4181</v>
+      </c>
+      <c r="E1110" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1110" s="35" t="s">
+        <v>4182</v>
+      </c>
+      <c r="G1110" s="35" t="s">
+        <v>4183</v>
+      </c>
+      <c r="H1110" s="36"/>
+      <c r="I1110" s="35" t="s">
+        <v>4184</v>
+      </c>
+      <c r="J1110" s="36"/>
+      <c r="K1110" s="35" t="s">
+        <v>4185</v>
+      </c>
+      <c r="L1110" s="35" t="s">
+        <v>4181</v>
+      </c>
+      <c r="M1110" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1110" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1110" s="35"/>
+      <c r="P1110" s="37"/>
+      <c r="Q1110" s="37"/>
+    </row>
+    <row r="1111" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1111" s="35" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1111" s="35" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C1111" s="35" t="s">
+        <v>4186</v>
+      </c>
+      <c r="D1111" s="35" t="s">
+        <v>4186</v>
+      </c>
+      <c r="E1111" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1111" s="35" t="s">
+        <v>4187</v>
+      </c>
+      <c r="G1111" s="35" t="s">
+        <v>4188</v>
+      </c>
+      <c r="H1111" s="36"/>
+      <c r="I1111" s="35"/>
+      <c r="J1111" s="36"/>
+      <c r="K1111" s="35" t="s">
+        <v>4185</v>
+      </c>
+      <c r="L1111" s="35" t="s">
+        <v>4186</v>
+      </c>
+      <c r="M1111" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1111" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1111" s="35"/>
+      <c r="P1111" s="37"/>
+      <c r="Q1111" s="37"/>
+    </row>
+    <row r="1112" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1112" s="35" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1112" s="35" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C1112" s="35" t="s">
+        <v>4091</v>
+      </c>
+      <c r="D1112" s="35" t="s">
+        <v>4091</v>
+      </c>
+      <c r="E1112" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1112" s="35" t="s">
+        <v>4115</v>
+      </c>
+      <c r="G1112" s="35" t="s">
+        <v>4114</v>
+      </c>
+      <c r="H1112" s="36"/>
+      <c r="I1112" s="35"/>
+      <c r="J1112" s="36"/>
+      <c r="K1112" s="35" t="s">
+        <v>4189</v>
+      </c>
+      <c r="L1112" s="35" t="s">
+        <v>4117</v>
+      </c>
+      <c r="M1112" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1112" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1112" s="35"/>
+      <c r="P1112" s="37"/>
+      <c r="Q1112" s="37"/>
+    </row>
+    <row r="1113" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1113" s="35" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1113" s="35" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C1113" s="35" t="s">
+        <v>4092</v>
+      </c>
+      <c r="D1113" s="35" t="s">
+        <v>4074</v>
+      </c>
+      <c r="E1113" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1113" s="35" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G1113" s="35" t="s">
+        <v>4096</v>
+      </c>
+      <c r="H1113" s="36"/>
+      <c r="I1113" s="35"/>
+      <c r="J1113" s="36"/>
+      <c r="K1113" s="35" t="s">
+        <v>4190</v>
+      </c>
+      <c r="L1113" s="35" t="s">
+        <v>4116</v>
+      </c>
+      <c r="M1113" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1113" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1113" s="35"/>
+      <c r="P1113" s="37"/>
+      <c r="Q1113" s="37"/>
+    </row>
+    <row r="1114" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1114" s="35" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1114" s="35" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C1114" s="35" t="s">
+        <v>2741</v>
+      </c>
+      <c r="D1114" s="35" t="s">
+        <v>2741</v>
+      </c>
+      <c r="E1114" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1114" s="35" t="s">
+        <v>4078</v>
+      </c>
+      <c r="G1114" s="35" t="s">
+        <v>4079</v>
+      </c>
+      <c r="H1114" s="36"/>
+      <c r="I1114" s="35"/>
+      <c r="J1114" s="36"/>
+      <c r="K1114" s="35" t="s">
+        <v>4191</v>
+      </c>
+      <c r="L1114" s="35" t="s">
+        <v>2986</v>
+      </c>
+      <c r="M1114" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1114" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1114" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="P1114" s="37"/>
+      <c r="Q1114" s="37"/>
+    </row>
+    <row r="1115" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1115" s="35" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1115" s="35" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C1115" s="35" t="s">
+        <v>2756</v>
+      </c>
+      <c r="D1115" s="35" t="s">
+        <v>2756</v>
+      </c>
+      <c r="E1115" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1115" s="35" t="s">
+        <v>4076</v>
+      </c>
+      <c r="G1115" s="35" t="s">
+        <v>4077</v>
+      </c>
+      <c r="H1115" s="36"/>
+      <c r="I1115" s="35" t="s">
+        <v>3406</v>
+      </c>
+      <c r="J1115" s="36"/>
+      <c r="K1115" s="35" t="s">
+        <v>4192</v>
+      </c>
+      <c r="L1115" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1115" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1115" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1115" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="P1115" s="37"/>
+      <c r="Q1115" s="37"/>
+    </row>
+    <row r="1116" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1116" s="35" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1116" s="35" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C1116" s="35" t="s">
+        <v>4171</v>
+      </c>
+      <c r="D1116" s="35" t="s">
+        <v>4171</v>
+      </c>
+      <c r="E1116" s="35" t="s">
+        <v>3010</v>
+      </c>
+      <c r="F1116" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1116" s="35" t="s">
+        <v>3011</v>
+      </c>
+      <c r="H1116" s="36"/>
+      <c r="I1116" s="36"/>
+      <c r="J1116" s="36"/>
+      <c r="K1116" s="35" t="s">
+        <v>4171</v>
+      </c>
+      <c r="L1116" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1116" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1116" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1116" s="36"/>
+      <c r="P1116" s="37"/>
+      <c r="Q1116" s="37"/>
+    </row>
+    <row r="1117" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1117" s="35" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1117" s="35" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C1117" s="35" t="s">
+        <v>4151</v>
+      </c>
+      <c r="D1117" s="35" t="s">
+        <v>4151</v>
+      </c>
+      <c r="E1117" s="35" t="s">
+        <v>3010</v>
+      </c>
+      <c r="F1117" s="36"/>
+      <c r="G1117" s="36"/>
+      <c r="H1117" s="36"/>
+      <c r="I1117" s="36"/>
+      <c r="J1117" s="36"/>
+      <c r="K1117" s="35" t="s">
+        <v>4151</v>
+      </c>
+      <c r="L1117" s="36"/>
+      <c r="M1117" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1117" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1117" s="36"/>
+      <c r="P1117" s="36"/>
+      <c r="Q1117" s="36"/>
+    </row>
+    <row r="1118" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1118" s="35" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1118" s="35" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C1118" s="35" t="s">
+        <v>4152</v>
+      </c>
+      <c r="D1118" s="35" t="s">
+        <v>4152</v>
+      </c>
+      <c r="E1118" s="35" t="s">
+        <v>3010</v>
+      </c>
+      <c r="F1118" s="36"/>
+      <c r="G1118" s="36"/>
+      <c r="H1118" s="36"/>
+      <c r="I1118" s="36"/>
+      <c r="J1118" s="36"/>
+      <c r="K1118" s="35" t="s">
+        <v>4152</v>
+      </c>
+      <c r="L1118" s="36"/>
+      <c r="M1118" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1118" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1118" s="36"/>
+      <c r="P1118" s="36"/>
+      <c r="Q1118" s="36"/>
+    </row>
+    <row r="1119" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1119" s="35" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1119" s="35" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C1119" s="35" t="s">
+        <v>4153</v>
+      </c>
+      <c r="D1119" s="35" t="s">
+        <v>4153</v>
+      </c>
+      <c r="E1119" s="35" t="s">
+        <v>3010</v>
+      </c>
+      <c r="F1119" s="36"/>
+      <c r="G1119" s="36"/>
+      <c r="H1119" s="36"/>
+      <c r="I1119" s="36"/>
+      <c r="J1119" s="36"/>
+      <c r="K1119" s="35" t="s">
+        <v>4153</v>
+      </c>
+      <c r="L1119" s="36"/>
+      <c r="M1119" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1119" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1119" s="36"/>
+      <c r="P1119" s="36"/>
+      <c r="Q1119" s="36"/>
+    </row>
+    <row r="1120" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1120" s="35" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1120" s="35" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C1120" s="35" t="s">
+        <v>4154</v>
+      </c>
+      <c r="D1120" s="35" t="s">
+        <v>4154</v>
+      </c>
+      <c r="E1120" s="35" t="s">
+        <v>3010</v>
+      </c>
+      <c r="F1120" s="36"/>
+      <c r="G1120" s="36"/>
+      <c r="H1120" s="36"/>
+      <c r="I1120" s="36"/>
+      <c r="J1120" s="36"/>
+      <c r="K1120" s="35" t="s">
+        <v>4154</v>
+      </c>
+      <c r="L1120" s="36"/>
+      <c r="M1120" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1120" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1120" s="36"/>
+      <c r="P1120" s="36"/>
+      <c r="Q1120" s="36"/>
+    </row>
+    <row r="1121" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1121" s="27"/>
+      <c r="B1121" s="27"/>
+    </row>
+    <row r="1122" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1123" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1124" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1125" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1126" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1127" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1128" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1129" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1130" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1131" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1132" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1133" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1134" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1135" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1136" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1137" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1138" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1139" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1140" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/substance_dictionary/dictionary_current_all_entities.xlsx
+++ b/substance_dictionary/dictionary_current_all_entities.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/welscha2/Documents/d/fda/gsrs3/front/GSRSFrontend/substance_dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304DAC97-E573-1040-99ED-7A052A229F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C15551-D7D4-6143-AB15-C37DD996A07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="619" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20280" tabRatio="619" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="1" r:id="rId1"/>
@@ -14081,9 +14081,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1191"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="M1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1100" sqref="A1100:Q1186"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1109" sqref="F1109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
